--- a/laminate_calc_theory_material_data.xlsx
+++ b/laminate_calc_theory_material_data.xlsx
@@ -4527,7 +4527,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4592,16 +4592,16 @@
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>50</v>
@@ -4639,7 +4639,7 @@
         <v>45</v>
       </c>
       <c r="F5" s="53">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G5" s="54">
         <v>0</v>
@@ -4675,19 +4675,19 @@
       </c>
       <c r="D6" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>57450</v>
+        <v>20010000</v>
       </c>
       <c r="E6" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>57450</v>
+        <v>20010000</v>
       </c>
       <c r="F6" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>57450</v>
+        <v>20010000</v>
       </c>
       <c r="G6" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>0</v>
+        <v>20010000</v>
       </c>
       <c r="H6" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,2,0)</f>
@@ -4726,19 +4726,19 @@
       </c>
       <c r="D7" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>57450</v>
+        <v>1301000</v>
       </c>
       <c r="E7" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>57450</v>
+        <v>1301000</v>
       </c>
       <c r="F7" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>57450</v>
+        <v>1301000</v>
       </c>
       <c r="G7" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>0</v>
+        <v>1301000</v>
       </c>
       <c r="H7" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,3,0)</f>
@@ -4777,19 +4777,19 @@
       </c>
       <c r="D8" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,4,0)</f>
-        <v>2630</v>
+        <v>1001000</v>
       </c>
       <c r="E8" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,4,0)</f>
-        <v>2630</v>
+        <v>1001000</v>
       </c>
       <c r="F8" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,4,0)</f>
-        <v>2630</v>
+        <v>1001000</v>
       </c>
       <c r="G8" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,4,0)</f>
-        <v>0</v>
+        <v>1001000</v>
       </c>
       <c r="H8" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,4,0)</f>
@@ -4828,19 +4828,19 @@
       </c>
       <c r="D9" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,5,0)</f>
-        <v>3.6999999999999998E-2</v>
+        <v>0.3</v>
       </c>
       <c r="E9" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,5,0)</f>
-        <v>3.6999999999999998E-2</v>
+        <v>0.3</v>
       </c>
       <c r="F9" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,5,0)</f>
-        <v>3.6999999999999998E-2</v>
+        <v>0.3</v>
       </c>
       <c r="G9" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,5,0)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H9" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,5,0)</f>
@@ -4879,19 +4879,19 @@
       </c>
       <c r="D10" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,6,0)</f>
-        <v>700</v>
+        <v>14</v>
       </c>
       <c r="E10" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,6,0)</f>
-        <v>700</v>
+        <v>14</v>
       </c>
       <c r="F10" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,6,0)</f>
-        <v>700</v>
+        <v>14</v>
       </c>
       <c r="G10" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,6,0)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H10" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,6,0)</f>
@@ -4930,19 +4930,19 @@
       </c>
       <c r="D11" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,7,0)</f>
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,7,0)</f>
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="F11" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,7,0)</f>
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="G11" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,7,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H11" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,7,0)</f>
@@ -4981,19 +4981,19 @@
       </c>
       <c r="D12" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,8,0)</f>
-        <v>700</v>
+        <v>16</v>
       </c>
       <c r="E12" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,8,0)</f>
-        <v>700</v>
+        <v>16</v>
       </c>
       <c r="F12" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,8,0)</f>
-        <v>700</v>
+        <v>16</v>
       </c>
       <c r="G12" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,8,0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H12" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,8,0)</f>
@@ -5032,19 +5032,19 @@
       </c>
       <c r="D13" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,9,0)</f>
-        <v>350</v>
+        <v>17</v>
       </c>
       <c r="E13" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,9,0)</f>
-        <v>350</v>
+        <v>17</v>
       </c>
       <c r="F13" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,9,0)</f>
-        <v>350</v>
+        <v>17</v>
       </c>
       <c r="G13" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,9,0)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H13" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,9,0)</f>
@@ -5083,19 +5083,19 @@
       </c>
       <c r="D14" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,10,0)</f>
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="E14" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,10,0)</f>
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="F14" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,10,0)</f>
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="G14" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,10,0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H14" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,10,0)</f>
@@ -5134,19 +5134,19 @@
       </c>
       <c r="D15" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,11,0)</f>
-        <v>0.22</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E15" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,11,0)</f>
-        <v>0.22</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F15" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,11,0)</f>
-        <v>0.22</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G15" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,11,0)</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H15" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,11,0)</f>
@@ -5185,19 +5185,19 @@
       </c>
       <c r="D16" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,12,0)</f>
-        <v>1460</v>
+        <v>20</v>
       </c>
       <c r="E16" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,12,0)</f>
-        <v>1460</v>
+        <v>20</v>
       </c>
       <c r="F16" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,12,0)</f>
-        <v>1460</v>
+        <v>20</v>
       </c>
       <c r="G16" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,12,0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H16" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,12,0)</f>
@@ -5236,19 +5236,19 @@
       </c>
       <c r="D17" s="49">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>321.2</v>
+        <v>21</v>
       </c>
       <c r="E17" s="49">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>321.2</v>
+        <v>21</v>
       </c>
       <c r="F17" s="49">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>321.2</v>
+        <v>21</v>
       </c>
       <c r="G17" s="49">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H17" s="49">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,13,0)</f>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="C20" s="2">
         <f>SUM(D17:M17)</f>
-        <v>963.59999999999991</v>
+        <v>84</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>35</v>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="C22" s="2">
         <f>SUM(D15:M15)</f>
-        <v>0.66</v>
+        <v>0.02</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>33</v>
@@ -5337,7 +5337,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="9">
-        <v>10</v>
+        <v>20010000</v>
       </c>
       <c r="H5" s="9">
         <v>0</v>
@@ -5462,7 +5462,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="9">
-        <v>11</v>
+        <v>1301000</v>
       </c>
       <c r="H6" s="11">
         <v>0</v>
@@ -5506,7 +5506,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="9">
-        <v>12</v>
+        <v>1001000</v>
       </c>
       <c r="H7" s="11">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="9">
-        <v>13</v>
+        <v>0.3</v>
       </c>
       <c r="H8" s="11">
         <v>0</v>
@@ -5814,7 +5814,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="9">
-        <v>19</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H14" s="11">
         <v>0</v>

--- a/laminate_calc_theory_material_data.xlsx
+++ b/laminate_calc_theory_material_data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
   <si>
     <t>Workflow&gt;</t>
   </si>
@@ -296,9 +296,6 @@
     <t>Stacking sequence of laminate</t>
   </si>
   <si>
-    <t>test3</t>
-  </si>
-  <si>
     <t>phi</t>
   </si>
   <si>
@@ -323,10 +320,47 @@
     <t>Angle</t>
   </si>
   <si>
-    <t>UD160</t>
+    <t>NA</t>
   </si>
   <si>
-    <t>NA</t>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>cL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>cT</t>
+    </r>
+  </si>
+  <si>
+    <t>test_nasa</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -3962,8 +3996,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14317976" y="138367"/>
-          <a:ext cx="5068734" cy="4648465"/>
+          <a:off x="14341296" y="138367"/>
+          <a:ext cx="5079244" cy="4638612"/>
           <a:chOff x="6626087" y="4265543"/>
           <a:chExt cx="5095238" cy="4634092"/>
         </a:xfrm>
@@ -4047,8 +4081,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10060520" y="238126"/>
-          <a:ext cx="4222699" cy="4484973"/>
+          <a:off x="10074643" y="238126"/>
+          <a:ext cx="4231896" cy="4475120"/>
           <a:chOff x="10003930" y="238126"/>
           <a:chExt cx="4191323" cy="4479370"/>
         </a:xfrm>
@@ -4526,8 +4560,8 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4588,67 +4622,67 @@
         <v>14</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L4" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M4" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="51">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E5" s="52">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F5" s="53">
         <v>45</v>
       </c>
       <c r="G5" s="54">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H5" s="55">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I5" s="56">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="J5" s="57">
         <v>0</v>
@@ -4675,31 +4709,31 @@
       </c>
       <c r="D6" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>20010000</v>
+        <v>57450</v>
       </c>
       <c r="E6" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>20010000</v>
+        <v>57450</v>
       </c>
       <c r="F6" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>20010000</v>
+        <v>57450</v>
       </c>
       <c r="G6" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>20010000</v>
+        <v>57450</v>
       </c>
       <c r="H6" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>0</v>
+        <v>57450</v>
       </c>
       <c r="I6" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>0</v>
+        <v>57450</v>
       </c>
       <c r="J6" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>0</v>
+        <v>57450</v>
       </c>
       <c r="K6" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,2,0)</f>
@@ -4726,31 +4760,31 @@
       </c>
       <c r="D7" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>1301000</v>
+        <v>57450</v>
       </c>
       <c r="E7" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>1301000</v>
+        <v>57450</v>
       </c>
       <c r="F7" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>1301000</v>
+        <v>57450</v>
       </c>
       <c r="G7" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>1301000</v>
+        <v>57450</v>
       </c>
       <c r="H7" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>0</v>
+        <v>57450</v>
       </c>
       <c r="I7" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>0</v>
+        <v>57450</v>
       </c>
       <c r="J7" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>0</v>
+        <v>57450</v>
       </c>
       <c r="K7" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,3,0)</f>
@@ -4777,31 +4811,31 @@
       </c>
       <c r="D8" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,4,0)</f>
-        <v>1001000</v>
+        <v>2630</v>
       </c>
       <c r="E8" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,4,0)</f>
-        <v>1001000</v>
+        <v>2630</v>
       </c>
       <c r="F8" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,4,0)</f>
-        <v>1001000</v>
+        <v>2630</v>
       </c>
       <c r="G8" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,4,0)</f>
-        <v>1001000</v>
+        <v>2630</v>
       </c>
       <c r="H8" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,4,0)</f>
-        <v>0</v>
+        <v>2630</v>
       </c>
       <c r="I8" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,4,0)</f>
-        <v>0</v>
+        <v>2630</v>
       </c>
       <c r="J8" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,4,0)</f>
-        <v>0</v>
+        <v>2630</v>
       </c>
       <c r="K8" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,4,0)</f>
@@ -4828,31 +4862,31 @@
       </c>
       <c r="D9" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,5,0)</f>
-        <v>0.3</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E9" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,5,0)</f>
-        <v>0.3</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="F9" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,5,0)</f>
-        <v>0.3</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="G9" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,5,0)</f>
-        <v>0.3</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="H9" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,5,0)</f>
-        <v>0</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="I9" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,5,0)</f>
-        <v>0</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="J9" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,5,0)</f>
-        <v>0</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="K9" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,5,0)</f>
@@ -4879,31 +4913,31 @@
       </c>
       <c r="D10" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,6,0)</f>
-        <v>14</v>
+        <v>700</v>
       </c>
       <c r="E10" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,6,0)</f>
-        <v>14</v>
+        <v>700</v>
       </c>
       <c r="F10" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,6,0)</f>
-        <v>14</v>
+        <v>700</v>
       </c>
       <c r="G10" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,6,0)</f>
-        <v>14</v>
+        <v>700</v>
       </c>
       <c r="H10" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,6,0)</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I10" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,6,0)</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J10" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,6,0)</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K10" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,6,0)</f>
@@ -4923,38 +4957,38 @@
         <v>23</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C11" s="62" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,7,0)</f>
-        <v>15</v>
+        <v>350</v>
       </c>
       <c r="E11" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,7,0)</f>
-        <v>15</v>
+        <v>350</v>
       </c>
       <c r="F11" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,7,0)</f>
-        <v>15</v>
+        <v>350</v>
       </c>
       <c r="G11" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,7,0)</f>
-        <v>15</v>
+        <v>350</v>
       </c>
       <c r="H11" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,7,0)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="I11" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,7,0)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="J11" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,7,0)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="K11" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,7,0)</f>
@@ -4981,31 +5015,31 @@
       </c>
       <c r="D12" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,8,0)</f>
-        <v>16</v>
+        <v>700</v>
       </c>
       <c r="E12" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,8,0)</f>
-        <v>16</v>
+        <v>700</v>
       </c>
       <c r="F12" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,8,0)</f>
-        <v>16</v>
+        <v>700</v>
       </c>
       <c r="G12" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,8,0)</f>
-        <v>16</v>
+        <v>700</v>
       </c>
       <c r="H12" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,8,0)</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I12" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,8,0)</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J12" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,8,0)</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K12" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,8,0)</f>
@@ -5025,38 +5059,38 @@
         <v>25</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C13" s="62" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,9,0)</f>
-        <v>17</v>
+        <v>350</v>
       </c>
       <c r="E13" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,9,0)</f>
-        <v>17</v>
+        <v>350</v>
       </c>
       <c r="F13" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,9,0)</f>
-        <v>17</v>
+        <v>350</v>
       </c>
       <c r="G13" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,9,0)</f>
-        <v>17</v>
+        <v>350</v>
       </c>
       <c r="H13" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,9,0)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="I13" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,9,0)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="J13" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,9,0)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="K13" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,9,0)</f>
@@ -5083,31 +5117,31 @@
       </c>
       <c r="D14" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,10,0)</f>
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E14" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,10,0)</f>
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F14" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,10,0)</f>
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="G14" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,10,0)</f>
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="H14" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,10,0)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I14" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,10,0)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J14" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,10,0)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K14" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,10,0)</f>
@@ -5134,31 +5168,31 @@
       </c>
       <c r="D15" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,11,0)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.22</v>
       </c>
       <c r="E15" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,11,0)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,11,0)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.22</v>
       </c>
       <c r="G15" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,11,0)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.22</v>
       </c>
       <c r="H15" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,11,0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I15" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,11,0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J15" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,11,0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K15" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,11,0)</f>
@@ -5185,31 +5219,31 @@
       </c>
       <c r="D16" s="5">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,12,0)</f>
-        <v>20</v>
+        <v>1460</v>
       </c>
       <c r="E16" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,12,0)</f>
-        <v>20</v>
+        <v>1460</v>
       </c>
       <c r="F16" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,12,0)</f>
-        <v>20</v>
+        <v>1460</v>
       </c>
       <c r="G16" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,12,0)</f>
-        <v>20</v>
+        <v>1460</v>
       </c>
       <c r="H16" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,12,0)</f>
-        <v>0</v>
+        <v>1460</v>
       </c>
       <c r="I16" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,12,0)</f>
-        <v>0</v>
+        <v>1460</v>
       </c>
       <c r="J16" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,12,0)</f>
-        <v>0</v>
+        <v>1460</v>
       </c>
       <c r="K16" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,12,0)</f>
@@ -5236,31 +5270,31 @@
       </c>
       <c r="D17" s="49">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>21</v>
+        <v>321.2</v>
       </c>
       <c r="E17" s="49">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>21</v>
+        <v>321.2</v>
       </c>
       <c r="F17" s="49">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>21</v>
+        <v>321.2</v>
       </c>
       <c r="G17" s="49">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>21</v>
+        <v>321.2</v>
       </c>
       <c r="H17" s="49">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>0</v>
+        <v>321.2</v>
       </c>
       <c r="I17" s="49">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>0</v>
+        <v>321.2</v>
       </c>
       <c r="J17" s="49">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>0</v>
+        <v>321.2</v>
       </c>
       <c r="K17" s="49">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,13,0)</f>
@@ -5280,11 +5314,11 @@
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2">
         <f>SUM(D17:M17)</f>
-        <v>84</v>
+        <v>2248.4</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>35</v>
@@ -5296,11 +5330,11 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2">
         <f>SUM(D15:M15)</f>
-        <v>0.02</v>
+        <v>2.66</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>33</v>
@@ -5313,7 +5347,8 @@
     <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -5337,7 +5372,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5365,37 +5400,37 @@
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
       <c r="D4" s="64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5414,8 +5449,8 @@
       <c r="E5" s="15">
         <v>57450</v>
       </c>
-      <c r="F5" s="9">
-        <v>1</v>
+      <c r="F5" s="15">
+        <v>57450</v>
       </c>
       <c r="G5" s="9">
         <v>20010000</v>
@@ -5458,8 +5493,8 @@
       <c r="E6" s="16">
         <v>57450</v>
       </c>
-      <c r="F6" s="9">
-        <v>2</v>
+      <c r="F6" s="16">
+        <v>57450</v>
       </c>
       <c r="G6" s="9">
         <v>1301000</v>
@@ -5502,8 +5537,8 @@
       <c r="E7" s="16">
         <v>2630</v>
       </c>
-      <c r="F7" s="9">
-        <v>3</v>
+      <c r="F7" s="16">
+        <v>2630</v>
       </c>
       <c r="G7" s="9">
         <v>1001000</v>
@@ -5546,8 +5581,8 @@
       <c r="E8" s="16">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F8" s="9">
-        <v>4</v>
+      <c r="F8" s="16">
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="G8" s="9">
         <v>0.3</v>
@@ -5590,8 +5625,8 @@
       <c r="E9" s="16">
         <v>700</v>
       </c>
-      <c r="F9" s="9">
-        <v>5</v>
+      <c r="F9" s="16">
+        <v>700</v>
       </c>
       <c r="G9" s="9">
         <v>14</v>
@@ -5634,8 +5669,8 @@
       <c r="E10" s="16">
         <v>350</v>
       </c>
-      <c r="F10" s="9">
-        <v>6</v>
+      <c r="F10" s="16">
+        <v>350</v>
       </c>
       <c r="G10" s="9">
         <v>15</v>
@@ -5678,8 +5713,8 @@
       <c r="E11" s="16">
         <v>700</v>
       </c>
-      <c r="F11" s="9">
-        <v>7</v>
+      <c r="F11" s="16">
+        <v>700</v>
       </c>
       <c r="G11" s="9">
         <v>16</v>
@@ -5722,8 +5757,8 @@
       <c r="E12" s="16">
         <v>350</v>
       </c>
-      <c r="F12" s="9">
-        <v>8</v>
+      <c r="F12" s="16">
+        <v>350</v>
       </c>
       <c r="G12" s="9">
         <v>17</v>
@@ -5766,8 +5801,8 @@
       <c r="E13" s="16">
         <v>70</v>
       </c>
-      <c r="F13" s="9">
-        <v>9</v>
+      <c r="F13" s="16">
+        <v>70</v>
       </c>
       <c r="G13" s="9">
         <v>18</v>
@@ -5810,8 +5845,8 @@
       <c r="E14" s="16">
         <v>0.22</v>
       </c>
-      <c r="F14" s="9">
-        <v>10</v>
+      <c r="F14" s="16">
+        <v>0.5</v>
       </c>
       <c r="G14" s="9">
         <v>5.0000000000000001E-3</v>
@@ -5854,8 +5889,8 @@
       <c r="E15" s="16">
         <v>1460</v>
       </c>
-      <c r="F15" s="9">
-        <v>11</v>
+      <c r="F15" s="16">
+        <v>1460</v>
       </c>
       <c r="G15" s="9">
         <v>20</v>
@@ -5898,8 +5933,8 @@
       <c r="E16" s="16">
         <v>321.2</v>
       </c>
-      <c r="F16" s="9">
-        <v>12</v>
+      <c r="F16" s="16">
+        <v>321.2</v>
       </c>
       <c r="G16" s="9">
         <v>21</v>

--- a/laminate_calc_theory_material_data.xlsx
+++ b/laminate_calc_theory_material_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction,_Theory" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
   <si>
     <t>Workflow&gt;</t>
   </si>
@@ -290,9 +290,6 @@
     </r>
   </si>
   <si>
-    <t>Database of material parametres, carbon cloth</t>
-  </si>
-  <si>
     <t>Stacking sequence of laminate</t>
   </si>
   <si>
@@ -362,12 +359,21 @@
   <si>
     <t>test</t>
   </si>
+  <si>
+    <t>Database of material parametres, cloth</t>
+  </si>
+  <si>
+    <t>Database of material parametres, core</t>
+  </si>
+  <si>
+    <t>Sandwich theory</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +470,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -914,7 +928,7 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1099,6 +1113,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1154,8 +1172,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>326653</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3277</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>84920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1240,8 +1258,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13049249" y="7754472"/>
-          <a:ext cx="9378847" cy="9849932"/>
+          <a:off x="12992099" y="7887822"/>
+          <a:ext cx="9333943" cy="9841768"/>
           <a:chOff x="12886765" y="7720855"/>
           <a:chExt cx="9273991" cy="9845130"/>
         </a:xfrm>
@@ -1439,8 +1457,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6263290" y="0"/>
-          <a:ext cx="6753744" cy="2410649"/>
+          <a:off x="6236076" y="0"/>
+          <a:ext cx="6723808" cy="2543999"/>
           <a:chOff x="4667252" y="33616"/>
           <a:chExt cx="6674503" cy="2433061"/>
         </a:xfrm>
@@ -1549,8 +1567,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13116484" y="56029"/>
-          <a:ext cx="6780802" cy="7471124"/>
+          <a:off x="13059334" y="56029"/>
+          <a:ext cx="6746784" cy="7604474"/>
           <a:chOff x="12909176" y="44823"/>
           <a:chExt cx="6704762" cy="7471124"/>
         </a:xfrm>
@@ -1820,8 +1838,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6448185" y="17362714"/>
-          <a:ext cx="6410564" cy="10655710"/>
+          <a:off x="6420971" y="17487900"/>
+          <a:ext cx="6380628" cy="10655710"/>
           <a:chOff x="6163235" y="12718677"/>
           <a:chExt cx="6331323" cy="10655710"/>
         </a:xfrm>
@@ -1977,8 +1995,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13026838" y="18105664"/>
-          <a:ext cx="6837945" cy="2360747"/>
+          <a:off x="12969688" y="18230850"/>
+          <a:ext cx="6803927" cy="2360747"/>
           <a:chOff x="12875559" y="18100862"/>
           <a:chExt cx="6761905" cy="2360747"/>
         </a:xfrm>
@@ -2129,16 +2147,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>488749</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>18590</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>615320</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>184597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>352688</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>11194</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>396114</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>177201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2150,8 +2168,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17021428" y="26906304"/>
-          <a:ext cx="3034403" cy="754604"/>
+          <a:off x="16617320" y="27616597"/>
+          <a:ext cx="2828794" cy="754604"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2181,1384 +2199,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>185254</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>20410</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>47523</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>143528</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="98" name="Skupina 97"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7533111" y="28622624"/>
-          <a:ext cx="3536198" cy="3552118"/>
-          <a:chOff x="13139248" y="27241500"/>
-          <a:chExt cx="3519633" cy="3552118"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="61" name="Obrázek 60"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13189324" y="29622189"/>
-            <a:ext cx="3464989" cy="1171429"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="97" name="Skupina 96"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="13139248" y="27241500"/>
-            <a:ext cx="3519633" cy="2285714"/>
-            <a:chOff x="13139248" y="27241500"/>
-            <a:chExt cx="3519633" cy="2285714"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="TextovéPole 15"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="13139248" y="27439841"/>
-              <a:ext cx="777006" cy="501676"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="2800" b="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>VIII</a:t>
-              </a:r>
-              <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="96" name="Skupina 95"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="13906500" y="27241500"/>
-              <a:ext cx="2752381" cy="2285714"/>
-              <a:chOff x="13982700" y="28174950"/>
-              <a:chExt cx="2752381" cy="2285714"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="93" name="Obrázek 92"/>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13982700" y="28174950"/>
-                <a:ext cx="2752381" cy="2285714"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="94" name="Obdélník 93"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="16149917" y="28987497"/>
-                <a:ext cx="334266" cy="267009"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr lang="cs-CZ" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="95" name="Obdélník 94"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15582900" y="28336875"/>
-                <a:ext cx="504825" cy="904875"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr lang="cs-CZ" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>213231</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>125344</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>517887</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>97985</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="107" name="Skupina 106"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="13071981" y="20726558"/>
-          <a:ext cx="13272263" cy="10069141"/>
-          <a:chOff x="13044767" y="20712950"/>
-          <a:chExt cx="13272263" cy="10069141"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="103" name="Skupina 102"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="19520783" y="20735150"/>
-            <a:ext cx="6796247" cy="8466667"/>
-            <a:chOff x="20388238" y="18826748"/>
-            <a:chExt cx="6877890" cy="8466667"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="58" name="Obrázek 57"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="20388238" y="18826748"/>
-              <a:ext cx="6877890" cy="8466667"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="86" name="Obdélník 85"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="20902173" y="23237503"/>
-              <a:ext cx="5089688" cy="3493582"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="cs-CZ" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="90" name="Skupina 89"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="13104638" y="20712950"/>
-            <a:ext cx="6097407" cy="1899399"/>
-            <a:chOff x="13025717" y="20684376"/>
-            <a:chExt cx="6066111" cy="1899399"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="60" name="Skupina 59"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="13025717" y="20684376"/>
-              <a:ext cx="6066111" cy="1838097"/>
-              <a:chOff x="12931588" y="20687738"/>
-              <a:chExt cx="6028571" cy="1838097"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="56" name="Skupina 55"/>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="12931588" y="20687738"/>
-                <a:ext cx="6028571" cy="1838097"/>
-                <a:chOff x="12931588" y="20687738"/>
-                <a:chExt cx="6028571" cy="1838097"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:pic>
-              <xdr:nvPicPr>
-                <xdr:cNvPr id="52" name="Obrázek 51"/>
-                <xdr:cNvPicPr>
-                  <a:picLocks noChangeAspect="1"/>
-                </xdr:cNvPicPr>
-              </xdr:nvPicPr>
-              <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </xdr:blipFill>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="12931588" y="20697264"/>
-                  <a:ext cx="6028571" cy="1828571"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-              </xdr:spPr>
-            </xdr:pic>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="54" name="TextovéPole 53"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="13066060" y="20977412"/>
-                  <a:ext cx="2969558" cy="515470"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:ln w="9525" cmpd="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:shade val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:r>
-                    <a:rPr lang="en-GB" sz="1100"/>
-                    <a:t>z</a:t>
-                  </a:r>
-                  <a:r>
-                    <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-                    <a:t> is dimension of the given plane from horizontal coordinate zero </a:t>
-                  </a:r>
-                  <a:endParaRPr lang="cs-CZ" sz="1100"/>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="20" name="TextovéPole 19"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="16116162" y="20687738"/>
-                  <a:ext cx="660589" cy="501676"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="tx1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:r>
-                    <a:rPr lang="en-GB" sz="2800" b="1">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <a:t>VII</a:t>
-                  </a:r>
-                  <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-          </xdr:grpSp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="59" name="TextovéPole 58"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="16002000" y="21773028"/>
-                <a:ext cx="780663" cy="501676"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="2800" b="1">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>1)</a:t>
-                </a:r>
-                <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="57" name="TextovéPole 56"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="13068301" y="21518655"/>
-              <a:ext cx="3086100" cy="1065120"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>1)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-                <a:t> calculate strain in general coor system for each ply top and bottom</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-                <a:t>2)plot of strain versus thickness , plies</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-                <a:t>3)transform strains into material coor system </a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-                <a:t>4) plot strain versus thickness, plies</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="92" name="Skupina 91"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="13220138" y="25708415"/>
-            <a:ext cx="4050712" cy="2196620"/>
-            <a:chOff x="13959167" y="22881972"/>
-            <a:chExt cx="4024377" cy="2196620"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="85" name="Skupina 84"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="14480460" y="22881972"/>
-              <a:ext cx="3503084" cy="2196620"/>
-              <a:chOff x="13902334" y="23905289"/>
-              <a:chExt cx="3522962" cy="2196620"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="68" name="Skupina 67"/>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="13902334" y="23905289"/>
-                <a:ext cx="3522962" cy="1323810"/>
-                <a:chOff x="13761529" y="24128919"/>
-                <a:chExt cx="3522962" cy="1323810"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:grpSp>
-              <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="65" name="Skupina 64"/>
-                <xdr:cNvGrpSpPr/>
-              </xdr:nvGrpSpPr>
-              <xdr:grpSpPr>
-                <a:xfrm>
-                  <a:off x="13761529" y="24128919"/>
-                  <a:ext cx="3522962" cy="1323810"/>
-                  <a:chOff x="13717545" y="24125492"/>
-                  <a:chExt cx="3510967" cy="1323810"/>
-                </a:xfrm>
-              </xdr:grpSpPr>
-              <xdr:pic>
-                <xdr:nvPicPr>
-                  <xdr:cNvPr id="62" name="Obrázek 61"/>
-                  <xdr:cNvPicPr>
-                    <a:picLocks noChangeAspect="1"/>
-                  </xdr:cNvPicPr>
-                </xdr:nvPicPr>
-                <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-                  <a:stretch>
-                    <a:fillRect/>
-                  </a:stretch>
-                </xdr:blipFill>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="13717545" y="24125492"/>
-                    <a:ext cx="3510967" cy="1323810"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:ln>
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:ln>
-                </xdr:spPr>
-              </xdr:pic>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="63" name="Obdélník 62"/>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="13945914" y="24981776"/>
-                    <a:ext cx="335018" cy="267009"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln w="38100">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="50000"/>
-                    </a:schemeClr>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="accent1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:endParaRPr lang="cs-CZ" sz="1100"/>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="64" name="Obdélník 63"/>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="16607889" y="24959751"/>
-                    <a:ext cx="335018" cy="267009"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln w="38100">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="50000"/>
-                    </a:schemeClr>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="accent1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:endParaRPr lang="cs-CZ" sz="1100"/>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-            </xdr:grpSp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="66" name="Obdélník 65"/>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="15732789" y="24982028"/>
-                  <a:ext cx="336163" cy="267009"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="38100">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="50000"/>
-                  </a:schemeClr>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="accent1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="accent1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:endParaRPr lang="cs-CZ" sz="1100"/>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="67" name="Obdélník 66"/>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="14775320" y="24985341"/>
-                  <a:ext cx="336163" cy="267009"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="38100">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="50000"/>
-                  </a:schemeClr>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="accent1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="accent1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:endParaRPr lang="cs-CZ" sz="1100"/>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-          </xdr:grpSp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="69" name="TextovéPole 68"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14147182" y="25586439"/>
-                <a:ext cx="3001717" cy="515470"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="38100" cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1100"/>
-                  <a:t>NOTE:</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-                  <a:t> when transforming strains, the </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1100" b="1" u="sng" baseline="0"/>
-                  <a:t>TENSORIAN </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-                  <a:t>strain is used</a:t>
-                </a:r>
-                <a:endParaRPr lang="cs-CZ" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="71" name="Přímá spojnice 70"/>
-              <xdr:cNvCxnSpPr>
-                <a:stCxn id="69" idx="0"/>
-                <a:endCxn id="64" idx="2"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipV="1">
-                <a:off x="15648041" y="25006557"/>
-                <a:ext cx="1322594" cy="579882"/>
-              </a:xfrm>
-              <a:prstGeom prst="line">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="72" name="Přímá spojnice 71"/>
-              <xdr:cNvCxnSpPr>
-                <a:stCxn id="69" idx="0"/>
-                <a:endCxn id="66" idx="2"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipV="1">
-                <a:off x="15648041" y="25025407"/>
-                <a:ext cx="393635" cy="561032"/>
-              </a:xfrm>
-              <a:prstGeom prst="line">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="73" name="Přímá spojnice 72"/>
-              <xdr:cNvCxnSpPr>
-                <a:stCxn id="69" idx="0"/>
-                <a:endCxn id="67" idx="2"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipH="1" flipV="1">
-                <a:off x="15084207" y="25028720"/>
-                <a:ext cx="563834" cy="557719"/>
-              </a:xfrm>
-              <a:prstGeom prst="line">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="74" name="Přímá spojnice 73"/>
-              <xdr:cNvCxnSpPr>
-                <a:stCxn id="69" idx="0"/>
-                <a:endCxn id="63" idx="2"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipH="1" flipV="1">
-                <a:off x="14299565" y="25028582"/>
-                <a:ext cx="1348476" cy="557857"/>
-              </a:xfrm>
-              <a:prstGeom prst="line">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-        </xdr:grpSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="91" name="TextovéPole 90"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="13959167" y="23198976"/>
-              <a:ext cx="785524" cy="501676"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="2800" b="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>3)</a:t>
-              </a:r>
-              <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="101" name="Skupina 100"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="13044767" y="22791964"/>
-            <a:ext cx="5010737" cy="2590800"/>
-            <a:chOff x="14149667" y="22593300"/>
-            <a:chExt cx="4984883" cy="2590800"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="99" name="Obrázek 98"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="14544675" y="22593300"/>
-              <a:ext cx="4589875" cy="2590800"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="100" name="TextovéPole 99"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="14149667" y="23237076"/>
-              <a:ext cx="785524" cy="501676"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="2800" b="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>2)</a:t>
-              </a:r>
-              <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="106" name="Skupina 105"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="13362215" y="28194000"/>
-            <a:ext cx="4818821" cy="2588091"/>
-            <a:chOff x="13158107" y="28194000"/>
-            <a:chExt cx="4818821" cy="2588091"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="104" name="Obrázek 103"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="13158107" y="28194000"/>
-              <a:ext cx="4818821" cy="2540959"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="105" name="TextovéPole 104"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="13628352" y="30280415"/>
-              <a:ext cx="790664" cy="501676"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="2800" b="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>4)</a:t>
-              </a:r>
-              <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>212912</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -3577,8 +2217,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6336126" y="2532531"/>
-          <a:ext cx="6389609" cy="14751740"/>
+          <a:off x="6308912" y="2665881"/>
+          <a:ext cx="6362394" cy="14743576"/>
           <a:chOff x="6163236" y="2398061"/>
           <a:chExt cx="6317571" cy="14746938"/>
         </a:xfrm>
@@ -3630,7 +2270,7 @@
                 </xdr:cNvPicPr>
               </xdr:nvPicPr>
               <xdr:blipFill rotWithShape="1">
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
                 <a:srcRect b="14922"/>
                 <a:stretch/>
               </xdr:blipFill>
@@ -3657,7 +2297,7 @@
                 </xdr:cNvPicPr>
               </xdr:nvPicPr>
               <xdr:blipFill rotWithShape="1">
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
                 <a:srcRect t="20744" b="121"/>
                 <a:stretch/>
               </xdr:blipFill>
@@ -3770,7 +2410,7 @@
                 </xdr:cNvPicPr>
               </xdr:nvPicPr>
               <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
                 <a:stretch>
                   <a:fillRect/>
                 </a:stretch>
@@ -3798,7 +2438,7 @@
                 </xdr:cNvPicPr>
               </xdr:nvPicPr>
               <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
                 <a:stretch>
                   <a:fillRect/>
                 </a:stretch>
@@ -3840,7 +2480,7 @@
                 </xdr:cNvPicPr>
               </xdr:nvPicPr>
               <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
                 <a:stretch>
                   <a:fillRect/>
                 </a:stretch>
@@ -3971,6 +2611,1776 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="45" name="Skupina 44"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13544550" y="21278850"/>
+          <a:ext cx="13592175" cy="10591800"/>
+          <a:chOff x="32368671" y="12676414"/>
+          <a:chExt cx="13778593" cy="10591800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="107" name="Skupina 106"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="32614560" y="12986815"/>
+            <a:ext cx="13277706" cy="10069141"/>
+            <a:chOff x="13044767" y="20712950"/>
+            <a:chExt cx="13272263" cy="10069141"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="103" name="Skupina 102"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="19520783" y="20735150"/>
+              <a:ext cx="6796247" cy="8466667"/>
+              <a:chOff x="20388238" y="18826748"/>
+              <a:chExt cx="6877890" cy="8466667"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="58" name="Obrázek 57"/>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20388238" y="18826748"/>
+                <a:ext cx="6877890" cy="8466667"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="86" name="Obdélník 85"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20902173" y="23237503"/>
+                <a:ext cx="5089688" cy="3493582"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="cs-CZ" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="90" name="Skupina 89"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="13104638" y="20712950"/>
+              <a:ext cx="6097407" cy="1899399"/>
+              <a:chOff x="13025717" y="20684376"/>
+              <a:chExt cx="6066111" cy="1899399"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="60" name="Skupina 59"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="13025717" y="20684376"/>
+                <a:ext cx="6066111" cy="1838097"/>
+                <a:chOff x="12931588" y="20687738"/>
+                <a:chExt cx="6028571" cy="1838097"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="56" name="Skupina 55"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="12931588" y="20687738"/>
+                  <a:ext cx="6028571" cy="1838097"/>
+                  <a:chOff x="12931588" y="20687738"/>
+                  <a:chExt cx="6028571" cy="1838097"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:pic>
+                <xdr:nvPicPr>
+                  <xdr:cNvPr id="52" name="Obrázek 51"/>
+                  <xdr:cNvPicPr>
+                    <a:picLocks noChangeAspect="1"/>
+                  </xdr:cNvPicPr>
+                </xdr:nvPicPr>
+                <xdr:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </xdr:blipFill>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="12931588" y="20697264"/>
+                    <a:ext cx="6028571" cy="1828571"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+              </xdr:pic>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="54" name="TextovéPole 53"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="13066060" y="20977412"/>
+                    <a:ext cx="2969558" cy="515470"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1100"/>
+                      <a:t>z</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                      <a:t> is dimension of the given plane from horizontal coordinate zero </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="cs-CZ" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="20" name="TextovéPole 19"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="16116162" y="20687738"/>
+                    <a:ext cx="660589" cy="501676"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="2800" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>VII</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="59" name="TextovéPole 58"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="16002000" y="21773028"/>
+                  <a:ext cx="780663" cy="501676"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="2800" b="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>1)</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="57" name="TextovéPole 56"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="13068301" y="21518655"/>
+                <a:ext cx="3086100" cy="1065120"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100"/>
+                  <a:t>1)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                  <a:t> calculate strain in general coor system for each ply top and bottom</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                  <a:t>2)plot of strain versus thickness , plies</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                  <a:t>3)transform strains into material coor system </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                  <a:t>4) plot strain versus thickness, plies</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="92" name="Skupina 91"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="13220138" y="25708415"/>
+              <a:ext cx="4050712" cy="2196620"/>
+              <a:chOff x="13959167" y="22881972"/>
+              <a:chExt cx="4024377" cy="2196620"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="85" name="Skupina 84"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="14480460" y="22881972"/>
+                <a:ext cx="3503084" cy="2196620"/>
+                <a:chOff x="13902334" y="23905289"/>
+                <a:chExt cx="3522962" cy="2196620"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="68" name="Skupina 67"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="13902334" y="23905289"/>
+                  <a:ext cx="3522962" cy="1323810"/>
+                  <a:chOff x="13761529" y="24128919"/>
+                  <a:chExt cx="3522962" cy="1323810"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="65" name="Skupina 64"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="13761529" y="24128919"/>
+                    <a:ext cx="3522962" cy="1323810"/>
+                    <a:chOff x="13717545" y="24125492"/>
+                    <a:chExt cx="3510967" cy="1323810"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:pic>
+                  <xdr:nvPicPr>
+                    <xdr:cNvPr id="62" name="Obrázek 61"/>
+                    <xdr:cNvPicPr>
+                      <a:picLocks noChangeAspect="1"/>
+                    </xdr:cNvPicPr>
+                  </xdr:nvPicPr>
+                  <xdr:blipFill>
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+                    <a:stretch>
+                      <a:fillRect/>
+                    </a:stretch>
+                  </xdr:blipFill>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="13717545" y="24125492"/>
+                      <a:ext cx="3510967" cy="1323810"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </xdr:spPr>
+                </xdr:pic>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="63" name="Obdélník 62"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="13945914" y="24981776"/>
+                      <a:ext cx="335018" cy="267009"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="38100">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:endParaRPr lang="cs-CZ" sz="1100"/>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="64" name="Obdélník 63"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="16607889" y="24959751"/>
+                      <a:ext cx="335018" cy="267009"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="38100">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:endParaRPr lang="cs-CZ" sz="1100"/>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+              </xdr:grpSp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="66" name="Obdélník 65"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="15732789" y="24982028"/>
+                    <a:ext cx="336163" cy="267009"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="38100">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="cs-CZ" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="67" name="Obdélník 66"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="14775320" y="24985341"/>
+                    <a:ext cx="336163" cy="267009"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="38100">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="cs-CZ" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="69" name="TextovéPole 68"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="14147182" y="25586439"/>
+                  <a:ext cx="3001717" cy="515470"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="38100" cmpd="sng">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1100"/>
+                    <a:t>NOTE:</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                    <a:t> when transforming strains, the </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1100" b="1" u="sng" baseline="0"/>
+                    <a:t>TENSORIAN </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                    <a:t>strain is used</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="cs-CZ" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="71" name="Přímá spojnice 70"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="69" idx="0"/>
+                  <a:endCxn id="64" idx="2"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipV="1">
+                  <a:off x="15648041" y="25006557"/>
+                  <a:ext cx="1322594" cy="579882"/>
+                </a:xfrm>
+                <a:prstGeom prst="line">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="72" name="Přímá spojnice 71"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="69" idx="0"/>
+                  <a:endCxn id="66" idx="2"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipV="1">
+                  <a:off x="15648041" y="25025407"/>
+                  <a:ext cx="393635" cy="561032"/>
+                </a:xfrm>
+                <a:prstGeom prst="line">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="73" name="Přímá spojnice 72"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="69" idx="0"/>
+                  <a:endCxn id="67" idx="2"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipH="1" flipV="1">
+                  <a:off x="15084207" y="25028720"/>
+                  <a:ext cx="563834" cy="557719"/>
+                </a:xfrm>
+                <a:prstGeom prst="line">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="74" name="Přímá spojnice 73"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="69" idx="0"/>
+                  <a:endCxn id="63" idx="2"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipH="1" flipV="1">
+                  <a:off x="14299565" y="25028582"/>
+                  <a:ext cx="1348476" cy="557857"/>
+                </a:xfrm>
+                <a:prstGeom prst="line">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="91" name="TextovéPole 90"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="13959167" y="23198976"/>
+                <a:ext cx="785524" cy="501676"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2800" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>3)</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="101" name="Skupina 100"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="13044767" y="22791964"/>
+              <a:ext cx="5010737" cy="2590800"/>
+              <a:chOff x="14149667" y="22593300"/>
+              <a:chExt cx="4984883" cy="2590800"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="99" name="Obrázek 98"/>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="14544675" y="22593300"/>
+                <a:ext cx="4589875" cy="2590800"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="100" name="TextovéPole 99"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="14149667" y="23237076"/>
+                <a:ext cx="785524" cy="501676"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2800" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>2)</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="106" name="Skupina 105"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="13362215" y="28194000"/>
+              <a:ext cx="4818821" cy="2588091"/>
+              <a:chOff x="13158107" y="28194000"/>
+              <a:chExt cx="4818821" cy="2588091"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="104" name="Obrázek 103"/>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="13158107" y="28194000"/>
+                <a:ext cx="4818821" cy="2540959"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="105" name="TextovéPole 104"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="13628352" y="30280415"/>
+                <a:ext cx="790664" cy="501676"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2800" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>4)</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="Obdélník 35"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="32368671" y="12676414"/>
+            <a:ext cx="13778593" cy="10591800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="cs-CZ" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>81644</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="55" name="Skupina 54"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7396844" y="28428043"/>
+          <a:ext cx="3984171" cy="4027714"/>
+          <a:chOff x="7320643" y="28370893"/>
+          <a:chExt cx="4000500" cy="4027714"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="98" name="Skupina 97"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7533111" y="28622624"/>
+            <a:ext cx="3536198" cy="3552118"/>
+            <a:chOff x="13139248" y="27241500"/>
+            <a:chExt cx="3519633" cy="3552118"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="61" name="Obrázek 60"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13189324" y="29622189"/>
+              <a:ext cx="3464989" cy="1171429"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="97" name="Skupina 96"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="13139248" y="27241500"/>
+              <a:ext cx="3519633" cy="2285714"/>
+              <a:chOff x="13139248" y="27241500"/>
+              <a:chExt cx="3519633" cy="2285714"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="16" name="TextovéPole 15"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="13139248" y="27439841"/>
+                <a:ext cx="777006" cy="501676"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2800" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>VIII</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="96" name="Skupina 95"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="13906500" y="27241500"/>
+                <a:ext cx="2752381" cy="2285714"/>
+                <a:chOff x="13982700" y="28174950"/>
+                <a:chExt cx="2752381" cy="2285714"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:pic>
+              <xdr:nvPicPr>
+                <xdr:cNvPr id="93" name="Obrázek 92"/>
+                <xdr:cNvPicPr>
+                  <a:picLocks noChangeAspect="1"/>
+                </xdr:cNvPicPr>
+              </xdr:nvPicPr>
+              <xdr:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </xdr:blipFill>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="13982700" y="28174950"/>
+                  <a:ext cx="2752381" cy="2285714"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+            </xdr:pic>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="94" name="Obdélník 93"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="16149917" y="28987497"/>
+                  <a:ext cx="334266" cy="267009"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="38100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="cs-CZ" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="95" name="Obdélník 94"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="15582900" y="28336875"/>
+                  <a:ext cx="504825" cy="904875"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="38100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="cs-CZ" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="Obdélník 45"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7320643" y="28370893"/>
+            <a:ext cx="4000500" cy="4027714"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="cs-CZ" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>11189</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="79" name="Skupina 78"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7383235" y="32646257"/>
+          <a:ext cx="6723290" cy="11903832"/>
+          <a:chOff x="7383235" y="32646257"/>
+          <a:chExt cx="6723290" cy="11903832"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="78" name="Skupina 77"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7383235" y="32646257"/>
+            <a:ext cx="6452788" cy="11903832"/>
+            <a:chOff x="7464878" y="32795936"/>
+            <a:chExt cx="6452788" cy="11903832"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="75" name="Skupina 74"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="7464878" y="32795936"/>
+              <a:ext cx="6452786" cy="4314286"/>
+              <a:chOff x="7443107" y="34140321"/>
+              <a:chExt cx="6714286" cy="4314286"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="70" name="Obrázek 69"/>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7443107" y="34140321"/>
+                <a:ext cx="6714286" cy="4314286"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="102" name="TextovéPole 101"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="10382251" y="34181142"/>
+                <a:ext cx="780663" cy="501676"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2800" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>IX</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="76" name="Obrázek 75"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7464880" y="37150223"/>
+              <a:ext cx="6452786" cy="3651109"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="77" name="Obrázek 76"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7464879" y="40810543"/>
+              <a:ext cx="6452786" cy="3889225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="108" name="TextovéPole 107"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9250135" y="39256606"/>
+            <a:ext cx="4856390" cy="1281793"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2800" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>This</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> is not gonna be applied.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Requires biaxial tensile failure test.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-GB" sz="2800" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3996,8 +4406,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14341296" y="138367"/>
-          <a:ext cx="5079244" cy="4638612"/>
+          <a:off x="14317976" y="138367"/>
+          <a:ext cx="5068734" cy="4648465"/>
           <a:chOff x="6626087" y="4265543"/>
           <a:chExt cx="5095238" cy="4634092"/>
         </a:xfrm>
@@ -4081,8 +4491,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10074643" y="238126"/>
-          <a:ext cx="4231896" cy="4475120"/>
+          <a:off x="10060520" y="238126"/>
+          <a:ext cx="4222699" cy="4484973"/>
           <a:chOff x="10003930" y="238126"/>
           <a:chExt cx="4191323" cy="4479370"/>
         </a:xfrm>
@@ -4476,17 +4886,64 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A45:A62"/>
+  <dimension ref="A2:AQ62"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="J161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K168" sqref="K168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="29" max="29" width="10.7109375" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" style="66"/>
   </cols>
   <sheetData>
+    <row r="2" spans="39:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="39:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM3" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="67"/>
+    </row>
+    <row r="4" spans="39:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM4" s="67"/>
+      <c r="AN4" s="67"/>
+      <c r="AO4" s="67"/>
+      <c r="AP4" s="67"/>
+      <c r="AQ4" s="67"/>
+    </row>
+    <row r="5" spans="39:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="67"/>
+      <c r="AQ5" s="67"/>
+    </row>
+    <row r="6" spans="39:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM6" s="67"/>
+      <c r="AN6" s="67"/>
+      <c r="AO6" s="67"/>
+      <c r="AP6" s="67"/>
+      <c r="AQ6" s="67"/>
+    </row>
+    <row r="7" spans="39:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM7" s="67"/>
+      <c r="AN7" s="67"/>
+      <c r="AO7" s="67"/>
+      <c r="AP7" s="67"/>
+      <c r="AQ7" s="67"/>
+    </row>
+    <row r="8" spans="39:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM8" s="67"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="67"/>
+      <c r="AQ8" s="67"/>
+    </row>
+    <row r="9" spans="39:43" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
@@ -4548,8 +5005,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AM3:AQ8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4560,8 +5021,8 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4570,14 +5031,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="A1" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4621,59 +5082,59 @@
       <c r="A4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="71"/>
       <c r="D4" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>48</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M4" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="51">
+        <v>0</v>
+      </c>
+      <c r="E5" s="52">
         <v>45</v>
       </c>
-      <c r="C5" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="51">
-        <v>90</v>
-      </c>
-      <c r="E5" s="52">
-        <v>0</v>
-      </c>
       <c r="F5" s="53">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G5" s="54">
         <v>45</v>
@@ -4721,19 +5182,19 @@
       </c>
       <c r="G6" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>57450</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>57450</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>57450</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>57450</v>
+        <v>0</v>
       </c>
       <c r="K6" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,2,0)</f>
@@ -4772,19 +5233,19 @@
       </c>
       <c r="G7" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>57450</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>57450</v>
+        <v>0</v>
       </c>
       <c r="I7" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>57450</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>57450</v>
+        <v>0</v>
       </c>
       <c r="K7" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,3,0)</f>
@@ -4823,19 +5284,19 @@
       </c>
       <c r="G8" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,4,0)</f>
-        <v>2630</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,4,0)</f>
-        <v>2630</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,4,0)</f>
-        <v>2630</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,4,0)</f>
-        <v>2630</v>
+        <v>0</v>
       </c>
       <c r="K8" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,4,0)</f>
@@ -4874,19 +5335,19 @@
       </c>
       <c r="G9" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,5,0)</f>
-        <v>3.6999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,5,0)</f>
-        <v>3.6999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,5,0)</f>
-        <v>3.6999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,5,0)</f>
-        <v>3.6999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="K9" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,5,0)</f>
@@ -4925,19 +5386,19 @@
       </c>
       <c r="G10" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,6,0)</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,6,0)</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="I10" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,6,0)</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,6,0)</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K10" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,6,0)</f>
@@ -4957,7 +5418,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="62" t="s">
         <v>31</v>
@@ -4976,19 +5437,19 @@
       </c>
       <c r="G11" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,7,0)</f>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="H11" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,7,0)</f>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="I11" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,7,0)</f>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,7,0)</f>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="K11" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,7,0)</f>
@@ -5027,19 +5488,19 @@
       </c>
       <c r="G12" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,8,0)</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H12" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,8,0)</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="I12" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,8,0)</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,8,0)</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K12" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,8,0)</f>
@@ -5059,7 +5520,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="62" t="s">
         <v>31</v>
@@ -5078,19 +5539,19 @@
       </c>
       <c r="G13" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,9,0)</f>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="H13" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,9,0)</f>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="I13" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,9,0)</f>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,9,0)</f>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="K13" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,9,0)</f>
@@ -5129,19 +5590,19 @@
       </c>
       <c r="G14" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,10,0)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H14" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,10,0)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,10,0)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,10,0)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K14" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,10,0)</f>
@@ -5172,7 +5633,7 @@
       </c>
       <c r="E15" s="5">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,11,0)</f>
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="F15" s="5">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,11,0)</f>
@@ -5180,19 +5641,19 @@
       </c>
       <c r="G15" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,11,0)</f>
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H15" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,11,0)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I15" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,11,0)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,11,0)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K15" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,11,0)</f>
@@ -5231,19 +5692,19 @@
       </c>
       <c r="G16" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,12,0)</f>
-        <v>1460</v>
+        <v>0</v>
       </c>
       <c r="H16" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,12,0)</f>
-        <v>1460</v>
+        <v>0</v>
       </c>
       <c r="I16" s="5">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,12,0)</f>
-        <v>1460</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,12,0)</f>
-        <v>1460</v>
+        <v>0</v>
       </c>
       <c r="K16" s="5">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,12,0)</f>
@@ -5282,19 +5743,19 @@
       </c>
       <c r="G17" s="49">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>321.2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="49">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>321.2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="49">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>321.2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="49">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>321.2</v>
+        <v>0</v>
       </c>
       <c r="K17" s="49">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,13,0)</f>
@@ -5314,11 +5775,11 @@
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2">
         <f>SUM(D17:M17)</f>
-        <v>2248.4</v>
+        <v>963.59999999999991</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>35</v>
@@ -5330,11 +5791,11 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2">
         <f>SUM(D15:M15)</f>
-        <v>2.66</v>
+        <v>0.66</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>33</v>
@@ -5369,10 +5830,10 @@
   <sheetPr>
     <tabColor rgb="FF3399FF"/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5383,13 +5844,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="A1" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5400,37 +5861,37 @@
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
       <c r="D4" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5961,9 +6422,590 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:14" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:14" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="65">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
+        <v>0</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="65">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="65">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0</v>
+      </c>
+      <c r="N28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="65">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="65">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="65">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <v>0</v>
+      </c>
+      <c r="N31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="65">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="65">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="65">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="65">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <v>0</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
+      <c r="N35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="65">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="16">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/laminate_calc_theory_material_data.xlsx
+++ b/laminate_calc_theory_material_data.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Krzikalla\Desktop\Monocoque\CLT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5943BB-CC64-4F5E-B2D6-8D03358C9BF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction,_Theory" sheetId="1" r:id="rId1"/>
     <sheet name="Stacking_sequence" sheetId="2" r:id="rId2"/>
     <sheet name="Material_Database" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -372,7 +381,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1177,7 +1186,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obrázek 1"/>
+        <xdr:cNvPr id="2" name="Obrázek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1215,7 +1230,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Obrázek 6"/>
+        <xdr:cNvPr id="7" name="Obrázek 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1253,7 +1274,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="Skupina 17"/>
+        <xdr:cNvPr id="18" name="Skupina 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1266,7 +1293,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="Obrázek 5"/>
+          <xdr:cNvPr id="6" name="Obrázek 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1294,7 +1327,13 @@
       </xdr:pic>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="25" name="Skupina 24"/>
+          <xdr:cNvPr id="25" name="Skupina 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1307,7 +1346,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="24" name="Skupina 23"/>
+            <xdr:cNvPr id="24" name="Skupina 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -1320,7 +1365,13 @@
           </xdr:grpSpPr>
           <xdr:pic>
             <xdr:nvPicPr>
-              <xdr:cNvPr id="4" name="Obrázek 3"/>
+              <xdr:cNvPr id="4" name="Obrázek 3">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvPicPr>
                 <a:picLocks noChangeAspect="1"/>
               </xdr:cNvPicPr>
@@ -1348,7 +1399,13 @@
           </xdr:pic>
           <xdr:pic>
             <xdr:nvPicPr>
-              <xdr:cNvPr id="5" name="Obrázek 4"/>
+              <xdr:cNvPr id="5" name="Obrázek 4">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvPicPr>
                 <a:picLocks noChangeAspect="1"/>
               </xdr:cNvPicPr>
@@ -1377,7 +1434,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="TextovéPole 14"/>
+            <xdr:cNvPr id="15" name="TextovéPole 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1452,7 +1515,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="Skupina 21"/>
+        <xdr:cNvPr id="22" name="Skupina 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1465,7 +1534,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Obrázek 2"/>
+          <xdr:cNvPr id="3" name="Obrázek 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1493,7 +1568,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="TextovéPole 10"/>
+          <xdr:cNvPr id="11" name="TextovéPole 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1562,7 +1643,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="34" name="Skupina 33"/>
+        <xdr:cNvPr id="34" name="Skupina 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1575,7 +1662,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="31" name="Skupina 30"/>
+          <xdr:cNvPr id="31" name="Skupina 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1588,7 +1681,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="29" name="Skupina 28"/>
+            <xdr:cNvPr id="29" name="Skupina 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -1601,7 +1700,13 @@
           </xdr:grpSpPr>
           <xdr:grpSp>
             <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="28" name="Skupina 27"/>
+              <xdr:cNvPr id="28" name="Skupina 27">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvGrpSpPr/>
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
@@ -1614,7 +1719,13 @@
             </xdr:grpSpPr>
             <xdr:pic>
               <xdr:nvPicPr>
-                <xdr:cNvPr id="26" name="Obrázek 25"/>
+                <xdr:cNvPr id="26" name="Obrázek 25">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvPicPr>
                   <a:picLocks noChangeAspect="1"/>
                 </xdr:cNvPicPr>
@@ -1642,7 +1753,13 @@
             </xdr:pic>
             <xdr:pic>
               <xdr:nvPicPr>
-                <xdr:cNvPr id="27" name="Obrázek 26"/>
+                <xdr:cNvPr id="27" name="Obrázek 26">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvPicPr>
                   <a:picLocks noChangeAspect="1"/>
                 </xdr:cNvPicPr>
@@ -1671,7 +1788,13 @@
           </xdr:grpSp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="12" name="TextovéPole 11"/>
+              <xdr:cNvPr id="12" name="TextovéPole 11">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -1730,7 +1853,13 @@
         </xdr:grpSp>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="30" name="Obrázek 29"/>
+            <xdr:cNvPr id="30" name="Obrázek 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1"/>
             </xdr:cNvPicPr>
@@ -1759,7 +1888,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="TextovéPole 31"/>
+          <xdr:cNvPr id="32" name="TextovéPole 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1833,7 +1968,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="33" name="Skupina 32"/>
+        <xdr:cNvPr id="33" name="Skupina 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1846,7 +1987,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="35" name="Obrázek 34"/>
+          <xdr:cNvPr id="35" name="Obrázek 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1874,7 +2021,13 @@
       </xdr:pic>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="21" name="Skupina 20"/>
+          <xdr:cNvPr id="21" name="Skupina 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1887,7 +2040,13 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="19" name="Obrázek 18"/>
+            <xdr:cNvPr id="19" name="Obrázek 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1"/>
             </xdr:cNvPicPr>
@@ -1915,7 +2074,13 @@
         </xdr:pic>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="TextovéPole 16"/>
+            <xdr:cNvPr id="17" name="TextovéPole 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1990,7 +2155,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="49" name="Skupina 48"/>
+        <xdr:cNvPr id="49" name="Skupina 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2003,7 +2174,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="47" name="Obrázek 46"/>
+          <xdr:cNvPr id="47" name="Obrázek 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -2030,7 +2207,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="48" name="Obrázek 47"/>
+          <xdr:cNvPr id="48" name="Obrázek 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -2053,7 +2236,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="TextovéPole 13"/>
+          <xdr:cNvPr id="14" name="TextovéPole 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2122,7 +2311,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Obrázek 52"/>
+        <xdr:cNvPr id="53" name="Obrázek 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2160,7 +2355,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="Přímá spojnice 86"/>
+        <xdr:cNvPr id="87" name="Přímá spojnice 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="69" idx="3"/>
           <a:endCxn id="86" idx="1"/>
@@ -2212,7 +2413,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="51" name="Skupina 50"/>
+        <xdr:cNvPr id="51" name="Skupina 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2225,7 +2432,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="44" name="Skupina 43"/>
+          <xdr:cNvPr id="44" name="Skupina 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2238,7 +2451,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="23" name="Skupina 22"/>
+            <xdr:cNvPr id="23" name="Skupina 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -2251,7 +2470,13 @@
           </xdr:grpSpPr>
           <xdr:grpSp>
             <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="10" name="Skupina 9"/>
+              <xdr:cNvPr id="10" name="Skupina 9">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvGrpSpPr/>
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
@@ -2264,7 +2489,13 @@
             </xdr:grpSpPr>
             <xdr:pic>
               <xdr:nvPicPr>
-                <xdr:cNvPr id="8" name="Obrázek 7"/>
+                <xdr:cNvPr id="8" name="Obrázek 7">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvPicPr>
                   <a:picLocks noChangeAspect="1"/>
                 </xdr:cNvPicPr>
@@ -2291,7 +2522,13 @@
             </xdr:pic>
             <xdr:pic>
               <xdr:nvPicPr>
-                <xdr:cNvPr id="9" name="Obrázek 8"/>
+                <xdr:cNvPr id="9" name="Obrázek 8">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvPicPr>
                   <a:picLocks noChangeAspect="1"/>
                 </xdr:cNvPicPr>
@@ -2319,7 +2556,13 @@
           </xdr:grpSp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="13" name="TextovéPole 12"/>
+              <xdr:cNvPr id="13" name="TextovéPole 12">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -2378,7 +2621,13 @@
         </xdr:grpSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="43" name="Skupina 42"/>
+            <xdr:cNvPr id="43" name="Skupina 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -2391,7 +2640,13 @@
           </xdr:grpSpPr>
           <xdr:grpSp>
             <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="39" name="Skupina 38"/>
+              <xdr:cNvPr id="39" name="Skupina 38">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvGrpSpPr/>
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
@@ -2404,7 +2659,13 @@
             </xdr:grpSpPr>
             <xdr:pic>
               <xdr:nvPicPr>
-                <xdr:cNvPr id="38" name="Obrázek 37"/>
+                <xdr:cNvPr id="38" name="Obrázek 37">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvPicPr>
                   <a:picLocks noChangeAspect="1"/>
                 </xdr:cNvPicPr>
@@ -2432,7 +2693,13 @@
             </xdr:pic>
             <xdr:pic>
               <xdr:nvPicPr>
-                <xdr:cNvPr id="37" name="Obrázek 36"/>
+                <xdr:cNvPr id="37" name="Obrázek 36">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvPicPr>
                   <a:picLocks noChangeAspect="1"/>
                 </xdr:cNvPicPr>
@@ -2461,7 +2728,13 @@
           </xdr:grpSp>
           <xdr:grpSp>
             <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="42" name="Skupina 41"/>
+              <xdr:cNvPr id="42" name="Skupina 41">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvGrpSpPr/>
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
@@ -2474,7 +2747,13 @@
             </xdr:grpSpPr>
             <xdr:pic>
               <xdr:nvPicPr>
-                <xdr:cNvPr id="40" name="Obrázek 39"/>
+                <xdr:cNvPr id="40" name="Obrázek 39">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvPicPr>
                   <a:picLocks noChangeAspect="1"/>
                 </xdr:cNvPicPr>
@@ -2502,7 +2781,13 @@
             </xdr:pic>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="41" name="Obdélník 40"/>
+                <xdr:cNvPr id="41" name="Obdélník 40">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -2556,7 +2841,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="TextovéPole 49"/>
+          <xdr:cNvPr id="50" name="TextovéPole 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2626,7 +2917,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="45" name="Skupina 44"/>
+        <xdr:cNvPr id="45" name="Skupina 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2639,7 +2936,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="107" name="Skupina 106"/>
+          <xdr:cNvPr id="107" name="Skupina 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2652,7 +2955,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="103" name="Skupina 102"/>
+            <xdr:cNvPr id="103" name="Skupina 102">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -2665,7 +2974,13 @@
           </xdr:grpSpPr>
           <xdr:pic>
             <xdr:nvPicPr>
-              <xdr:cNvPr id="58" name="Obrázek 57"/>
+              <xdr:cNvPr id="58" name="Obrázek 57">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvPicPr>
                 <a:picLocks noChangeAspect="1"/>
               </xdr:cNvPicPr>
@@ -2693,7 +3008,13 @@
           </xdr:pic>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="86" name="Obdélník 85"/>
+              <xdr:cNvPr id="86" name="Obdélník 85">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -2739,7 +3060,13 @@
         </xdr:grpSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="90" name="Skupina 89"/>
+            <xdr:cNvPr id="90" name="Skupina 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -2752,7 +3079,13 @@
           </xdr:grpSpPr>
           <xdr:grpSp>
             <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="60" name="Skupina 59"/>
+              <xdr:cNvPr id="60" name="Skupina 59">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvGrpSpPr/>
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
@@ -2765,7 +3098,13 @@
             </xdr:grpSpPr>
             <xdr:grpSp>
               <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="56" name="Skupina 55"/>
+                <xdr:cNvPr id="56" name="Skupina 55">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvGrpSpPr/>
               </xdr:nvGrpSpPr>
               <xdr:grpSpPr>
@@ -2778,7 +3117,13 @@
               </xdr:grpSpPr>
               <xdr:pic>
                 <xdr:nvPicPr>
-                  <xdr:cNvPr id="52" name="Obrázek 51"/>
+                  <xdr:cNvPr id="52" name="Obrázek 51">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
                   <xdr:cNvPicPr>
                     <a:picLocks noChangeAspect="1"/>
                   </xdr:cNvPicPr>
@@ -2806,7 +3151,13 @@
               </xdr:pic>
               <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
-                  <xdr:cNvPr id="54" name="TextovéPole 53"/>
+                  <xdr:cNvPr id="54" name="TextovéPole 53">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
                   <xdr:cNvSpPr txBox="1"/>
                 </xdr:nvSpPr>
                 <xdr:spPr>
@@ -2860,7 +3211,13 @@
               </xdr:sp>
               <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
-                  <xdr:cNvPr id="20" name="TextovéPole 19"/>
+                  <xdr:cNvPr id="20" name="TextovéPole 19">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
                   <xdr:cNvSpPr txBox="1"/>
                 </xdr:nvSpPr>
                 <xdr:spPr>
@@ -2914,7 +3271,13 @@
             </xdr:grpSp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="59" name="TextovéPole 58"/>
+                <xdr:cNvPr id="59" name="TextovéPole 58">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr txBox="1"/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -2968,7 +3331,13 @@
           </xdr:grpSp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="57" name="TextovéPole 56"/>
+              <xdr:cNvPr id="57" name="TextovéPole 56">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3040,7 +3409,13 @@
         </xdr:grpSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="92" name="Skupina 91"/>
+            <xdr:cNvPr id="92" name="Skupina 91">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -3053,7 +3428,13 @@
           </xdr:grpSpPr>
           <xdr:grpSp>
             <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="85" name="Skupina 84"/>
+              <xdr:cNvPr id="85" name="Skupina 84">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvGrpSpPr/>
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
@@ -3066,7 +3447,13 @@
             </xdr:grpSpPr>
             <xdr:grpSp>
               <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="68" name="Skupina 67"/>
+                <xdr:cNvPr id="68" name="Skupina 67">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvGrpSpPr/>
               </xdr:nvGrpSpPr>
               <xdr:grpSpPr>
@@ -3079,7 +3466,13 @@
               </xdr:grpSpPr>
               <xdr:grpSp>
                 <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="65" name="Skupina 64"/>
+                  <xdr:cNvPr id="65" name="Skupina 64">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
                   <xdr:cNvGrpSpPr/>
                 </xdr:nvGrpSpPr>
                 <xdr:grpSpPr>
@@ -3092,7 +3485,13 @@
                 </xdr:grpSpPr>
                 <xdr:pic>
                   <xdr:nvPicPr>
-                    <xdr:cNvPr id="62" name="Obrázek 61"/>
+                    <xdr:cNvPr id="62" name="Obrázek 61">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
                     <xdr:cNvPicPr>
                       <a:picLocks noChangeAspect="1"/>
                     </xdr:cNvPicPr>
@@ -3120,7 +3519,13 @@
                 </xdr:pic>
                 <xdr:sp macro="" textlink="">
                   <xdr:nvSpPr>
-                    <xdr:cNvPr id="63" name="Obdélník 62"/>
+                    <xdr:cNvPr id="63" name="Obdélník 62">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
                     <xdr:cNvSpPr/>
                   </xdr:nvSpPr>
                   <xdr:spPr>
@@ -3165,7 +3570,13 @@
                 </xdr:sp>
                 <xdr:sp macro="" textlink="">
                   <xdr:nvSpPr>
-                    <xdr:cNvPr id="64" name="Obdélník 63"/>
+                    <xdr:cNvPr id="64" name="Obdélník 63">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
                     <xdr:cNvSpPr/>
                   </xdr:nvSpPr>
                   <xdr:spPr>
@@ -3211,7 +3622,13 @@
               </xdr:grpSp>
               <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
-                  <xdr:cNvPr id="66" name="Obdélník 65"/>
+                  <xdr:cNvPr id="66" name="Obdélník 65">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
                   <xdr:cNvSpPr/>
                 </xdr:nvSpPr>
                 <xdr:spPr>
@@ -3256,7 +3673,13 @@
               </xdr:sp>
               <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
-                  <xdr:cNvPr id="67" name="Obdélník 66"/>
+                  <xdr:cNvPr id="67" name="Obdélník 66">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
                   <xdr:cNvSpPr/>
                 </xdr:nvSpPr>
                 <xdr:spPr>
@@ -3302,7 +3725,13 @@
             </xdr:grpSp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="69" name="TextovéPole 68"/>
+                <xdr:cNvPr id="69" name="TextovéPole 68">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr txBox="1"/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -3362,7 +3791,13 @@
             </xdr:sp>
             <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
-                <xdr:cNvPr id="71" name="Přímá spojnice 70"/>
+                <xdr:cNvPr id="71" name="Přímá spojnice 70">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvCxnSpPr>
                   <a:stCxn id="69" idx="0"/>
                   <a:endCxn id="64" idx="2"/>
@@ -3399,7 +3834,13 @@
             </xdr:cxnSp>
             <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
-                <xdr:cNvPr id="72" name="Přímá spojnice 71"/>
+                <xdr:cNvPr id="72" name="Přímá spojnice 71">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvCxnSpPr>
                   <a:stCxn id="69" idx="0"/>
                   <a:endCxn id="66" idx="2"/>
@@ -3436,7 +3877,13 @@
             </xdr:cxnSp>
             <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
-                <xdr:cNvPr id="73" name="Přímá spojnice 72"/>
+                <xdr:cNvPr id="73" name="Přímá spojnice 72">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvCxnSpPr>
                   <a:stCxn id="69" idx="0"/>
                   <a:endCxn id="67" idx="2"/>
@@ -3473,7 +3920,13 @@
             </xdr:cxnSp>
             <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
-                <xdr:cNvPr id="74" name="Přímá spojnice 73"/>
+                <xdr:cNvPr id="74" name="Přímá spojnice 73">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvCxnSpPr>
                   <a:stCxn id="69" idx="0"/>
                   <a:endCxn id="63" idx="2"/>
@@ -3511,7 +3964,13 @@
           </xdr:grpSp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="91" name="TextovéPole 90"/>
+              <xdr:cNvPr id="91" name="TextovéPole 90">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3565,7 +4024,13 @@
         </xdr:grpSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="101" name="Skupina 100"/>
+            <xdr:cNvPr id="101" name="Skupina 100">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -3578,7 +4043,13 @@
           </xdr:grpSpPr>
           <xdr:pic>
             <xdr:nvPicPr>
-              <xdr:cNvPr id="99" name="Obrázek 98"/>
+              <xdr:cNvPr id="99" name="Obrázek 98">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvPicPr>
                 <a:picLocks noChangeAspect="1"/>
               </xdr:cNvPicPr>
@@ -3601,7 +4072,13 @@
           </xdr:pic>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="100" name="TextovéPole 99"/>
+              <xdr:cNvPr id="100" name="TextovéPole 99">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3655,7 +4132,13 @@
         </xdr:grpSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="106" name="Skupina 105"/>
+            <xdr:cNvPr id="106" name="Skupina 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -3668,7 +4151,13 @@
           </xdr:grpSpPr>
           <xdr:pic>
             <xdr:nvPicPr>
-              <xdr:cNvPr id="104" name="Obrázek 103"/>
+              <xdr:cNvPr id="104" name="Obrázek 103">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvPicPr>
                 <a:picLocks noChangeAspect="1"/>
               </xdr:cNvPicPr>
@@ -3696,7 +4185,13 @@
           </xdr:pic>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="105" name="TextovéPole 104"/>
+              <xdr:cNvPr id="105" name="TextovéPole 104">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3751,7 +4246,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="Obdélník 35"/>
+          <xdr:cNvPr id="36" name="Obdélník 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3812,7 +4313,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="55" name="Skupina 54"/>
+        <xdr:cNvPr id="55" name="Skupina 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3825,7 +4332,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="98" name="Skupina 97"/>
+          <xdr:cNvPr id="98" name="Skupina 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3838,7 +4351,13 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="61" name="Obrázek 60"/>
+            <xdr:cNvPr id="61" name="Obrázek 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1"/>
             </xdr:cNvPicPr>
@@ -3866,7 +4385,13 @@
         </xdr:pic>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="97" name="Skupina 96"/>
+            <xdr:cNvPr id="97" name="Skupina 96">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -3879,7 +4404,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="16" name="TextovéPole 15"/>
+              <xdr:cNvPr id="16" name="TextovéPole 15">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3932,7 +4463,13 @@
           </xdr:sp>
           <xdr:grpSp>
             <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="96" name="Skupina 95"/>
+              <xdr:cNvPr id="96" name="Skupina 95">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvGrpSpPr/>
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
@@ -3945,7 +4482,13 @@
             </xdr:grpSpPr>
             <xdr:pic>
               <xdr:nvPicPr>
-                <xdr:cNvPr id="93" name="Obrázek 92"/>
+                <xdr:cNvPr id="93" name="Obrázek 92">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvPicPr>
                   <a:picLocks noChangeAspect="1"/>
                 </xdr:cNvPicPr>
@@ -3973,7 +4516,13 @@
             </xdr:pic>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="94" name="Obdélník 93"/>
+                <xdr:cNvPr id="94" name="Obdélník 93">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -4018,7 +4567,13 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="95" name="Obdélník 94"/>
+                <xdr:cNvPr id="95" name="Obdélník 94">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -4066,7 +4621,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="Obdélník 45"/>
+          <xdr:cNvPr id="46" name="Obdélník 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4114,46 +4675,64 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>601436</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:rowOff>80282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>233</xdr:row>
-      <xdr:rowOff>11189</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>415296</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>106439</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="79" name="Skupina 78"/>
+        <xdr:cNvPr id="84" name="Skupina 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7383235" y="32646257"/>
-          <a:ext cx="6723290" cy="11903832"/>
-          <a:chOff x="7383235" y="32646257"/>
-          <a:chExt cx="6723290" cy="11903832"/>
+          <a:off x="7307036" y="32617682"/>
+          <a:ext cx="6519460" cy="8979657"/>
+          <a:chOff x="7345136" y="32541482"/>
+          <a:chExt cx="6519460" cy="8979657"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="78" name="Skupina 77"/>
+          <xdr:cNvPr id="78" name="Skupina 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="7383235" y="32646257"/>
-            <a:ext cx="6452788" cy="11903832"/>
-            <a:chOff x="7464878" y="32795936"/>
-            <a:chExt cx="6452788" cy="11903832"/>
+            <a:off x="7345136" y="32541482"/>
+            <a:ext cx="6519460" cy="8979657"/>
+            <a:chOff x="7398204" y="32795936"/>
+            <a:chExt cx="6519460" cy="8979657"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="75" name="Skupina 74"/>
+            <xdr:cNvPr id="75" name="Skupina 74">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -4166,7 +4745,13 @@
           </xdr:grpSpPr>
           <xdr:pic>
             <xdr:nvPicPr>
-              <xdr:cNvPr id="70" name="Obrázek 69"/>
+              <xdr:cNvPr id="70" name="Obrázek 69">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvPicPr>
                 <a:picLocks noChangeAspect="1"/>
               </xdr:cNvPicPr>
@@ -4194,7 +4779,13 @@
           </xdr:pic>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="102" name="TextovéPole 101"/>
+              <xdr:cNvPr id="102" name="TextovéPole 101">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -4248,7 +4839,13 @@
         </xdr:grpSp>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="76" name="Obrázek 75"/>
+            <xdr:cNvPr id="77" name="Obrázek 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1"/>
             </xdr:cNvPicPr>
@@ -4261,35 +4858,7 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7464880" y="37150223"/>
-              <a:ext cx="6452786" cy="3651109"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="77" name="Obrázek 76"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7464879" y="40810543"/>
+              <a:off x="7398204" y="37886368"/>
               <a:ext cx="6452786" cy="3889225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4303,81 +4872,35 @@
           </xdr:spPr>
         </xdr:pic>
       </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="108" name="TextovéPole 107"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="83" name="Obrázek 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9250135" y="39256606"/>
-            <a:ext cx="4856390" cy="1281793"/>
+            <a:off x="7419976" y="36337875"/>
+            <a:ext cx="4057650" cy="1252823"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
         </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-GB" sz="2800" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>This</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="2800" b="1" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> is not gonna be applied.</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-GB" sz="2800" b="1" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Requires biaxial tensile failure test.</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-GB" sz="2800" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
+      </xdr:pic>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4401,7 +4924,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Skupina 7"/>
+        <xdr:cNvPr id="8" name="Skupina 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4414,7 +4943,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="Obrázek 5"/>
+          <xdr:cNvPr id="6" name="Obrázek 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -4442,7 +4977,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="Obrázek 6"/>
+          <xdr:cNvPr id="7" name="Obrázek 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -4486,7 +5027,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="Skupina 9"/>
+        <xdr:cNvPr id="10" name="Skupina 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4499,7 +5046,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="4" name="Skupina 3"/>
+          <xdr:cNvPr id="4" name="Skupina 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -4512,7 +5065,13 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Obrázek 1"/>
+            <xdr:cNvPr id="2" name="Obrázek 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1"/>
             </xdr:cNvPicPr>
@@ -4540,7 +5099,13 @@
         </xdr:pic>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextovéPole 2"/>
+            <xdr:cNvPr id="3" name="TextovéPole 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4588,7 +5153,13 @@
       </xdr:grpSp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="9" name="Obrázek 8"/>
+          <xdr:cNvPr id="9" name="Obrázek 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -4882,14 +5453,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A2:AQ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K168" sqref="K168"/>
+    <sheetView topLeftCell="B192" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z209" sqref="Z209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5015,14 +5586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5096,7 +5667,7 @@
         <v>47</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>48</v>
@@ -5137,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="54">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H5" s="55">
         <v>90</v>
@@ -5182,7 +5753,7 @@
       </c>
       <c r="G6" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>0</v>
+        <v>57450</v>
       </c>
       <c r="H6" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,2,0)</f>
@@ -5233,7 +5804,7 @@
       </c>
       <c r="G7" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>0</v>
+        <v>57450</v>
       </c>
       <c r="H7" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,3,0)</f>
@@ -5284,7 +5855,7 @@
       </c>
       <c r="G8" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,4,0)</f>
-        <v>0</v>
+        <v>2630</v>
       </c>
       <c r="H8" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,4,0)</f>
@@ -5335,7 +5906,7 @@
       </c>
       <c r="G9" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,5,0)</f>
-        <v>0</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="H9" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,5,0)</f>
@@ -5386,7 +5957,7 @@
       </c>
       <c r="G10" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,6,0)</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H10" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,6,0)</f>
@@ -5437,7 +6008,7 @@
       </c>
       <c r="G11" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,7,0)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="H11" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,7,0)</f>
@@ -5488,7 +6059,7 @@
       </c>
       <c r="G12" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,8,0)</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H12" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,8,0)</f>
@@ -5539,7 +6110,7 @@
       </c>
       <c r="G13" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,9,0)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="H13" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,9,0)</f>
@@ -5590,7 +6161,7 @@
       </c>
       <c r="G14" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,10,0)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H14" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,10,0)</f>
@@ -5641,7 +6212,7 @@
       </c>
       <c r="G15" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,11,0)</f>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="H15" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,11,0)</f>
@@ -5692,7 +6263,7 @@
       </c>
       <c r="G16" s="5">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,12,0)</f>
-        <v>0</v>
+        <v>1460</v>
       </c>
       <c r="H16" s="5">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,12,0)</f>
@@ -5743,7 +6314,7 @@
       </c>
       <c r="G17" s="49">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>0</v>
+        <v>321.2</v>
       </c>
       <c r="H17" s="49">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,13,0)</f>
@@ -5779,7 +6350,7 @@
       </c>
       <c r="C20" s="2">
         <f>SUM(D17:M17)</f>
-        <v>963.59999999999991</v>
+        <v>1284.8</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>35</v>
@@ -5795,7 +6366,7 @@
       </c>
       <c r="C22" s="2">
         <f>SUM(D15:M15)</f>
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>33</v>
@@ -5813,7 +6384,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Material_Database!$D$4:$N$4</xm:f>
           </x14:formula1>
@@ -5826,7 +6397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF3399FF"/>
   </sheetPr>

--- a/laminate_calc_theory_material_data.xlsx
+++ b/laminate_calc_theory_material_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Krzikalla\Desktop\Monocoque\CLT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5943BB-CC64-4F5E-B2D6-8D03358C9BF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3315BD20-7E98-44B7-8E9F-94A26767ECA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,37 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
-  <si>
-    <t>Workflow&gt;</t>
-  </si>
-  <si>
-    <t>I material input data</t>
-  </si>
-  <si>
-    <t>II Q matrix for material coordinate system</t>
-  </si>
-  <si>
-    <t>IV members A, B, D of global stiffness matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V input of loading </t>
-  </si>
-  <si>
-    <t>VI calculation of deformation epsilon zero and curvature k of middle plane of laminate</t>
-  </si>
-  <si>
-    <t>(VII strain in plies, general + material coor system)</t>
-  </si>
-  <si>
-    <t>IX strength criterions</t>
-  </si>
-  <si>
-    <t>(VIII stress in plies, general + material coor system)</t>
-  </si>
-  <si>
-    <t>III transformation of Q according to angle -&gt;Q_bar</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="60">
   <si>
     <t>E1</t>
   </si>
@@ -83,12 +53,6 @@
   </si>
   <si>
     <t>Ply no.</t>
-  </si>
-  <si>
-    <t>Material coordinate system corresponds to orientation of material fibres</t>
-  </si>
-  <si>
-    <t>General coordinate system corresponds to orientation of laminate</t>
   </si>
   <si>
     <t>Young's Modulus (longitudinal)</t>
@@ -377,22 +341,51 @@
   <si>
     <t>Sandwich theory</t>
   </si>
+  <si>
+    <t>Material coordinate system corresponds to orientation of material fibres, numerical indexes (Eps_12, ...)</t>
+  </si>
+  <si>
+    <t>General coordinate system corresponds to orientation of whole laminate plate, letter indexes (Eps_xy,...)</t>
+  </si>
+  <si>
+    <t>Workflow:</t>
+  </si>
+  <si>
+    <t>References:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nettles, A.T., 1994. Basic mechanics of laminated composite plates. (NASA) </t>
+  </si>
+  <si>
+    <t>Zidek, T. Aplikace senvicove konstrukce na formulovy vuz, Brno, VUT, 99s, 2016</t>
+  </si>
+  <si>
+    <t>information from 2 were confirmed from 1 and/or another international sources not listed here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fsae, Fsg rules </t>
+  </si>
+  <si>
+    <t>relevant theory</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>panels' design</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -491,8 +484,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A737D"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,22 +582,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="35">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -929,113 +932,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="16" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,91 +1125,120 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="29" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="28" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Celkem" xfId="4" builtinId="25"/>
-    <cellStyle name="Kontrolní buňka" xfId="2" builtinId="23"/>
+    <cellStyle name="Celkem" xfId="3" builtinId="25"/>
+    <cellStyle name="Kontrolní buňka" xfId="1" builtinId="23"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
-    <cellStyle name="Poznámka" xfId="3" builtinId="10"/>
-    <cellStyle name="Propojená buňka" xfId="1" builtinId="24"/>
+    <cellStyle name="Poznámka" xfId="2" builtinId="10"/>
+    <cellStyle name="Špatně" xfId="4" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1173,16 +1264,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2803</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>326653</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>326653</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>40903</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>84920</xdr:rowOff>
+      <xdr:rowOff>113495</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1205,28 +1296,33 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2803" y="38100"/>
-          <a:ext cx="4559674" cy="2822677"/>
+          <a:off x="326653" y="66675"/>
+          <a:ext cx="4591050" cy="2847170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>182656</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>360188</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>598313</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>106350</xdr:rowOff>
+      <xdr:rowOff>87300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1249,1109 +1345,33 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2891118"/>
-          <a:ext cx="5201129" cy="5238644"/>
+          <a:off x="238125" y="2983006"/>
+          <a:ext cx="5236988" cy="5238644"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>134472</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>303592</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>141302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>275667</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>51190</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="Skupina 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="12992099" y="7887822"/>
-          <a:ext cx="9333943" cy="9841768"/>
-          <a:chOff x="12886765" y="7720855"/>
-          <a:chExt cx="9273991" cy="9845130"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="Obrázek 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="19168786" y="11810999"/>
-            <a:ext cx="2991970" cy="1886454"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="25" name="Skupina 24">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="12886765" y="7720855"/>
-            <a:ext cx="6275295" cy="9845130"/>
-            <a:chOff x="5143500" y="2566147"/>
-            <a:chExt cx="5301981" cy="8444394"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="24" name="Skupina 23">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="5143500" y="2566147"/>
-              <a:ext cx="5301981" cy="8444394"/>
-              <a:chOff x="5143500" y="2566147"/>
-              <a:chExt cx="5301981" cy="8444394"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="4" name="Obrázek 3">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5161432" y="2566147"/>
-                <a:ext cx="5284049" cy="5188324"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="5" name="Obrázek 4">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5143500" y="7743266"/>
-                <a:ext cx="5289176" cy="3267275"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-          </xdr:pic>
-        </xdr:grpSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="TextovéPole 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8173570" y="3086101"/>
-              <a:ext cx="555601" cy="501676"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="2800" b="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>IV</a:t>
-              </a:r>
-              <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>140076</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>158284</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>124649</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="Skupina 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6236076" y="0"/>
-          <a:ext cx="6723808" cy="2543999"/>
-          <a:chOff x="4667252" y="33616"/>
-          <a:chExt cx="6674503" cy="2433061"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Obrázek 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4667252" y="85725"/>
-            <a:ext cx="6674503" cy="2380952"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="TextovéPole 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5759823" y="33616"/>
-            <a:ext cx="297197" cy="501676"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-GB" sz="2800" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>I</a:t>
-            </a:r>
-            <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>257734</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>194143</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>97653</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="34" name="Skupina 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="13059334" y="56029"/>
-          <a:ext cx="6746784" cy="7604474"/>
-          <a:chOff x="12909176" y="44823"/>
-          <a:chExt cx="6704762" cy="7471124"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="31" name="Skupina 30">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="12909176" y="44823"/>
-            <a:ext cx="6704762" cy="7471124"/>
-            <a:chOff x="10656795" y="8180294"/>
-            <a:chExt cx="6704762" cy="7449108"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="29" name="Skupina 28">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="10656795" y="8180294"/>
-              <a:ext cx="6704762" cy="4257526"/>
-              <a:chOff x="10656795" y="8180294"/>
-              <a:chExt cx="6704762" cy="4257526"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="28" name="Skupina 27">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="10656795" y="8180294"/>
-                <a:ext cx="6704762" cy="4257526"/>
-                <a:chOff x="12102353" y="9356912"/>
-                <a:chExt cx="6704762" cy="4257526"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:pic>
-              <xdr:nvPicPr>
-                <xdr:cNvPr id="26" name="Obrázek 25">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvPicPr>
-                  <a:picLocks noChangeAspect="1"/>
-                </xdr:cNvPicPr>
-              </xdr:nvPicPr>
-              <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </xdr:blipFill>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="12102353" y="9356912"/>
-                  <a:ext cx="6704762" cy="1019048"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-              </xdr:spPr>
-            </xdr:pic>
-            <xdr:pic>
-              <xdr:nvPicPr>
-                <xdr:cNvPr id="27" name="Obrázek 26">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvPicPr>
-                  <a:picLocks noChangeAspect="1"/>
-                </xdr:cNvPicPr>
-              </xdr:nvPicPr>
-              <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </xdr:blipFill>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="12102353" y="10309676"/>
-                  <a:ext cx="6685714" cy="3304762"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-              </xdr:spPr>
-            </xdr:pic>
-          </xdr:grpSp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="12" name="TextovéPole 11">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15201901" y="9442076"/>
-                <a:ext cx="409728" cy="501676"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="2800" b="1">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>II</a:t>
-                </a:r>
-                <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="30" name="Obrázek 29">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10656796" y="12438926"/>
-              <a:ext cx="6209524" cy="3190476"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="TextovéPole 31">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="17201029" y="5113613"/>
-            <a:ext cx="1277470" cy="503159"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-GB" sz="2800" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Note</a:t>
-            </a:r>
-            <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>324971</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>178210</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="33" name="Skupina 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6420971" y="17487900"/>
-          <a:ext cx="6380628" cy="10655710"/>
-          <a:chOff x="6163235" y="12718677"/>
-          <a:chExt cx="6331323" cy="10655710"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="35" name="Obrázek 34">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6163235" y="16651940"/>
-            <a:ext cx="6331323" cy="6722447"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="21" name="Skupina 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="6185647" y="12718677"/>
-            <a:ext cx="6252881" cy="3978088"/>
-            <a:chOff x="12752295" y="19498236"/>
-            <a:chExt cx="5228571" cy="3276190"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="19" name="Obrázek 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12752295" y="19498236"/>
-              <a:ext cx="5228571" cy="3276190"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="TextovéPole 16">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="13386548" y="20087662"/>
-              <a:ext cx="443070" cy="501676"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="2800" b="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>V</a:t>
-              </a:r>
-              <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>161640</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>55697</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="49" name="Skupina 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="12969688" y="18230850"/>
-          <a:ext cx="6803927" cy="2360747"/>
-          <a:chOff x="12875559" y="18100862"/>
-          <a:chExt cx="6761905" cy="2360747"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="47" name="Obrázek 46">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-          <a:srcRect t="11472"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12875559" y="18100862"/>
-            <a:ext cx="6761905" cy="2360747"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="48" name="Obrázek 47">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15486529" y="19341353"/>
-            <a:ext cx="1933333" cy="657143"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="TextovéPole 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="17871141" y="19114992"/>
-            <a:ext cx="555601" cy="501676"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-GB" sz="2800" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>VI</a:t>
-            </a:r>
-            <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>56031</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190306</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>170102</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Obrázek 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6264088" y="2532531"/>
-          <a:ext cx="6028571" cy="1828571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>615320</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>184597</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>396114</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>177201</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>274886</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>133906</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2369,7 +1389,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="16617320" y="27616597"/>
+          <a:off x="12876592" y="31002302"/>
           <a:ext cx="2828794" cy="754604"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2400,520 +1420,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>56031</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>393122</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>128155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>479306</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>112057</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="51" name="Skupina 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6308912" y="2665881"/>
-          <a:ext cx="6362394" cy="14743576"/>
-          <a:chOff x="6163236" y="2398061"/>
-          <a:chExt cx="6317571" cy="14746938"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="44" name="Skupina 43">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="6163236" y="2398061"/>
-            <a:ext cx="6317571" cy="14746938"/>
-            <a:chOff x="6163236" y="2398061"/>
-            <a:chExt cx="6317571" cy="14746938"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="23" name="Skupina 22">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="6163236" y="2398061"/>
-              <a:ext cx="6317571" cy="8451720"/>
-              <a:chOff x="0" y="2915210"/>
-              <a:chExt cx="5073549" cy="7286463"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="10" name="Skupina 9">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="0" y="2915210"/>
-                <a:ext cx="5073549" cy="7286463"/>
-                <a:chOff x="1638300" y="9324975"/>
-                <a:chExt cx="5114017" cy="7286463"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:pic>
-              <xdr:nvPicPr>
-                <xdr:cNvPr id="8" name="Obrázek 7">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvPicPr>
-                  <a:picLocks noChangeAspect="1"/>
-                </xdr:cNvPicPr>
-              </xdr:nvPicPr>
-              <xdr:blipFill rotWithShape="1">
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-                <a:srcRect b="14922"/>
-                <a:stretch/>
-              </xdr:blipFill>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="1638300" y="9324975"/>
-                  <a:ext cx="5097936" cy="4086560"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-              </xdr:spPr>
-            </xdr:pic>
-            <xdr:pic>
-              <xdr:nvPicPr>
-                <xdr:cNvPr id="9" name="Obrázek 8">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvPicPr>
-                  <a:picLocks noChangeAspect="1"/>
-                </xdr:cNvPicPr>
-              </xdr:nvPicPr>
-              <xdr:blipFill rotWithShape="1">
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-                <a:srcRect t="20744" b="121"/>
-                <a:stretch/>
-              </xdr:blipFill>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="1694543" y="13440518"/>
-                  <a:ext cx="5057774" cy="3170920"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-              </xdr:spPr>
-            </xdr:pic>
-          </xdr:grpSp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="13" name="TextovéPole 12">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="2684056" y="4599524"/>
-                <a:ext cx="522259" cy="501676"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="2800" b="1">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>III</a:t>
-                </a:r>
-                <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="43" name="Skupina 42">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="6208060" y="10888551"/>
-              <a:ext cx="6186627" cy="6256448"/>
-              <a:chOff x="1602441" y="9297317"/>
-              <a:chExt cx="6186627" cy="6256448"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="39" name="Skupina 38">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="2001584" y="9297317"/>
-                <a:ext cx="5529885" cy="3858391"/>
-                <a:chOff x="320585" y="9758525"/>
-                <a:chExt cx="7161905" cy="5430568"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:pic>
-              <xdr:nvPicPr>
-                <xdr:cNvPr id="38" name="Obrázek 37">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvPicPr>
-                  <a:picLocks noChangeAspect="1"/>
-                </xdr:cNvPicPr>
-              </xdr:nvPicPr>
-              <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </xdr:blipFill>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="384082" y="13484331"/>
-                  <a:ext cx="6914286" cy="1704762"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-              </xdr:spPr>
-            </xdr:pic>
-            <xdr:pic>
-              <xdr:nvPicPr>
-                <xdr:cNvPr id="37" name="Obrázek 36">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvPicPr>
-                  <a:picLocks noChangeAspect="1"/>
-                </xdr:cNvPicPr>
-              </xdr:nvPicPr>
-              <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </xdr:blipFill>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="320585" y="9758525"/>
-                  <a:ext cx="7161905" cy="3752381"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-              </xdr:spPr>
-            </xdr:pic>
-          </xdr:grpSp>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="42" name="Skupina 41">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="1602441" y="13178118"/>
-                <a:ext cx="6186627" cy="2375647"/>
-                <a:chOff x="990065" y="8967122"/>
-                <a:chExt cx="9350268" cy="3590476"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:pic>
-              <xdr:nvPicPr>
-                <xdr:cNvPr id="40" name="Obrázek 39">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvPicPr>
-                  <a:picLocks noChangeAspect="1"/>
-                </xdr:cNvPicPr>
-              </xdr:nvPicPr>
-              <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </xdr:blipFill>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="1007000" y="8967122"/>
-                  <a:ext cx="9333333" cy="3590476"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-              </xdr:spPr>
-            </xdr:pic>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="41" name="Obdélník 40">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="990065" y="9000738"/>
-                  <a:ext cx="7877736" cy="257737"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="28575">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="50000"/>
-                  </a:schemeClr>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="accent1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="accent1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:endParaRPr lang="cs-CZ" sz="1100">
-                    <a:ln>
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:ln>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-          </xdr:grpSp>
-        </xdr:grpSp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="TextovéPole 49">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10410265" y="15060705"/>
-            <a:ext cx="1680882" cy="1961030"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100"/>
-              <a:t>Q16,Q26</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-              <a:t> are for general direction non-zero. If non-zero, there is coupling between tension and shear. for 0 and 90 angle with respect to material coor system those are zeros</a:t>
-            </a:r>
-            <a:endParaRPr lang="cs-CZ" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>469322</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2928,7 +1444,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13544550" y="21278850"/>
+          <a:off x="9537122" y="24645505"/>
           <a:ext cx="13592175" cy="10591800"/>
           <a:chOff x="32368671" y="12676414"/>
           <a:chExt cx="13778593" cy="10591800"/>
@@ -2986,7 +1502,7 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
               <a:stretch>
                 <a:fillRect/>
               </a:stretch>
@@ -3129,7 +1645,7 @@
                   </xdr:cNvPicPr>
                 </xdr:nvPicPr>
                 <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
                   <a:stretch>
                     <a:fillRect/>
                   </a:stretch>
@@ -3497,7 +2013,7 @@
                     </xdr:cNvPicPr>
                   </xdr:nvPicPr>
                   <xdr:blipFill>
-                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
                     <a:stretch>
                       <a:fillRect/>
                     </a:stretch>
@@ -4055,7 +2571,7 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
               <a:stretch>
                 <a:fillRect/>
               </a:stretch>
@@ -4163,7 +2679,7 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
               <a:stretch>
                 <a:fillRect/>
               </a:stretch>
@@ -4300,16 +2816,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>81644</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>306781</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>64325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>408215</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>27216</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>91539</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4324,8 +2840,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7396844" y="28428043"/>
-          <a:ext cx="3984171" cy="4027714"/>
+          <a:off x="3354781" y="28772675"/>
+          <a:ext cx="3987635" cy="4027714"/>
           <a:chOff x="7320643" y="28370893"/>
           <a:chExt cx="4000500" cy="4027714"/>
         </a:xfrm>
@@ -4363,7 +2879,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -4494,7 +3010,7 @@
                 </xdr:cNvPicPr>
               </xdr:nvPicPr>
               <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
                 <a:stretch>
                   <a:fillRect/>
                 </a:stretch>
@@ -4675,23 +3191,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>601436</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>80282</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>129021</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>88323</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>415296</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>106439</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>81397</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="84" name="Skupina 83">
+        <xdr:cNvPr id="76" name="Skupina 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC61EC7-BC9B-4655-A44B-B870E48B5E10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4699,18 +3215,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7307036" y="32617682"/>
-          <a:ext cx="6519460" cy="8979657"/>
-          <a:chOff x="7345136" y="32541482"/>
-          <a:chExt cx="6519460" cy="8979657"/>
+          <a:off x="2567421" y="33178173"/>
+          <a:ext cx="6657976" cy="9124950"/>
+          <a:chOff x="7267575" y="32556450"/>
+          <a:chExt cx="6657976" cy="9124950"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="78" name="Skupina 77">
+          <xdr:cNvPr id="84" name="Skupina 83">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4718,18 +3234,18 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="7345136" y="32541482"/>
+            <a:off x="7307036" y="32617682"/>
             <a:ext cx="6519460" cy="8979657"/>
-            <a:chOff x="7398204" y="32795936"/>
+            <a:chOff x="7345136" y="32541482"/>
             <a:chExt cx="6519460" cy="8979657"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="75" name="Skupina 74">
+            <xdr:cNvPr id="78" name="Skupina 77">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4737,18 +3253,131 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="7464878" y="32795936"/>
-              <a:ext cx="6452786" cy="4314286"/>
-              <a:chOff x="7443107" y="34140321"/>
-              <a:chExt cx="6714286" cy="4314286"/>
+              <a:off x="7345136" y="32541482"/>
+              <a:ext cx="6519460" cy="8979657"/>
+              <a:chOff x="7398204" y="32795936"/>
+              <a:chExt cx="6519460" cy="8979657"/>
             </a:xfrm>
           </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="75" name="Skupina 74">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="7464878" y="32795936"/>
+                <a:ext cx="6452786" cy="4314286"/>
+                <a:chOff x="7443107" y="34140321"/>
+                <a:chExt cx="6714286" cy="4314286"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:pic>
+              <xdr:nvPicPr>
+                <xdr:cNvPr id="70" name="Obrázek 69">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvPicPr>
+                  <a:picLocks noChangeAspect="1"/>
+                </xdr:cNvPicPr>
+              </xdr:nvPicPr>
+              <xdr:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </xdr:blipFill>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7443107" y="34140321"/>
+                  <a:ext cx="6714286" cy="4314286"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+            </xdr:pic>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="102" name="TextovéPole 101">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="10382251" y="34181142"/>
+                  <a:ext cx="780663" cy="501676"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="2800" b="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>IX</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
           <xdr:pic>
             <xdr:nvPicPr>
-              <xdr:cNvPr id="70" name="Obrázek 69">
+              <xdr:cNvPr id="77" name="Obrázek 76">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4757,15 +3386,15 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
               <a:stretch>
                 <a:fillRect/>
               </a:stretch>
             </xdr:blipFill>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="7443107" y="34140321"/>
-                <a:ext cx="6714286" cy="4314286"/>
+                <a:off x="7398204" y="37886368"/>
+                <a:ext cx="6452786" cy="3889225"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -4777,12 +3406,1459 @@
               </a:ln>
             </xdr:spPr>
           </xdr:pic>
+        </xdr:grpSp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="83" name="Obrázek 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7419976" y="36337875"/>
+              <a:ext cx="4057650" cy="1252823"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="108" name="Obdélník 107">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32610F3D-FAF0-49F7-9EC0-BAAFC204E797}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7267575" y="32556450"/>
+            <a:ext cx="6657976" cy="9124950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="cs-CZ" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>69272</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>158284</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="79" name="Skupina 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0F51A3-0190-4802-B8AD-AE0F738D464C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6774872" y="0"/>
+          <a:ext cx="6794612" cy="2575214"/>
+          <a:chOff x="6130636" y="0"/>
+          <a:chExt cx="6756512" cy="2580409"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="22" name="Skupina 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6201440" y="0"/>
+            <a:ext cx="6685708" cy="2549194"/>
+            <a:chOff x="4667252" y="33616"/>
+            <a:chExt cx="6674503" cy="2433061"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Obrázek 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4667252" y="85725"/>
+              <a:ext cx="6674503" cy="2380952"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextovéPole 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5759823" y="33616"/>
+              <a:ext cx="297197" cy="501676"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="2800" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>I</a:t>
+              </a:r>
+              <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="109" name="Obdélník 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A407B5C7-1624-492F-8B5B-E1308F60CB93}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6130636" y="0"/>
+            <a:ext cx="6754091" cy="2580409"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="cs-CZ" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>164305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>75240</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="80" name="Skupina 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{527A7C19-2B0F-4A0E-A15F-820B4E8ACF6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6800850" y="2583655"/>
+          <a:ext cx="6637563" cy="14769935"/>
+          <a:chOff x="6232071" y="2619994"/>
+          <a:chExt cx="6667499" cy="14797149"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="51" name="Skupina 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6336126" y="2641388"/>
+            <a:ext cx="6389609" cy="14751740"/>
+            <a:chOff x="6163236" y="2398061"/>
+            <a:chExt cx="6317571" cy="14746938"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="44" name="Skupina 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="6163236" y="2398061"/>
+              <a:ext cx="6317571" cy="14746938"/>
+              <a:chOff x="6163236" y="2398061"/>
+              <a:chExt cx="6317571" cy="14746938"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="23" name="Skupina 22">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="6163236" y="2398061"/>
+                <a:ext cx="6317571" cy="8451720"/>
+                <a:chOff x="0" y="2915210"/>
+                <a:chExt cx="5073549" cy="7286463"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="10" name="Skupina 9">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="0" y="2915210"/>
+                  <a:ext cx="5073549" cy="7286463"/>
+                  <a:chOff x="1638300" y="9324975"/>
+                  <a:chExt cx="5114017" cy="7286463"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:pic>
+                <xdr:nvPicPr>
+                  <xdr:cNvPr id="8" name="Obrázek 7">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvPicPr>
+                    <a:picLocks noChangeAspect="1"/>
+                  </xdr:cNvPicPr>
+                </xdr:nvPicPr>
+                <xdr:blipFill rotWithShape="1">
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+                  <a:srcRect b="14922"/>
+                  <a:stretch/>
+                </xdr:blipFill>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="1638300" y="9324975"/>
+                    <a:ext cx="5097936" cy="4086560"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+              </xdr:pic>
+              <xdr:pic>
+                <xdr:nvPicPr>
+                  <xdr:cNvPr id="9" name="Obrázek 8">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvPicPr>
+                    <a:picLocks noChangeAspect="1"/>
+                  </xdr:cNvPicPr>
+                </xdr:nvPicPr>
+                <xdr:blipFill rotWithShape="1">
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+                  <a:srcRect t="20744" b="121"/>
+                  <a:stretch/>
+                </xdr:blipFill>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="1694543" y="13440518"/>
+                    <a:ext cx="5057774" cy="3170920"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+              </xdr:pic>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="13" name="TextovéPole 12">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2684056" y="4599524"/>
+                  <a:ext cx="522259" cy="501676"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="2800" b="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>III</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="43" name="Skupina 42">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="6208060" y="10888551"/>
+                <a:ext cx="6186627" cy="6256448"/>
+                <a:chOff x="1602441" y="9297317"/>
+                <a:chExt cx="6186627" cy="6256448"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="39" name="Skupina 38">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="2001584" y="9297317"/>
+                  <a:ext cx="5529885" cy="3858391"/>
+                  <a:chOff x="320585" y="9758525"/>
+                  <a:chExt cx="7161905" cy="5430568"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:pic>
+                <xdr:nvPicPr>
+                  <xdr:cNvPr id="38" name="Obrázek 37">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvPicPr>
+                    <a:picLocks noChangeAspect="1"/>
+                  </xdr:cNvPicPr>
+                </xdr:nvPicPr>
+                <xdr:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </xdr:blipFill>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="384082" y="13484331"/>
+                    <a:ext cx="6914286" cy="1704762"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+              </xdr:pic>
+              <xdr:pic>
+                <xdr:nvPicPr>
+                  <xdr:cNvPr id="37" name="Obrázek 36">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvPicPr>
+                    <a:picLocks noChangeAspect="1"/>
+                  </xdr:cNvPicPr>
+                </xdr:nvPicPr>
+                <xdr:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </xdr:blipFill>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="320585" y="9758525"/>
+                    <a:ext cx="7161905" cy="3752381"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+              </xdr:pic>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="42" name="Skupina 41">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="1602441" y="13178118"/>
+                  <a:ext cx="6186627" cy="2375647"/>
+                  <a:chOff x="990065" y="8967122"/>
+                  <a:chExt cx="9350268" cy="3590476"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:pic>
+                <xdr:nvPicPr>
+                  <xdr:cNvPr id="40" name="Obrázek 39">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvPicPr>
+                    <a:picLocks noChangeAspect="1"/>
+                  </xdr:cNvPicPr>
+                </xdr:nvPicPr>
+                <xdr:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </xdr:blipFill>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="1007000" y="8967122"/>
+                    <a:ext cx="9333333" cy="3590476"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+              </xdr:pic>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="41" name="Obdélník 40">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="990065" y="9000738"/>
+                    <a:ext cx="7877736" cy="257737"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="28575">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="cs-CZ" sz="1100">
+                      <a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:ln>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </xdr:grpSp>
+          </xdr:grpSp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="TextovéPole 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10410265" y="15060705"/>
+              <a:ext cx="1680882" cy="1961030"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>Q16,Q26</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                <a:t> are for general direction non-zero. If non-zero, there is coupling between tension and shear. for 0 and 90 angle with respect to material coor system those are zeros</a:t>
+              </a:r>
+              <a:endParaRPr lang="cs-CZ" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="110" name="Obdélník 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2FF0ED-961D-45D1-88FC-68B80115049D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6232071" y="2619994"/>
+            <a:ext cx="6667499" cy="14797149"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="cs-CZ" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="81" name="Skupina 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24BD83C0-2237-402A-8DDA-5ADD86E00FF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13628914" y="13606"/>
+          <a:ext cx="6878411" cy="7753350"/>
+          <a:chOff x="13076464" y="13606"/>
+          <a:chExt cx="6912429" cy="7728857"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="34" name="Skupina 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="13116484" y="56029"/>
+            <a:ext cx="6780802" cy="7579981"/>
+            <a:chOff x="12909176" y="44823"/>
+            <a:chExt cx="6704762" cy="7471124"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="31" name="Skupina 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="12909176" y="44823"/>
+              <a:ext cx="6704762" cy="7471124"/>
+              <a:chOff x="10656795" y="8180294"/>
+              <a:chExt cx="6704762" cy="7449108"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="29" name="Skupina 28">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="10656795" y="8180294"/>
+                <a:ext cx="6704762" cy="4257526"/>
+                <a:chOff x="10656795" y="8180294"/>
+                <a:chExt cx="6704762" cy="4257526"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="28" name="Skupina 27">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="10656795" y="8180294"/>
+                  <a:ext cx="6704762" cy="4257526"/>
+                  <a:chOff x="12102353" y="9356912"/>
+                  <a:chExt cx="6704762" cy="4257526"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:pic>
+                <xdr:nvPicPr>
+                  <xdr:cNvPr id="26" name="Obrázek 25">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvPicPr>
+                    <a:picLocks noChangeAspect="1"/>
+                  </xdr:cNvPicPr>
+                </xdr:nvPicPr>
+                <xdr:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </xdr:blipFill>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="12102353" y="9356912"/>
+                    <a:ext cx="6704762" cy="1019048"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+              </xdr:pic>
+              <xdr:pic>
+                <xdr:nvPicPr>
+                  <xdr:cNvPr id="27" name="Obrázek 26">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvPicPr>
+                    <a:picLocks noChangeAspect="1"/>
+                  </xdr:cNvPicPr>
+                </xdr:nvPicPr>
+                <xdr:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </xdr:blipFill>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="12102353" y="10309676"/>
+                    <a:ext cx="6685714" cy="3304762"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+              </xdr:pic>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="12" name="TextovéPole 11">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="15201901" y="9442076"/>
+                  <a:ext cx="409728" cy="501676"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="2800" b="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>II</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="30" name="Obrázek 29">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="10656796" y="12438926"/>
+                <a:ext cx="6209524" cy="3190476"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:pic>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="TextovéPole 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17201029" y="5113613"/>
+              <a:ext cx="1277470" cy="503159"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="2800" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Note</a:t>
+              </a:r>
+              <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="111" name="Obdélník 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01BA0E25-59D0-4262-8516-BC159118D2E9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13076464" y="13606"/>
+            <a:ext cx="6912429" cy="7728857"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="cs-CZ" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="82" name="Skupina 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54293158-E6C8-4DD2-A34E-1D5D137A0584}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13724165" y="7807779"/>
+          <a:ext cx="9452881" cy="9946821"/>
+          <a:chOff x="13035644" y="7810501"/>
+          <a:chExt cx="9497785" cy="9974035"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="18" name="Skupina 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="13049249" y="7863329"/>
+            <a:ext cx="9378847" cy="9849932"/>
+            <a:chOff x="12886765" y="7720855"/>
+            <a:chExt cx="9273991" cy="9845130"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Obrázek 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19168786" y="11810999"/>
+              <a:ext cx="2991970" cy="1886454"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="25" name="Skupina 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="12886765" y="7720855"/>
+              <a:ext cx="6275295" cy="9845130"/>
+              <a:chOff x="5143500" y="2566147"/>
+              <a:chExt cx="5301981" cy="8444394"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="24" name="Skupina 23">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="5143500" y="2566147"/>
+                <a:ext cx="5301981" cy="8444394"/>
+                <a:chOff x="5143500" y="2566147"/>
+                <a:chExt cx="5301981" cy="8444394"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:pic>
+              <xdr:nvPicPr>
+                <xdr:cNvPr id="4" name="Obrázek 3">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvPicPr>
+                  <a:picLocks noChangeAspect="1"/>
+                </xdr:cNvPicPr>
+              </xdr:nvPicPr>
+              <xdr:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </xdr:blipFill>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="5161432" y="2566147"/>
+                  <a:ext cx="5284049" cy="5188324"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+            </xdr:pic>
+            <xdr:pic>
+              <xdr:nvPicPr>
+                <xdr:cNvPr id="5" name="Obrázek 4">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvPicPr>
+                  <a:picLocks noChangeAspect="1"/>
+                </xdr:cNvPicPr>
+              </xdr:nvPicPr>
+              <xdr:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </xdr:blipFill>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="5143500" y="7743266"/>
+                  <a:ext cx="5289176" cy="3267275"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+            </xdr:pic>
+          </xdr:grpSp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="102" name="TextovéPole 101">
+              <xdr:cNvPr id="15" name="TextovéPole 14">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4790,13 +4866,18 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="10382251" y="34181142"/>
-                <a:ext cx="780663" cy="501676"/>
+                <a:off x="8173570" y="3086101"/>
+                <a:ext cx="555601" cy="501676"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
               </a:prstGeom>
               <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
             </xdr:spPr>
             <xdr:style>
               <a:lnRef idx="0">
@@ -4814,7 +4895,7 @@
             </xdr:style>
             <xdr:txBody>
               <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-                <a:noAutofit/>
+                <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
@@ -4825,7 +4906,7 @@
                     </a:solidFill>
                     <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>IX</a:t>
+                  <a:t>IV</a:t>
                 </a:r>
                 <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
                   <a:solidFill>
@@ -4837,12 +4918,118 @@
             </xdr:txBody>
           </xdr:sp>
         </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="Obdélník 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08F531E-946F-45B5-B011-2A4EB21B3338}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13035644" y="7810501"/>
+            <a:ext cx="9497785" cy="9974035"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="cs-CZ" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>183079</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>74222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>74221</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>60614</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="89" name="Skupina 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618B75AE-05F6-4A77-94AC-54A092254828}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2621479" y="17543072"/>
+          <a:ext cx="6596742" cy="10844892"/>
+          <a:chOff x="6340929" y="17389929"/>
+          <a:chExt cx="6626678" cy="10844892"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="33" name="Skupina 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6448185" y="17471571"/>
+            <a:ext cx="6410564" cy="10655710"/>
+            <a:chOff x="6163235" y="12718677"/>
+            <a:chExt cx="6331323" cy="10655710"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="77" name="Obrázek 76">
+            <xdr:cNvPr id="35" name="Obrázek 34">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4851,15 +5038,15 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7398204" y="37886368"/>
-              <a:ext cx="6452786" cy="3889225"/>
+              <a:off x="6163235" y="16651940"/>
+              <a:ext cx="6331323" cy="6722447"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4871,36 +5058,618 @@
             </a:ln>
           </xdr:spPr>
         </xdr:pic>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="21" name="Skupina 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="6185647" y="12718677"/>
+              <a:ext cx="6252881" cy="3978088"/>
+              <a:chOff x="12752295" y="19498236"/>
+              <a:chExt cx="5228571" cy="3276190"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="19" name="Obrázek 18">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="12752295" y="19498236"/>
+                <a:ext cx="5228571" cy="3276190"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="17" name="TextovéPole 16">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="13386548" y="20087662"/>
+                <a:ext cx="443070" cy="501676"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2800" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
       </xdr:grpSp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="83" name="Obrázek 82">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="114" name="Obdélník 113">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF9F0A6-61A4-413E-ACD2-285FAF0F951C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7419976" y="36337875"/>
-            <a:ext cx="4057650" cy="1252823"/>
+            <a:off x="6340929" y="17389929"/>
+            <a:ext cx="6626678" cy="10844892"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
         </xdr:spPr>
-      </xdr:pic>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="cs-CZ" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>506556</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>24246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>456136</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>128155</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="119" name="Skupina 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B7EAA2B-A079-4456-89B1-391791B5B124}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12088956" y="17874096"/>
+          <a:ext cx="8588755" cy="6771409"/>
+          <a:chOff x="12136581" y="17797896"/>
+          <a:chExt cx="8588755" cy="6771409"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="117" name="Skupina 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A787BD32-1616-4AA2-B5BD-0B0A6517CBBC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="12136581" y="17797896"/>
+            <a:ext cx="8588755" cy="6771409"/>
+            <a:chOff x="12070772" y="17803091"/>
+            <a:chExt cx="8539398" cy="6771409"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="115" name="Skupina 114">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35736E9-6288-43AE-A5E0-63BADE4777AF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="12105408" y="17838964"/>
+              <a:ext cx="8504762" cy="6691728"/>
+              <a:chOff x="12105408" y="17838964"/>
+              <a:chExt cx="8504762" cy="6691728"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="88" name="Skupina 87">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5717014-038C-49C1-908D-E7E4F7D959D8}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="12768448" y="17838964"/>
+                <a:ext cx="6969329" cy="2612571"/>
+                <a:chOff x="12899571" y="18083893"/>
+                <a:chExt cx="7048500" cy="2612571"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="49" name="Skupina 48">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="13026838" y="18214521"/>
+                  <a:ext cx="6837945" cy="2360747"/>
+                  <a:chOff x="12875559" y="18100862"/>
+                  <a:chExt cx="6761905" cy="2360747"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:pic>
+                <xdr:nvPicPr>
+                  <xdr:cNvPr id="47" name="Obrázek 46">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvPicPr>
+                    <a:picLocks noChangeAspect="1"/>
+                  </xdr:cNvPicPr>
+                </xdr:nvPicPr>
+                <xdr:blipFill rotWithShape="1">
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+                  <a:srcRect t="11472"/>
+                  <a:stretch/>
+                </xdr:blipFill>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="12875559" y="18100862"/>
+                    <a:ext cx="6761905" cy="2360747"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+              </xdr:pic>
+              <xdr:pic>
+                <xdr:nvPicPr>
+                  <xdr:cNvPr id="48" name="Obrázek 47">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvPicPr>
+                    <a:picLocks noChangeAspect="1"/>
+                  </xdr:cNvPicPr>
+                </xdr:nvPicPr>
+                <xdr:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </xdr:blipFill>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="15486529" y="19341353"/>
+                    <a:ext cx="1933333" cy="657143"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+              </xdr:pic>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="14" name="TextovéPole 13">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="17871141" y="19114992"/>
+                    <a:ext cx="555601" cy="501676"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="2800" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>VI</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="113" name="Obdélník 112">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{202112B7-61C8-4F88-884C-624C28CA415D}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="12899571" y="18083893"/>
+                  <a:ext cx="7048500" cy="2612571"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="28575">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="cs-CZ" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="53" name="Obrázek 52">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD874DAA-A1A8-4D21-8B02-8933B1AB0996}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="12105408" y="20435454"/>
+                <a:ext cx="8504762" cy="4095238"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:pic>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="116" name="Obdélník 115">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14FA3ACB-09E1-421D-8BC4-1761C2729648}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12070772" y="17803091"/>
+              <a:ext cx="8485909" cy="6771409"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="cs-CZ" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="118" name="TextovéPole 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{897796F8-00D6-4C84-9F60-A52B9B145517}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15517091" y="21469350"/>
+            <a:ext cx="1961283" cy="619125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1500"/>
+              <a:t>Force</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1500" baseline="0"/>
+              <a:t> [N/mm], Moment [N*mm/mm]</a:t>
+            </a:r>
+            <a:endParaRPr lang="cs-CZ" sz="1500"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -5457,127 +6226,319 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:AQ62"/>
+  <dimension ref="A2:AR60"/>
   <sheetViews>
-    <sheetView topLeftCell="B192" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z209" sqref="Z209"/>
+    <sheetView topLeftCell="J92" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="204075" topLeftCell="AM1"/>
+      <selection activeCell="AJ113" sqref="AJ113"/>
+      <selection pane="topRight" activeCell="AM97" sqref="AM97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="29" max="29" width="10.7109375" customWidth="1"/>
-    <col min="38" max="38" width="9.140625" style="66"/>
+    <col min="30" max="30" width="10.7109375" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" style="65"/>
   </cols>
   <sheetData>
-    <row r="2" spans="39:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="39:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM3" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN3" s="67"/>
-      <c r="AO3" s="67"/>
-      <c r="AP3" s="67"/>
-      <c r="AQ3" s="67"/>
+    <row r="2" spans="40:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="40:44" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN3" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="71"/>
+      <c r="AQ3" s="71"/>
+      <c r="AR3" s="71"/>
     </row>
-    <row r="4" spans="39:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="67"/>
-      <c r="AP4" s="67"/>
-      <c r="AQ4" s="67"/>
+    <row r="4" spans="40:44" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="71"/>
+      <c r="AQ4" s="71"/>
+      <c r="AR4" s="71"/>
     </row>
-    <row r="5" spans="39:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="67"/>
-      <c r="AQ5" s="67"/>
+    <row r="5" spans="40:44" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN5" s="71"/>
+      <c r="AO5" s="71"/>
+      <c r="AP5" s="71"/>
+      <c r="AQ5" s="71"/>
+      <c r="AR5" s="71"/>
     </row>
-    <row r="6" spans="39:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM6" s="67"/>
-      <c r="AN6" s="67"/>
-      <c r="AO6" s="67"/>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="67"/>
+    <row r="6" spans="40:44" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN6" s="71"/>
+      <c r="AO6" s="71"/>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
     </row>
-    <row r="7" spans="39:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM7" s="67"/>
-      <c r="AN7" s="67"/>
-      <c r="AO7" s="67"/>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
+    <row r="7" spans="40:44" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
     </row>
-    <row r="8" spans="39:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM8" s="67"/>
-      <c r="AN8" s="67"/>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="67"/>
-      <c r="AQ8" s="67"/>
+    <row r="8" spans="40:44" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
     </row>
-    <row r="9" spans="39:43" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>0</v>
+    <row r="9" spans="40:44" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="40:44" x14ac:dyDescent="0.25">
+      <c r="AN11" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="12" spans="40:44" x14ac:dyDescent="0.25">
+      <c r="AN12">
         <v>1</v>
       </c>
+      <c r="AO12" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="13" spans="40:44" x14ac:dyDescent="0.25">
+      <c r="AN13">
         <v>2</v>
       </c>
+      <c r="AO13" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>9</v>
+    <row r="14" spans="40:44" x14ac:dyDescent="0.25">
+      <c r="AN14">
+        <v>3</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="15" spans="40:44" x14ac:dyDescent="0.25">
+      <c r="AN15">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="40:41" x14ac:dyDescent="0.25">
+      <c r="AN18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="40:41" x14ac:dyDescent="0.25">
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="40:41" x14ac:dyDescent="0.25">
+      <c r="AN20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="40:41" x14ac:dyDescent="0.25">
+      <c r="AN21">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="22" spans="40:41" x14ac:dyDescent="0.25">
+      <c r="AN22">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="23" spans="40:41" x14ac:dyDescent="0.25">
+      <c r="AN23">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>6</v>
-      </c>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>8</v>
-      </c>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>7</v>
-      </c>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>16</v>
-      </c>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>17</v>
-      </c>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="74"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="75"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="66">
+        <v>1</v>
+      </c>
+      <c r="B56" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="69"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="66">
+        <v>2</v>
+      </c>
+      <c r="B57" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="69"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="66"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="69"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="66"/>
+      <c r="B59" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="77"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="70"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="AM3:AQ8"/>
+  <mergeCells count="5">
+    <mergeCell ref="AN3:AR8"/>
+    <mergeCell ref="B45:J48"/>
+    <mergeCell ref="B50:J53"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="B59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5593,7 +6554,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5602,774 +6563,774 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
+      <c r="A1" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="25">
+      <c r="A3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="24">
         <v>1</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <v>2</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <v>3</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="27">
         <v>4</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="28">
         <v>5</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="29">
         <v>6</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="30">
         <v>7</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="31">
         <v>8</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="32">
         <v>9</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3" s="33">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="45" t="s">
-        <v>48</v>
+      <c r="A4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="83"/>
+      <c r="D4" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="44" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="51">
-        <v>0</v>
-      </c>
-      <c r="E5" s="52">
+      <c r="A5" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="50">
+        <v>0</v>
+      </c>
+      <c r="E5" s="51">
         <v>45</v>
       </c>
-      <c r="F5" s="53">
-        <v>0</v>
-      </c>
-      <c r="G5" s="54">
-        <v>30</v>
-      </c>
-      <c r="H5" s="55">
+      <c r="F5" s="52">
+        <v>0</v>
+      </c>
+      <c r="G5" s="53">
+        <v>0</v>
+      </c>
+      <c r="H5" s="54">
         <v>90</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="55">
         <v>-45</v>
       </c>
-      <c r="J5" s="57">
-        <v>0</v>
-      </c>
-      <c r="K5" s="58">
-        <v>0</v>
-      </c>
-      <c r="L5" s="59">
-        <v>0</v>
-      </c>
-      <c r="M5" s="60">
+      <c r="J5" s="56">
+        <v>0</v>
+      </c>
+      <c r="K5" s="57">
+        <v>0</v>
+      </c>
+      <c r="L5" s="58">
+        <v>0</v>
+      </c>
+      <c r="M5" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="A6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,2,0)</f>
         <v>57450</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,2,0)</f>
         <v>57450</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,2,0)</f>
         <v>57450</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>57450</v>
-      </c>
-      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,2,0)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,2,0)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,2,0)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,2,0)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6" s="45">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,2,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,3,0)</f>
         <v>57450</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,3,0)</f>
         <v>57450</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,3,0)</f>
         <v>57450</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>57450</v>
-      </c>
-      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,3,0)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,3,0)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,3,0)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,3,0)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,3,0)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="46">
+      <c r="M7" s="45">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,3,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="A8" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,4,0)</f>
         <v>2630</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,4,0)</f>
         <v>2630</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,4,0)</f>
         <v>2630</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,4,0)</f>
-        <v>2630</v>
-      </c>
-      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,4,0)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,4,0)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,4,0)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,4,0)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8" s="45">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,4,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="A9" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,5,0)</f>
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,5,0)</f>
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,5,0)</f>
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,5,0)</f>
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,5,0)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,5,0)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,5,0)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,5,0)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="45">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,5,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="A10" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,6,0)</f>
         <v>700</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,6,0)</f>
         <v>700</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,6,0)</f>
         <v>700</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,6,0)</f>
-        <v>700</v>
-      </c>
-      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,6,0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,6,0)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,6,0)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,6,0)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,6,0)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="45">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,6,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="A11" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,7,0)</f>
         <v>350</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,7,0)</f>
         <v>350</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,7,0)</f>
         <v>350</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,7,0)</f>
-        <v>350</v>
-      </c>
-      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,7,0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,7,0)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,7,0)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,7,0)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,7,0)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="46">
+      <c r="M11" s="45">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,7,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="A12" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,8,0)</f>
         <v>700</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,8,0)</f>
         <v>700</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,8,0)</f>
         <v>700</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,8,0)</f>
-        <v>700</v>
-      </c>
-      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,8,0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,8,0)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,8,0)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,8,0)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,8,0)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="45">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,8,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="A13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,9,0)</f>
         <v>350</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,9,0)</f>
         <v>350</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,9,0)</f>
         <v>350</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,9,0)</f>
-        <v>350</v>
-      </c>
-      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,9,0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,9,0)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,9,0)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,9,0)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,9,0)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M13" s="45">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,9,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="A14" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,10,0)</f>
         <v>70</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,10,0)</f>
         <v>70</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,10,0)</f>
         <v>70</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,10,0)</f>
-        <v>70</v>
-      </c>
-      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,10,0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,10,0)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,10,0)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,10,0)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,10,0)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="46">
+      <c r="M14" s="45">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,10,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="A15" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,11,0)</f>
         <v>0.22</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,11,0)</f>
         <v>0.22</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,11,0)</f>
         <v>0.22</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,11,0)</f>
-        <v>0.22</v>
-      </c>
-      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,11,0)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,11,0)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,11,0)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,11,0)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,11,0)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="45">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,11,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="A16" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,12,0)</f>
         <v>1460</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,12,0)</f>
         <v>1460</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,12,0)</f>
         <v>1460</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,12,0)</f>
-        <v>1460</v>
-      </c>
-      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,12,0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,12,0)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,12,0)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,12,0)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,12,0)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16" s="45">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,12,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="49">
+      <c r="A17" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="48">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,13,0)</f>
         <v>321.2</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="48">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,13,0)</f>
         <v>321.2</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="48">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,13,0)</f>
         <v>321.2</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="48">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>321.2</v>
-      </c>
-      <c r="H17" s="49">
+        <v>0</v>
+      </c>
+      <c r="H17" s="48">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,13,0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="48">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,13,0)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="49">
+      <c r="J17" s="48">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,13,0)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="49">
+      <c r="K17" s="48">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,13,0)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="49">
+      <c r="L17" s="48">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,13,0)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="50">
+      <c r="M17" s="49">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,13,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1">
         <f>SUM(D17:M17)</f>
-        <v>1284.8</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>35</v>
+        <v>963.59999999999991</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="2">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1">
         <f>SUM(D15:M15)</f>
-        <v>0.88</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>33</v>
+        <v>0.66</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -6404,7 +7365,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6415,1161 +7376,1161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="A1" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:14" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>52</v>
+      <c r="A4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="A5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
         <v>57450</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>57450</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>20010000</v>
       </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9">
+      <c r="H5" s="8">
+        <v>47200</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="65">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="D6" s="64">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
         <v>57450</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>57450</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>1301000</v>
       </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
-        <v>0</v>
-      </c>
-      <c r="N6" s="11">
+      <c r="H6" s="10">
+        <v>17322</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="65">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="A7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="64">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
         <v>2630</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>2630</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>1001000</v>
       </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0</v>
-      </c>
-      <c r="M7" s="11">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11">
+      <c r="H7" s="10">
+        <v>4699</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="65">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="A8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="64">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>0.3</v>
       </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
-        <v>0</v>
-      </c>
-      <c r="N8" s="11">
+      <c r="H8" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="65">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="A9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="64">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
         <v>700</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>700</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>14</v>
       </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
+      <c r="H9" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="65">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="A10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="64">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
         <v>350</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>350</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>15</v>
       </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11">
-        <v>0</v>
-      </c>
-      <c r="M10" s="11">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11">
+      <c r="H10" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="65">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
+      <c r="A11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="64">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
         <v>700</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>700</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>16</v>
       </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
+      <c r="H11" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="65">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16">
+      <c r="A12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="64">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
         <v>350</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>350</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>17</v>
       </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0</v>
-      </c>
-      <c r="L12" s="11">
-        <v>0</v>
-      </c>
-      <c r="M12" s="11">
-        <v>0</v>
-      </c>
-      <c r="N12" s="11">
+      <c r="H12" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="65">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
+      <c r="A13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="64">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
         <v>70</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>70</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>18</v>
       </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
+      <c r="H13" s="10">
+        <v>10</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="65">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
+      <c r="A14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="64">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
         <v>0.22</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>0.5</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11">
-        <v>0</v>
-      </c>
-      <c r="L14" s="11">
-        <v>0</v>
-      </c>
-      <c r="M14" s="11">
-        <v>0</v>
-      </c>
-      <c r="N14" s="11">
+      <c r="H14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="65">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
+      <c r="A15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="64">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
         <v>1460</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>1460</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>20</v>
       </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0</v>
-      </c>
-      <c r="L15" s="11">
-        <v>0</v>
-      </c>
-      <c r="M15" s="11">
-        <v>0</v>
-      </c>
-      <c r="N15" s="11">
+      <c r="H15" s="10">
+        <v>10</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="65">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
+      <c r="A16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="64">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
         <v>321.2</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <v>321.2</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>21</v>
       </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11">
-        <v>0</v>
-      </c>
-      <c r="L16" s="11">
-        <v>0</v>
-      </c>
-      <c r="M16" s="11">
-        <v>0</v>
-      </c>
-      <c r="N16" s="11">
+      <c r="H16" s="10">
+        <v>10</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:14" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
+      <c r="A21" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:14" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="M24" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="N24" s="21" t="s">
-        <v>52</v>
+      <c r="A24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="15">
-        <v>0</v>
-      </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0</v>
-      </c>
-      <c r="M25" s="9">
-        <v>0</v>
-      </c>
-      <c r="N25" s="9">
+      <c r="A25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0</v>
+      </c>
+      <c r="N25" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="65">
-        <v>0</v>
-      </c>
-      <c r="E26" s="16">
-        <v>0</v>
-      </c>
-      <c r="F26" s="16">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0</v>
-      </c>
-      <c r="H26" s="11">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0</v>
-      </c>
-      <c r="J26" s="11">
-        <v>0</v>
-      </c>
-      <c r="K26" s="11">
-        <v>0</v>
-      </c>
-      <c r="L26" s="11">
-        <v>0</v>
-      </c>
-      <c r="M26" s="11">
-        <v>0</v>
-      </c>
-      <c r="N26" s="11">
+      <c r="D26" s="64">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0</v>
+      </c>
+      <c r="K26" s="10">
+        <v>0</v>
+      </c>
+      <c r="L26" s="10">
+        <v>0</v>
+      </c>
+      <c r="M26" s="10">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="65">
-        <v>0</v>
-      </c>
-      <c r="E27" s="16">
-        <v>0</v>
-      </c>
-      <c r="F27" s="16">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
-        <v>0</v>
-      </c>
-      <c r="J27" s="11">
-        <v>0</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0</v>
-      </c>
-      <c r="L27" s="11">
-        <v>0</v>
-      </c>
-      <c r="M27" s="11">
-        <v>0</v>
-      </c>
-      <c r="N27" s="11">
+      <c r="A27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="64">
+        <v>0</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
+        <v>0</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0</v>
+      </c>
+      <c r="L27" s="10">
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="65">
-        <v>0</v>
-      </c>
-      <c r="E28" s="16">
-        <v>0</v>
-      </c>
-      <c r="F28" s="16">
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
-        <v>0</v>
-      </c>
-      <c r="H28" s="11">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
-        <v>0</v>
-      </c>
-      <c r="J28" s="11">
-        <v>0</v>
-      </c>
-      <c r="K28" s="11">
-        <v>0</v>
-      </c>
-      <c r="L28" s="11">
-        <v>0</v>
-      </c>
-      <c r="M28" s="11">
-        <v>0</v>
-      </c>
-      <c r="N28" s="11">
+      <c r="A28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="64">
+        <v>0</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0</v>
+      </c>
+      <c r="L28" s="10">
+        <v>0</v>
+      </c>
+      <c r="M28" s="10">
+        <v>0</v>
+      </c>
+      <c r="N28" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="65">
-        <v>0</v>
-      </c>
-      <c r="E29" s="16">
-        <v>0</v>
-      </c>
-      <c r="F29" s="16">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11">
-        <v>0</v>
-      </c>
-      <c r="M29" s="11">
-        <v>0</v>
-      </c>
-      <c r="N29" s="11">
+      <c r="A29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="64">
+        <v>0</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10">
+        <v>0</v>
+      </c>
+      <c r="K29" s="10">
+        <v>0</v>
+      </c>
+      <c r="L29" s="10">
+        <v>0</v>
+      </c>
+      <c r="M29" s="10">
+        <v>0</v>
+      </c>
+      <c r="N29" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="65">
-        <v>0</v>
-      </c>
-      <c r="E30" s="16">
-        <v>0</v>
-      </c>
-      <c r="F30" s="16">
-        <v>0</v>
-      </c>
-      <c r="G30" s="9">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0</v>
-      </c>
-      <c r="J30" s="11">
-        <v>0</v>
-      </c>
-      <c r="K30" s="11">
-        <v>0</v>
-      </c>
-      <c r="L30" s="11">
-        <v>0</v>
-      </c>
-      <c r="M30" s="11">
-        <v>0</v>
-      </c>
-      <c r="N30" s="11">
+      <c r="A30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="64">
+        <v>0</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10">
+        <v>0</v>
+      </c>
+      <c r="K30" s="10">
+        <v>0</v>
+      </c>
+      <c r="L30" s="10">
+        <v>0</v>
+      </c>
+      <c r="M30" s="10">
+        <v>0</v>
+      </c>
+      <c r="N30" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="65">
-        <v>0</v>
-      </c>
-      <c r="E31" s="16">
-        <v>0</v>
-      </c>
-      <c r="F31" s="16">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9">
-        <v>0</v>
-      </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11">
-        <v>0</v>
-      </c>
-      <c r="J31" s="11">
-        <v>0</v>
-      </c>
-      <c r="K31" s="11">
-        <v>0</v>
-      </c>
-      <c r="L31" s="11">
-        <v>0</v>
-      </c>
-      <c r="M31" s="11">
-        <v>0</v>
-      </c>
-      <c r="N31" s="11">
+      <c r="A31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="64">
+        <v>0</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10">
+        <v>0</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0</v>
+      </c>
+      <c r="M31" s="10">
+        <v>0</v>
+      </c>
+      <c r="N31" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="65">
-        <v>0</v>
-      </c>
-      <c r="E32" s="16">
-        <v>0</v>
-      </c>
-      <c r="F32" s="16">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0</v>
-      </c>
-      <c r="H32" s="11">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11">
-        <v>0</v>
-      </c>
-      <c r="J32" s="11">
-        <v>0</v>
-      </c>
-      <c r="K32" s="11">
-        <v>0</v>
-      </c>
-      <c r="L32" s="11">
-        <v>0</v>
-      </c>
-      <c r="M32" s="11">
-        <v>0</v>
-      </c>
-      <c r="N32" s="11">
+      <c r="A32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="64">
+        <v>0</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10">
+        <v>0</v>
+      </c>
+      <c r="K32" s="10">
+        <v>0</v>
+      </c>
+      <c r="L32" s="10">
+        <v>0</v>
+      </c>
+      <c r="M32" s="10">
+        <v>0</v>
+      </c>
+      <c r="N32" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="65">
-        <v>0</v>
-      </c>
-      <c r="E33" s="16">
-        <v>0</v>
-      </c>
-      <c r="F33" s="16">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="11">
-        <v>0</v>
-      </c>
-      <c r="I33" s="11">
-        <v>0</v>
-      </c>
-      <c r="J33" s="11">
-        <v>0</v>
-      </c>
-      <c r="K33" s="11">
-        <v>0</v>
-      </c>
-      <c r="L33" s="11">
-        <v>0</v>
-      </c>
-      <c r="M33" s="11">
-        <v>0</v>
-      </c>
-      <c r="N33" s="11">
+      <c r="A33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="64">
+        <v>0</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10">
+        <v>0</v>
+      </c>
+      <c r="K33" s="10">
+        <v>0</v>
+      </c>
+      <c r="L33" s="10">
+        <v>0</v>
+      </c>
+      <c r="M33" s="10">
+        <v>0</v>
+      </c>
+      <c r="N33" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="65">
-        <v>0</v>
-      </c>
-      <c r="E34" s="16">
-        <v>0</v>
-      </c>
-      <c r="F34" s="16">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9">
-        <v>0</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-      <c r="J34" s="11">
-        <v>0</v>
-      </c>
-      <c r="K34" s="11">
-        <v>0</v>
-      </c>
-      <c r="L34" s="11">
-        <v>0</v>
-      </c>
-      <c r="M34" s="11">
-        <v>0</v>
-      </c>
-      <c r="N34" s="11">
+      <c r="A34" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="64">
+        <v>0</v>
+      </c>
+      <c r="E34" s="15">
+        <v>0</v>
+      </c>
+      <c r="F34" s="15">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10">
+        <v>0</v>
+      </c>
+      <c r="K34" s="10">
+        <v>0</v>
+      </c>
+      <c r="L34" s="10">
+        <v>0</v>
+      </c>
+      <c r="M34" s="10">
+        <v>0</v>
+      </c>
+      <c r="N34" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="65">
-        <v>0</v>
-      </c>
-      <c r="E35" s="16">
-        <v>0</v>
-      </c>
-      <c r="F35" s="16">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
-        <v>0</v>
-      </c>
-      <c r="J35" s="11">
-        <v>0</v>
-      </c>
-      <c r="K35" s="11">
-        <v>0</v>
-      </c>
-      <c r="L35" s="11">
-        <v>0</v>
-      </c>
-      <c r="M35" s="11">
-        <v>0</v>
-      </c>
-      <c r="N35" s="11">
+      <c r="A35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="64">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0</v>
+      </c>
+      <c r="J35" s="10">
+        <v>0</v>
+      </c>
+      <c r="K35" s="10">
+        <v>0</v>
+      </c>
+      <c r="L35" s="10">
+        <v>0</v>
+      </c>
+      <c r="M35" s="10">
+        <v>0</v>
+      </c>
+      <c r="N35" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="65">
-        <v>0</v>
-      </c>
-      <c r="E36" s="16">
-        <v>0</v>
-      </c>
-      <c r="F36" s="16">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9">
-        <v>0</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-      <c r="N36" s="11">
+      <c r="A36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="64">
+        <v>0</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10">
+        <v>0</v>
+      </c>
+      <c r="M36" s="10">
+        <v>0</v>
+      </c>
+      <c r="N36" s="10">
         <v>0</v>
       </c>
     </row>

--- a/laminate_calc_theory_material_data.xlsx
+++ b/laminate_calc_theory_material_data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Krzikalla\Desktop\Monocoque\CLT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3315BD20-7E98-44B7-8E9F-94A26767ECA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03652BD-F26A-43F6-BD29-ABA489C9A0AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Introduction,_Theory" sheetId="1" r:id="rId1"/>
+    <sheet name="Introduction,Theory,Workflow" sheetId="1" r:id="rId1"/>
     <sheet name="Stacking_sequence" sheetId="2" r:id="rId2"/>
     <sheet name="Material_Database" sheetId="3" r:id="rId3"/>
+    <sheet name="Baseline_tubes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="104">
   <si>
     <t>E1</t>
   </si>
@@ -272,9 +273,6 @@
     <t>Laminate plane weight</t>
   </si>
   <si>
-    <t>Total thickness</t>
-  </si>
-  <si>
     <t>C200</t>
   </si>
   <si>
@@ -333,22 +331,10 @@
     <t>test</t>
   </si>
   <si>
-    <t>Database of material parametres, cloth</t>
-  </si>
-  <si>
-    <t>Database of material parametres, core</t>
-  </si>
-  <si>
-    <t>Sandwich theory</t>
-  </si>
-  <si>
     <t>Material coordinate system corresponds to orientation of material fibres, numerical indexes (Eps_12, ...)</t>
   </si>
   <si>
     <t>General coordinate system corresponds to orientation of whole laminate plate, letter indexes (Eps_xy,...)</t>
-  </si>
-  <si>
-    <t>Workflow:</t>
   </si>
   <si>
     <t>References:</t>
@@ -363,26 +349,229 @@
     <t>information from 2 were confirmed from 1 and/or another international sources not listed here</t>
   </si>
   <si>
-    <t xml:space="preserve">Fsae, Fsg rules </t>
+    <t>com</t>
   </si>
   <si>
-    <t>relevant theory</t>
+    <t>Panel core</t>
   </si>
   <si>
-    <t>calculation</t>
+    <t>Database of material parametres, cloths</t>
   </si>
   <si>
-    <t>panels' design</t>
+    <t>Database of material parametres, cores</t>
   </si>
   <si>
-    <t>com</t>
+    <t>Honeycombs</t>
+  </si>
+  <si>
+    <t>Foams</t>
+  </si>
+  <si>
+    <t>Carbon fibres</t>
+  </si>
+  <si>
+    <t>Young's Modulus</t>
+  </si>
+  <si>
+    <t>Tensile Strength</t>
+  </si>
+  <si>
+    <t>pvc foam</t>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ult</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>τ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ult</t>
+    </r>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Total laminate thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill in </t>
+  </si>
+  <si>
+    <t>cells only</t>
+  </si>
+  <si>
+    <t>Shear Modulus L</t>
+  </si>
+  <si>
+    <t>Shear Modulus W</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>Shear Strength L</t>
+  </si>
+  <si>
+    <r>
+      <t>τ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>L</t>
+    </r>
+  </si>
+  <si>
+    <t>Shear Strength W</t>
+  </si>
+  <si>
+    <r>
+      <t>τ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>W</t>
+    </r>
+  </si>
+  <si>
+    <t>settings for far:</t>
+  </si>
+  <si>
+    <t>G chosen the minimal</t>
+  </si>
+  <si>
+    <t>Shear strength chosen the minimal</t>
+  </si>
+  <si>
+    <t>Compressive Strength</t>
+  </si>
+  <si>
+    <t>What structure is the panel for?</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>wt</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>Baseline tubing</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Outer diameter</t>
+  </si>
+  <si>
+    <t>NO. tubes</t>
+  </si>
+  <si>
+    <t>Wall thickness</t>
+  </si>
+  <si>
+    <t>FHB</t>
+  </si>
+  <si>
+    <t>FBSS</t>
+  </si>
+  <si>
+    <t>SIS ver</t>
+  </si>
+  <si>
+    <t>SIS hor</t>
+  </si>
+  <si>
+    <t>SHBE</t>
+  </si>
+  <si>
+    <t>Front Bulkhead</t>
+  </si>
+  <si>
+    <t>Front Bulkhead Bracing</t>
+  </si>
+  <si>
+    <t>Front Bulkhead Side Suport</t>
+  </si>
+  <si>
+    <t>Side Impart Structure - vertical</t>
+  </si>
+  <si>
+    <t>Side Impart Structure - horizontal</t>
+  </si>
+  <si>
+    <t>Shouldder Harness Bracing</t>
+  </si>
+  <si>
+    <t>eca 3.2-48</t>
+  </si>
+  <si>
+    <t>Sandwich design workflow&gt;</t>
+  </si>
+  <si>
+    <t>ecm 6.4-82</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,14 +666,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="26"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -498,8 +679,47 @@
       <family val="3"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,8 +807,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="96">
     <border>
       <left/>
       <right/>
@@ -674,19 +899,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -733,64 +945,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -992,22 +1146,895 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1020,195 +2047,188 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="28" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1226,19 +2246,261 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="39" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="39" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="39" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="47" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="48" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="49" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="50" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="51" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="52" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="49" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="53" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="48" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="71" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="53" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="61" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="81" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="82" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="83" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="83" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="82" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="40" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="91" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="92" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="91" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="92" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="95" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Celkem" xfId="3" builtinId="25"/>
     <cellStyle name="Kontrolní buňka" xfId="1" builtinId="23"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
     <cellStyle name="Poznámka" xfId="2" builtinId="10"/>
     <cellStyle name="Špatně" xfId="4" builtinId="27"/>
+    <cellStyle name="Výstup" xfId="5" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1273,7 +2535,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>40903</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>113495</xdr:rowOff>
+      <xdr:rowOff>127623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1444,8 +2706,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9537122" y="24645505"/>
-          <a:ext cx="13592175" cy="10591800"/>
+          <a:off x="9679997" y="24655030"/>
+          <a:ext cx="13792200" cy="10591800"/>
           <a:chOff x="32368671" y="12676414"/>
           <a:chExt cx="13778593" cy="10591800"/>
         </a:xfrm>
@@ -2840,8 +4102,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3354781" y="28772675"/>
-          <a:ext cx="3987635" cy="4027714"/>
+          <a:off x="3402406" y="28782200"/>
+          <a:ext cx="4054310" cy="4027714"/>
           <a:chOff x="7320643" y="28370893"/>
           <a:chExt cx="4000500" cy="4027714"/>
         </a:xfrm>
@@ -3215,8 +4477,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2567421" y="33178173"/>
-          <a:ext cx="6657976" cy="9124950"/>
+          <a:off x="2605521" y="33187698"/>
+          <a:ext cx="6762751" cy="9124950"/>
           <a:chOff x="7267575" y="32556450"/>
           <a:chExt cx="6657976" cy="9124950"/>
         </a:xfrm>
@@ -3517,8 +4779,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6774872" y="0"/>
-          <a:ext cx="6794612" cy="2575214"/>
+          <a:off x="6879647" y="0"/>
+          <a:ext cx="6899387" cy="2584739"/>
           <a:chOff x="6130636" y="0"/>
           <a:chExt cx="6756512" cy="2580409"/>
         </a:xfrm>
@@ -3716,8 +4978,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6800850" y="2583655"/>
-          <a:ext cx="6637563" cy="14769935"/>
+          <a:off x="6905625" y="2593180"/>
+          <a:ext cx="6742338" cy="14769935"/>
           <a:chOff x="6232071" y="2619994"/>
           <a:chExt cx="6667499" cy="14797149"/>
         </a:xfrm>
@@ -4291,8 +5553,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13628914" y="13606"/>
-          <a:ext cx="6878411" cy="7753350"/>
+          <a:off x="13838464" y="13606"/>
+          <a:ext cx="6973661" cy="7762875"/>
           <a:chOff x="13076464" y="13606"/>
           <a:chExt cx="6912429" cy="7728857"/>
         </a:xfrm>
@@ -4687,8 +5949,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13724165" y="7807779"/>
-          <a:ext cx="9452881" cy="9946821"/>
+          <a:off x="13933715" y="7817304"/>
+          <a:ext cx="9586231" cy="9946821"/>
           <a:chOff x="13035644" y="7810501"/>
           <a:chExt cx="9497785" cy="9974035"/>
         </a:xfrm>
@@ -4999,8 +6261,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2621479" y="17543072"/>
-          <a:ext cx="6596742" cy="10844892"/>
+          <a:off x="2659579" y="17552597"/>
+          <a:ext cx="6701517" cy="10844892"/>
           <a:chOff x="6340929" y="17389929"/>
           <a:chExt cx="6626678" cy="10844892"/>
         </a:xfrm>
@@ -5257,8 +6519,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12088956" y="17874096"/>
-          <a:ext cx="8588755" cy="6771409"/>
+          <a:off x="12269931" y="17883621"/>
+          <a:ext cx="8712580" cy="6771409"/>
           <a:chOff x="12136581" y="17797896"/>
           <a:chExt cx="8588755" cy="6771409"/>
         </a:xfrm>
@@ -5673,6 +6935,451 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>612912</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>223631</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="TextovéPole 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB32C6CE-D048-4CA5-AC5D-CDAC4307E0FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21551347" y="646043"/>
+          <a:ext cx="7578588" cy="3180522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0) Determine testing device and test baseline tubes to get RC</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1) Input material data into Excel database</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2) Select laminate plies stacking</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, get lamina plane weight</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3) Run laminate calculator to get lamina stiffness (E)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4) Iterate 2) and 3) for lamina of second panel face</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5) You have E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, plane weight</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> and thicknesses of both panel faces --&gt; insert them into panel_stiffness_calculator.m</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>insert also estimated real vehicle panel width</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200"/>
+            <a:t>bf and estimated panel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+            <a:t> length af</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- insert also RC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6) In excel, tab Stacking sequence select core material, core thickness and the structure the panel is for </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7) Save excel file</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8) run panel_stiffness_calculator.m</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9) You get: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Stiffness comparison to baseline rules as precsibed in rules</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Total panel thickness</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> mass</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>es</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> of panel </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1200"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5688,7 +7395,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>593885</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>119582</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5704,8 +7411,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14317976" y="138367"/>
-          <a:ext cx="5068734" cy="4648465"/>
+          <a:off x="14356076" y="138367"/>
+          <a:ext cx="5068734" cy="4276990"/>
           <a:chOff x="6626087" y="4265543"/>
           <a:chExt cx="5095238" cy="4634092"/>
         </a:xfrm>
@@ -5791,7 +7498,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>367194</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>55849</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5807,8 +7514,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10060520" y="238126"/>
-          <a:ext cx="4222699" cy="4484973"/>
+          <a:off x="10098620" y="238126"/>
+          <a:ext cx="4222699" cy="4113498"/>
           <a:chOff x="10003930" y="238126"/>
           <a:chExt cx="4191323" cy="4479370"/>
         </a:xfrm>
@@ -5955,6 +7662,60 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>313871</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>94938</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obrázek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5176FC-0347-41A5-B609-5218170B11D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14639925" y="2276475"/>
+          <a:ext cx="3628571" cy="2495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6226,319 +7987,223 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:AR60"/>
+  <dimension ref="A2:AS60"/>
   <sheetViews>
-    <sheetView topLeftCell="J92" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="204075" topLeftCell="AM1"/>
-      <selection activeCell="AJ113" sqref="AJ113"/>
-      <selection pane="topRight" activeCell="AM97" sqref="AM97"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BA26" sqref="BA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="30" max="30" width="10.7109375" customWidth="1"/>
-    <col min="39" max="39" width="9.140625" style="65"/>
   </cols>
   <sheetData>
-    <row r="2" spans="40:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="40:44" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AN3" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="71"/>
-      <c r="AR3" s="71"/>
+    <row r="2" spans="36:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="36:45" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ3" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK3" s="161"/>
+      <c r="AL3" s="161"/>
+      <c r="AM3" s="161"/>
+      <c r="AN3" s="161"/>
+      <c r="AO3" s="161"/>
+      <c r="AP3" s="161"/>
+      <c r="AQ3" s="161"/>
+      <c r="AR3" s="161"/>
+      <c r="AS3" s="162"/>
     </row>
-    <row r="4" spans="40:44" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="71"/>
-      <c r="AQ4" s="71"/>
-      <c r="AR4" s="71"/>
-    </row>
-    <row r="5" spans="40:44" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AN5" s="71"/>
-      <c r="AO5" s="71"/>
-      <c r="AP5" s="71"/>
-      <c r="AQ5" s="71"/>
-      <c r="AR5" s="71"/>
-    </row>
-    <row r="6" spans="40:44" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="71"/>
-      <c r="AP6" s="71"/>
-      <c r="AQ6" s="71"/>
-      <c r="AR6" s="71"/>
-    </row>
-    <row r="7" spans="40:44" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71"/>
-    </row>
-    <row r="8" spans="40:44" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AN8" s="71"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="71"/>
-      <c r="AQ8" s="71"/>
-      <c r="AR8" s="71"/>
-    </row>
-    <row r="9" spans="40:44" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="40:44" x14ac:dyDescent="0.25">
-      <c r="AN11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="40:44" x14ac:dyDescent="0.25">
-      <c r="AN12">
-        <v>1</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="40:44" x14ac:dyDescent="0.25">
-      <c r="AN13">
-        <v>2</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="40:44" x14ac:dyDescent="0.25">
-      <c r="AN14">
-        <v>3</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="40:44" x14ac:dyDescent="0.25">
-      <c r="AN15">
-        <v>4</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="40:41" x14ac:dyDescent="0.25">
-      <c r="AN18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="40:41" x14ac:dyDescent="0.25">
-      <c r="AN19">
-        <v>1</v>
-      </c>
-      <c r="AO19" s="68" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="40:41" x14ac:dyDescent="0.25">
-      <c r="AN20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="40:41" x14ac:dyDescent="0.25">
-      <c r="AN21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="40:41" x14ac:dyDescent="0.25">
-      <c r="AN22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="40:41" x14ac:dyDescent="0.25">
-      <c r="AN23">
-        <v>5</v>
-      </c>
+    <row r="4" spans="36:45" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="36:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="36:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="36:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="36:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="41:41" x14ac:dyDescent="0.25">
+      <c r="AO19" s="59"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
+      <c r="B45" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
+      <c r="B50" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="74"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="74"/>
-      <c r="I55" s="74"/>
-      <c r="J55" s="75"/>
+      <c r="A55" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="72"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="66">
+      <c r="A56" s="57">
         <v>1</v>
       </c>
-      <c r="B56" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="69"/>
+      <c r="B56" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="60"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="66">
+      <c r="A57" s="57">
         <v>2</v>
       </c>
-      <c r="B57" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="69"/>
+      <c r="B57" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="60"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="66"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="69"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="60"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="66"/>
-      <c r="B59" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="77"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="73"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="74"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="79"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="AN3:AR8"/>
     <mergeCell ref="B45:J48"/>
     <mergeCell ref="B50:J53"/>
     <mergeCell ref="A55:J55"/>
     <mergeCell ref="B59:J60"/>
+    <mergeCell ref="AJ3:AS3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6551,805 +8216,1013 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="24">
+      <c r="B3" s="15"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="16">
         <v>1</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="17">
         <v>2</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="18">
         <v>3</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="19">
         <v>4</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="20">
         <v>5</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="21">
         <v>6</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="22">
         <v>7</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="23">
         <v>8</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="24">
         <v>9</v>
       </c>
-      <c r="M3" s="33">
+      <c r="M3" s="25">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="35" t="s">
+      <c r="B4" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="80"/>
+      <c r="D4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="H4" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="J4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="44" t="s">
-        <v>36</v>
+      <c r="K4" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="47" t="s">
+      <c r="A5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="50">
-        <v>0</v>
-      </c>
-      <c r="E5" s="51">
+      <c r="C5" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="42">
+        <v>0</v>
+      </c>
+      <c r="E5" s="43">
         <v>45</v>
       </c>
-      <c r="F5" s="52">
-        <v>0</v>
-      </c>
-      <c r="G5" s="53">
-        <v>0</v>
-      </c>
-      <c r="H5" s="54">
+      <c r="F5" s="44">
+        <v>0</v>
+      </c>
+      <c r="G5" s="45">
+        <v>0</v>
+      </c>
+      <c r="H5" s="46">
         <v>90</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="47">
         <v>-45</v>
       </c>
-      <c r="J5" s="56">
-        <v>0</v>
-      </c>
-      <c r="K5" s="57">
-        <v>0</v>
-      </c>
-      <c r="L5" s="58">
-        <v>0</v>
-      </c>
-      <c r="M5" s="59">
+      <c r="J5" s="48">
+        <v>0</v>
+      </c>
+      <c r="K5" s="49">
+        <v>0</v>
+      </c>
+      <c r="L5" s="50">
+        <v>0</v>
+      </c>
+      <c r="M5" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="61" t="s">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,2,0)</f>
         <v>57450</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,2,0)</f>
         <v>57450</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,2,0)</f>
         <v>57450</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,2,0)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,2,0)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,2,0)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,2,0)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="2">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="37">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,2,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,3,0)</f>
         <v>57450</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,3,0)</f>
         <v>57450</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,3,0)</f>
         <v>57450</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,3,0)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,3,0)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,3,0)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,3,0)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="2">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,3,0)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="2">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,3,0)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="37">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,3,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,4,0)</f>
         <v>2630</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,4,0)</f>
         <v>2630</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,4,0)</f>
         <v>2630</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,4,0)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,4,0)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,4,0)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="2">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,4,0)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="2">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,4,0)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="37">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,4,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,5,0)</f>
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,5,0)</f>
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,5,0)</f>
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,5,0)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,5,0)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,5,0)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,5,0)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="2">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="2">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,5,0)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="37">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,5,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,6,0)</f>
         <v>700</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,6,0)</f>
         <v>700</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,6,0)</f>
         <v>700</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,6,0)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,6,0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,6,0)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="2">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,6,0)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="2">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,6,0)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="2">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,6,0)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M10" s="37">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,6,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="61" t="s">
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,7,0)</f>
         <v>350</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,7,0)</f>
         <v>350</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,7,0)</f>
         <v>350</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,7,0)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,7,0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,7,0)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,7,0)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,7,0)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,7,0)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="37">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,7,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,8,0)</f>
         <v>700</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,8,0)</f>
         <v>700</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,8,0)</f>
         <v>700</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,8,0)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,8,0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,8,0)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="2">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,8,0)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="2">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,8,0)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="2">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,8,0)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="45">
+      <c r="M12" s="37">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,8,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="61" t="s">
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,9,0)</f>
         <v>350</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,9,0)</f>
         <v>350</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,9,0)</f>
         <v>350</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,9,0)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,9,0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,9,0)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="2">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,9,0)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="2">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,9,0)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="2">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,9,0)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="45">
+      <c r="M13" s="37">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,9,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,10,0)</f>
         <v>70</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,10,0)</f>
         <v>70</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,10,0)</f>
         <v>70</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,10,0)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,10,0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,10,0)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="2">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,10,0)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,10,0)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="2">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,10,0)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="37">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,10,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,11,0)</f>
         <v>0.22</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,11,0)</f>
         <v>0.22</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,11,0)</f>
         <v>0.22</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,11,0)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,11,0)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="2">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,11,0)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="2">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,11,0)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="2">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,11,0)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="2">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,11,0)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="37">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,11,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,12,0)</f>
         <v>1460</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,12,0)</f>
         <v>1460</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,12,0)</f>
         <v>1460</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,12,0)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,12,0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="2">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,12,0)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="2">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,12,0)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="2">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,12,0)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="2">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,12,0)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="37">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,12,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="40">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,13,0)</f>
         <v>321.2</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="40">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,13,0)</f>
         <v>321.2</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="40">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,13,0)</f>
         <v>321.2</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="40">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,13,0)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="40">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,13,0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="40">
         <f>HLOOKUP(I$4,Material_Database!$D$4:$N$16,13,0)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="40">
         <f>HLOOKUP(J$4,Material_Database!$D$4:$N$16,13,0)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="40">
         <f>HLOOKUP(K$4,Material_Database!$D$4:$N$16,13,0)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="48">
+      <c r="L17" s="40">
         <f>HLOOKUP(L$4,Material_Database!$D$4:$N$16,13,0)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="49">
+      <c r="M17" s="41">
         <f>HLOOKUP(M$4,Material_Database!$D$4:$N$16,13,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="4"/>
-    </row>
-    <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="18" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="1">
+      <c r="B18" s="63">
         <f>SUM(D17:M17)</f>
         <v>963.59999999999991</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="C18" s="64" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="1">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="66">
         <f>SUM(D15:M15)</f>
         <v>0.66</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="C19" s="67" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:13" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="153" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="155"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="166"/>
+      <c r="D23" s="163" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="159"/>
+      <c r="B24" s="167"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="164"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="157" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="158">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="6">
+        <f>HLOOKUP(D$23,Material_Database!$D$22:$X$28,2,0)</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="6">
+        <f>HLOOKUP(D$23,Material_Database!$D$22:$X$28,3,0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="6">
+        <f>HLOOKUP(D$23,Material_Database!$D$22:$X$28,4,0)</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="6">
+        <f>HLOOKUP(D$23,Material_Database!$D$22:$X$28,5,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="6">
+        <f>HLOOKUP(D$23,Material_Database!$D$22:$X$28,6,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="6">
+        <f>HLOOKUP(D$23,Material_Database!$D$22:$X$28,7,0)</f>
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:4" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="144" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="151" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="152"/>
+      <c r="D35" s="147" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="145">
+        <f>HLOOKUP(D$35,Baseline_tubes!$D$4:$J$7,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="145">
+        <f>HLOOKUP(D$35,Baseline_tubes!$D$4:$J$7,3,0)</f>
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="67">
+        <f>HLOOKUP(D$35,Baseline_tubes!$D$4:$J$7,4,0)</f>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Material_Database!$D$4:$N$4</xm:f>
           </x14:formula1>
           <xm:sqref>D4:M4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E65E43E9-D012-4476-A2CD-8438E13297FE}">
+          <x14:formula1>
+            <xm:f>Material_Database!$D$22:$X$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>D23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{743FE029-BCF9-4749-A071-02A02B7858FF}">
+          <x14:formula1>
+            <xm:f>Baseline_tubes!$D$4:$N$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7362,1184 +9235,1666 @@
   <sheetPr>
     <tabColor rgb="FF3399FF"/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" customWidth="1"/>
+    <col min="5" max="24" width="8.7109375" customWidth="1"/>
+    <col min="27" max="27" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
+      <c r="A1" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="H2" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="90"/>
+      <c r="J2" s="91" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="124"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="124"/>
+    </row>
     <row r="4" spans="1:14" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="E4" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>40</v>
+      <c r="G4" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="99" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="120">
         <v>57450</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="101">
         <v>57450</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="101">
         <v>20010000</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="101">
         <v>47200</v>
       </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
+      <c r="I5" s="101">
+        <v>0</v>
+      </c>
+      <c r="J5" s="101">
+        <v>0</v>
+      </c>
+      <c r="K5" s="101">
+        <v>0</v>
+      </c>
+      <c r="L5" s="101">
+        <v>0</v>
+      </c>
+      <c r="M5" s="101">
+        <v>0</v>
+      </c>
+      <c r="N5" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="64">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="D6" s="56">
+        <v>0</v>
+      </c>
+      <c r="E6" s="120">
         <v>57450</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="101">
         <v>57450</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="101">
         <v>1301000</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="101">
         <v>17322</v>
       </c>
-      <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0</v>
-      </c>
-      <c r="M6" s="10">
-        <v>0</v>
-      </c>
-      <c r="N6" s="10">
+      <c r="I6" s="101">
+        <v>0</v>
+      </c>
+      <c r="J6" s="101">
+        <v>0</v>
+      </c>
+      <c r="K6" s="101">
+        <v>0</v>
+      </c>
+      <c r="L6" s="101">
+        <v>0</v>
+      </c>
+      <c r="M6" s="101">
+        <v>0</v>
+      </c>
+      <c r="N6" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="64">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="D7" s="56">
+        <v>0</v>
+      </c>
+      <c r="E7" s="120">
         <v>2630</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="101">
         <v>2630</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="101">
         <v>1001000</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="101">
         <v>4699</v>
       </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-      <c r="N7" s="10">
+      <c r="I7" s="101">
+        <v>0</v>
+      </c>
+      <c r="J7" s="101">
+        <v>0</v>
+      </c>
+      <c r="K7" s="101">
+        <v>0</v>
+      </c>
+      <c r="L7" s="101">
+        <v>0</v>
+      </c>
+      <c r="M7" s="101">
+        <v>0</v>
+      </c>
+      <c r="N7" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="64">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="D8" s="56">
+        <v>0</v>
+      </c>
+      <c r="E8" s="120">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="101">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="101">
         <v>0.3</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="101">
         <v>0.31</v>
       </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0</v>
-      </c>
-      <c r="L8" s="10">
-        <v>0</v>
-      </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
-      <c r="N8" s="10">
+      <c r="I8" s="101">
+        <v>0</v>
+      </c>
+      <c r="J8" s="101">
+        <v>0</v>
+      </c>
+      <c r="K8" s="101">
+        <v>0</v>
+      </c>
+      <c r="L8" s="101">
+        <v>0</v>
+      </c>
+      <c r="M8" s="101">
+        <v>0</v>
+      </c>
+      <c r="N8" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="64">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
+      <c r="D9" s="56">
+        <v>0</v>
+      </c>
+      <c r="E9" s="120">
         <v>700</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="101">
         <v>700</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="101">
         <v>14</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="101">
         <v>1000</v>
       </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0</v>
-      </c>
-      <c r="L9" s="10">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="10">
+      <c r="I9" s="101">
+        <v>0</v>
+      </c>
+      <c r="J9" s="101">
+        <v>0</v>
+      </c>
+      <c r="K9" s="101">
+        <v>0</v>
+      </c>
+      <c r="L9" s="101">
+        <v>0</v>
+      </c>
+      <c r="M9" s="101">
+        <v>0</v>
+      </c>
+      <c r="N9" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="64">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
+      <c r="D10" s="56">
+        <v>0</v>
+      </c>
+      <c r="E10" s="120">
         <v>350</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="101">
         <v>350</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="101">
         <v>15</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="101">
         <v>1000</v>
       </c>
-      <c r="I10" s="10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
+      <c r="I10" s="101">
+        <v>0</v>
+      </c>
+      <c r="J10" s="101">
+        <v>0</v>
+      </c>
+      <c r="K10" s="101">
+        <v>0</v>
+      </c>
+      <c r="L10" s="101">
+        <v>0</v>
+      </c>
+      <c r="M10" s="101">
+        <v>0</v>
+      </c>
+      <c r="N10" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="64">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
+      <c r="D11" s="56">
+        <v>0</v>
+      </c>
+      <c r="E11" s="120">
         <v>700</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="101">
         <v>700</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="101">
         <v>16</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="101">
         <v>1000</v>
       </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10">
-        <v>0</v>
-      </c>
-      <c r="K11" s="10">
-        <v>0</v>
-      </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
-      <c r="N11" s="10">
+      <c r="I11" s="101">
+        <v>0</v>
+      </c>
+      <c r="J11" s="101">
+        <v>0</v>
+      </c>
+      <c r="K11" s="101">
+        <v>0</v>
+      </c>
+      <c r="L11" s="101">
+        <v>0</v>
+      </c>
+      <c r="M11" s="101">
+        <v>0</v>
+      </c>
+      <c r="N11" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="64">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="D12" s="56">
+        <v>0</v>
+      </c>
+      <c r="E12" s="120">
         <v>350</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="101">
         <v>350</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="101">
         <v>17</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="101">
         <v>1000</v>
       </c>
-      <c r="I12" s="10">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0</v>
-      </c>
-      <c r="K12" s="10">
-        <v>0</v>
-      </c>
-      <c r="L12" s="10">
-        <v>0</v>
-      </c>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10">
+      <c r="I12" s="101">
+        <v>0</v>
+      </c>
+      <c r="J12" s="101">
+        <v>0</v>
+      </c>
+      <c r="K12" s="101">
+        <v>0</v>
+      </c>
+      <c r="L12" s="101">
+        <v>0</v>
+      </c>
+      <c r="M12" s="101">
+        <v>0</v>
+      </c>
+      <c r="N12" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="64">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
+      <c r="D13" s="56">
+        <v>0</v>
+      </c>
+      <c r="E13" s="120">
         <v>70</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="101">
         <v>70</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="101">
         <v>18</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="101">
         <v>10</v>
       </c>
-      <c r="I13" s="10">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10">
-        <v>0</v>
-      </c>
-      <c r="K13" s="10">
-        <v>0</v>
-      </c>
-      <c r="L13" s="10">
-        <v>0</v>
-      </c>
-      <c r="M13" s="10">
-        <v>0</v>
-      </c>
-      <c r="N13" s="10">
+      <c r="I13" s="101">
+        <v>0</v>
+      </c>
+      <c r="J13" s="101">
+        <v>0</v>
+      </c>
+      <c r="K13" s="101">
+        <v>0</v>
+      </c>
+      <c r="L13" s="101">
+        <v>0</v>
+      </c>
+      <c r="M13" s="101">
+        <v>0</v>
+      </c>
+      <c r="N13" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="64">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="D14" s="56">
+        <v>0</v>
+      </c>
+      <c r="E14" s="120">
         <v>0.22</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="101">
         <v>0.5</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="101">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="101">
         <v>0.5</v>
       </c>
-      <c r="I14" s="10">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0</v>
-      </c>
-      <c r="K14" s="10">
-        <v>0</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
+      <c r="I14" s="101">
+        <v>0</v>
+      </c>
+      <c r="J14" s="101">
+        <v>0</v>
+      </c>
+      <c r="K14" s="101">
+        <v>0</v>
+      </c>
+      <c r="L14" s="101">
+        <v>0</v>
+      </c>
+      <c r="M14" s="101">
+        <v>0</v>
+      </c>
+      <c r="N14" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="64">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="D15" s="56">
+        <v>0</v>
+      </c>
+      <c r="E15" s="120">
         <v>1460</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="101">
         <v>1460</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="101">
         <v>20</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="101">
         <v>10</v>
       </c>
-      <c r="I15" s="10">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10">
-        <v>0</v>
-      </c>
-      <c r="K15" s="10">
-        <v>0</v>
-      </c>
-      <c r="L15" s="10">
-        <v>0</v>
-      </c>
-      <c r="M15" s="10">
-        <v>0</v>
-      </c>
-      <c r="N15" s="10">
+      <c r="I15" s="101">
+        <v>0</v>
+      </c>
+      <c r="J15" s="101">
+        <v>0</v>
+      </c>
+      <c r="K15" s="101">
+        <v>0</v>
+      </c>
+      <c r="L15" s="101">
+        <v>0</v>
+      </c>
+      <c r="M15" s="101">
+        <v>0</v>
+      </c>
+      <c r="N15" s="102">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="64">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="D16" s="56">
+        <v>0</v>
+      </c>
+      <c r="E16" s="121">
         <v>321.2</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="108">
         <v>321.2</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="108">
         <v>21</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="108">
         <v>10</v>
       </c>
-      <c r="I16" s="10">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10">
-        <v>0</v>
-      </c>
-      <c r="K16" s="10">
-        <v>0</v>
-      </c>
-      <c r="L16" s="10">
-        <v>0</v>
-      </c>
-      <c r="M16" s="10">
-        <v>0</v>
-      </c>
-      <c r="N16" s="10">
+      <c r="I16" s="108">
+        <v>0</v>
+      </c>
+      <c r="J16" s="108">
+        <v>0</v>
+      </c>
+      <c r="K16" s="108">
+        <v>0</v>
+      </c>
+      <c r="L16" s="108">
+        <v>0</v>
+      </c>
+      <c r="M16" s="108">
+        <v>0</v>
+      </c>
+      <c r="N16" s="89">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:14" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:14" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+    <row r="20" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="O20" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="92"/>
+    </row>
+    <row r="22" spans="1:27" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N24" s="20" t="s">
-        <v>40</v>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="131" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="135" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" s="136" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q22" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="W22" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="X22" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y22" s="138"/>
+      <c r="Z22" s="139"/>
+      <c r="AA22" s="140" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>6</v>
+    <row r="23" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="101">
+        <v>212</v>
+      </c>
+      <c r="F23" s="101">
+        <v>0</v>
+      </c>
+      <c r="G23" s="101">
+        <v>0</v>
+      </c>
+      <c r="H23" s="101">
+        <v>0</v>
+      </c>
+      <c r="I23" s="101">
+        <v>0</v>
+      </c>
+      <c r="J23" s="101">
+        <v>0</v>
+      </c>
+      <c r="K23" s="101">
+        <v>0</v>
+      </c>
+      <c r="L23" s="101">
+        <v>0</v>
+      </c>
+      <c r="M23" s="101">
+        <v>0</v>
+      </c>
+      <c r="N23" s="122">
+        <v>0</v>
+      </c>
+      <c r="O23" s="132">
+        <v>1020</v>
+      </c>
+      <c r="P23" s="133">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="133">
+        <v>0</v>
+      </c>
+      <c r="R23" s="133">
+        <v>0</v>
+      </c>
+      <c r="S23" s="133">
+        <v>0</v>
+      </c>
+      <c r="T23" s="133">
+        <v>0</v>
+      </c>
+      <c r="U23" s="133">
+        <v>0</v>
+      </c>
+      <c r="V23" s="133">
+        <v>0</v>
+      </c>
+      <c r="W23" s="133">
+        <v>0</v>
+      </c>
+      <c r="X23" s="134">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="126" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA23" s="141" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="56">
+        <v>0</v>
+      </c>
+      <c r="E24" s="101">
+        <v>100</v>
+      </c>
+      <c r="F24" s="101">
+        <v>0</v>
+      </c>
+      <c r="G24" s="101">
+        <v>0</v>
+      </c>
+      <c r="H24" s="101">
+        <v>0</v>
+      </c>
+      <c r="I24" s="101">
+        <v>0</v>
+      </c>
+      <c r="J24" s="101">
+        <v>0</v>
+      </c>
+      <c r="K24" s="101">
+        <v>0</v>
+      </c>
+      <c r="L24" s="101">
+        <v>0</v>
+      </c>
+      <c r="M24" s="101">
+        <v>0</v>
+      </c>
+      <c r="N24" s="122">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <f>MIN(O29:O30)</f>
+        <v>220</v>
+      </c>
+      <c r="P24" s="2">
+        <f>MIN(P29:P30)</f>
+        <v>25</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>MIN(Q29:Q30)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <f>MIN(R29:R30)</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
+        <f t="shared" ref="P24:X24" si="0">MIN(S29:S30)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA24" s="142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="103" t="s">
+        <v>9</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="56">
+        <v>0</v>
+      </c>
+      <c r="E25" s="101">
+        <v>0.06</v>
+      </c>
+      <c r="F25" s="101">
+        <v>0</v>
+      </c>
+      <c r="G25" s="101">
+        <v>0</v>
+      </c>
+      <c r="H25" s="101">
+        <v>0</v>
+      </c>
+      <c r="I25" s="101">
+        <v>0</v>
+      </c>
+      <c r="J25" s="101">
+        <v>0</v>
+      </c>
+      <c r="K25" s="101">
+        <v>0</v>
+      </c>
+      <c r="L25" s="101">
+        <v>0</v>
+      </c>
+      <c r="M25" s="101">
+        <v>0</v>
+      </c>
+      <c r="N25" s="122">
+        <v>0</v>
+      </c>
+      <c r="O25" s="114">
+        <v>0</v>
+      </c>
+      <c r="P25" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="101">
+        <v>0</v>
+      </c>
+      <c r="R25" s="101">
+        <v>0</v>
+      </c>
+      <c r="S25" s="101">
+        <v>0</v>
+      </c>
+      <c r="T25" s="101">
+        <v>0</v>
+      </c>
+      <c r="U25" s="101">
+        <v>0</v>
+      </c>
+      <c r="V25" s="101">
+        <v>0</v>
+      </c>
+      <c r="W25" s="101">
+        <v>0</v>
+      </c>
+      <c r="X25" s="102">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA25" s="142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="14">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0</v>
-      </c>
-      <c r="K25" s="8">
-        <v>0</v>
-      </c>
-      <c r="L25" s="8">
-        <v>0</v>
-      </c>
-      <c r="M25" s="8">
-        <v>0</v>
-      </c>
-      <c r="N25" s="8">
-        <v>0</v>
+      <c r="D26" s="56">
+        <v>0</v>
+      </c>
+      <c r="E26" s="101">
+        <v>4</v>
+      </c>
+      <c r="F26" s="101">
+        <v>0</v>
+      </c>
+      <c r="G26" s="101">
+        <v>0</v>
+      </c>
+      <c r="H26" s="101">
+        <v>0</v>
+      </c>
+      <c r="I26" s="101">
+        <v>0</v>
+      </c>
+      <c r="J26" s="101">
+        <v>0</v>
+      </c>
+      <c r="K26" s="101">
+        <v>0</v>
+      </c>
+      <c r="L26" s="101">
+        <v>0</v>
+      </c>
+      <c r="M26" s="101">
+        <v>0</v>
+      </c>
+      <c r="N26" s="122">
+        <v>0</v>
+      </c>
+      <c r="O26" s="114">
+        <v>4.5</v>
+      </c>
+      <c r="P26" s="101">
+        <v>1.8</v>
+      </c>
+      <c r="Q26" s="101">
+        <v>0</v>
+      </c>
+      <c r="R26" s="101">
+        <v>0</v>
+      </c>
+      <c r="S26" s="101">
+        <v>0</v>
+      </c>
+      <c r="T26" s="101">
+        <v>0</v>
+      </c>
+      <c r="U26" s="101">
+        <v>0</v>
+      </c>
+      <c r="V26" s="101">
+        <v>0</v>
+      </c>
+      <c r="W26" s="101">
+        <v>0</v>
+      </c>
+      <c r="X26" s="102">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA26" s="142" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="17" t="s">
+    <row r="27" spans="1:27" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="64">
-        <v>0</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0</v>
-      </c>
-      <c r="F26" s="15">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
-        <v>0</v>
-      </c>
-      <c r="I26" s="10">
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
-        <v>0</v>
-      </c>
-      <c r="K26" s="10">
-        <v>0</v>
-      </c>
-      <c r="L26" s="10">
-        <v>0</v>
-      </c>
-      <c r="M26" s="10">
-        <v>0</v>
-      </c>
-      <c r="N26" s="10">
-        <v>0</v>
+      <c r="D27" s="56">
+        <v>0</v>
+      </c>
+      <c r="E27" s="101">
+        <v>2</v>
+      </c>
+      <c r="F27" s="101">
+        <v>0</v>
+      </c>
+      <c r="G27" s="101">
+        <v>0</v>
+      </c>
+      <c r="H27" s="101">
+        <v>0</v>
+      </c>
+      <c r="I27" s="101">
+        <v>0</v>
+      </c>
+      <c r="J27" s="101">
+        <v>0</v>
+      </c>
+      <c r="K27" s="101">
+        <v>0</v>
+      </c>
+      <c r="L27" s="101">
+        <v>0</v>
+      </c>
+      <c r="M27" s="101">
+        <v>0</v>
+      </c>
+      <c r="N27" s="122">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <f>MIN(O31:O32)</f>
+        <v>0.8</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" ref="P27:X27" si="1">MIN(P31:P32)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA27" s="142" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="17" t="s">
+    <row r="28" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="107">
+        <v>0</v>
+      </c>
+      <c r="E28" s="108">
+        <v>1560</v>
+      </c>
+      <c r="F28" s="108">
+        <v>0</v>
+      </c>
+      <c r="G28" s="108">
+        <v>0</v>
+      </c>
+      <c r="H28" s="108">
+        <v>0</v>
+      </c>
+      <c r="I28" s="108">
+        <v>0</v>
+      </c>
+      <c r="J28" s="108">
+        <v>0</v>
+      </c>
+      <c r="K28" s="108">
+        <v>0</v>
+      </c>
+      <c r="L28" s="108">
+        <v>0</v>
+      </c>
+      <c r="M28" s="108">
+        <v>0</v>
+      </c>
+      <c r="N28" s="123">
+        <v>0</v>
+      </c>
+      <c r="O28" s="115">
+        <v>82</v>
+      </c>
+      <c r="P28" s="108">
+        <v>48</v>
+      </c>
+      <c r="Q28" s="108">
+        <v>0</v>
+      </c>
+      <c r="R28" s="108">
+        <v>0</v>
+      </c>
+      <c r="S28" s="108">
+        <v>0</v>
+      </c>
+      <c r="T28" s="108">
+        <v>0</v>
+      </c>
+      <c r="U28" s="108">
+        <v>0</v>
+      </c>
+      <c r="V28" s="108">
+        <v>0</v>
+      </c>
+      <c r="W28" s="108">
+        <v>0</v>
+      </c>
+      <c r="X28" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z28" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA28" s="143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O29" s="118">
+        <v>430</v>
+      </c>
+      <c r="P29" s="119">
+        <v>42</v>
+      </c>
+      <c r="Q29" s="119">
+        <v>0</v>
+      </c>
+      <c r="R29" s="119">
+        <v>0</v>
+      </c>
+      <c r="S29" s="119">
+        <v>0</v>
+      </c>
+      <c r="T29" s="119">
+        <v>0</v>
+      </c>
+      <c r="U29" s="119">
+        <v>0</v>
+      </c>
+      <c r="V29" s="119">
+        <v>0</v>
+      </c>
+      <c r="W29" s="119">
+        <v>0</v>
+      </c>
+      <c r="X29" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="64">
-        <v>0</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0</v>
-      </c>
-      <c r="F27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10">
-        <v>0</v>
-      </c>
-      <c r="J27" s="10">
-        <v>0</v>
-      </c>
-      <c r="K27" s="10">
-        <v>0</v>
-      </c>
-      <c r="L27" s="10">
-        <v>0</v>
-      </c>
-      <c r="M27" s="10">
-        <v>0</v>
-      </c>
-      <c r="N27" s="10">
-        <v>0</v>
+      <c r="Z29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA29" s="142" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="64">
-        <v>0</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0</v>
-      </c>
-      <c r="F28" s="15">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10">
-        <v>0</v>
-      </c>
-      <c r="I28" s="10">
-        <v>0</v>
-      </c>
-      <c r="J28" s="10">
-        <v>0</v>
-      </c>
-      <c r="K28" s="10">
-        <v>0</v>
-      </c>
-      <c r="L28" s="10">
-        <v>0</v>
-      </c>
-      <c r="M28" s="10">
-        <v>0</v>
-      </c>
-      <c r="N28" s="10">
-        <v>0</v>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O30" s="120">
+        <v>220</v>
+      </c>
+      <c r="P30" s="101">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="101">
+        <v>0</v>
+      </c>
+      <c r="R30" s="101">
+        <v>0</v>
+      </c>
+      <c r="S30" s="101">
+        <v>0</v>
+      </c>
+      <c r="T30" s="101">
+        <v>0</v>
+      </c>
+      <c r="U30" s="101">
+        <v>0</v>
+      </c>
+      <c r="V30" s="101">
+        <v>0</v>
+      </c>
+      <c r="W30" s="101">
+        <v>0</v>
+      </c>
+      <c r="X30" s="102">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA30" s="142" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="17" t="s">
+    <row r="31" spans="1:27" ht="18" x14ac:dyDescent="0.25">
+      <c r="O31" s="120">
+        <v>1.35</v>
+      </c>
+      <c r="P31" s="101">
+        <v>1.35</v>
+      </c>
+      <c r="Q31" s="101">
+        <v>0</v>
+      </c>
+      <c r="R31" s="101">
+        <v>0</v>
+      </c>
+      <c r="S31" s="101">
+        <v>0</v>
+      </c>
+      <c r="T31" s="101">
+        <v>0</v>
+      </c>
+      <c r="U31" s="101">
+        <v>0</v>
+      </c>
+      <c r="V31" s="101">
+        <v>0</v>
+      </c>
+      <c r="W31" s="101">
+        <v>0</v>
+      </c>
+      <c r="X31" s="102">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="64">
-        <v>0</v>
-      </c>
-      <c r="E29" s="15">
-        <v>0</v>
-      </c>
-      <c r="F29" s="15">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10">
-        <v>0</v>
-      </c>
-      <c r="I29" s="10">
-        <v>0</v>
-      </c>
-      <c r="J29" s="10">
-        <v>0</v>
-      </c>
-      <c r="K29" s="10">
-        <v>0</v>
-      </c>
-      <c r="L29" s="10">
-        <v>0</v>
-      </c>
-      <c r="M29" s="10">
-        <v>0</v>
-      </c>
-      <c r="N29" s="10">
-        <v>0</v>
+      <c r="Z31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA31" s="142" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="17" t="s">
+    <row r="32" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O32" s="121">
+        <v>0.8</v>
+      </c>
+      <c r="P32" s="108">
+        <v>0.8</v>
+      </c>
+      <c r="Q32" s="108">
+        <v>0</v>
+      </c>
+      <c r="R32" s="108">
+        <v>0</v>
+      </c>
+      <c r="S32" s="108">
+        <v>0</v>
+      </c>
+      <c r="T32" s="108">
+        <v>0</v>
+      </c>
+      <c r="U32" s="108">
+        <v>0</v>
+      </c>
+      <c r="V32" s="108">
+        <v>0</v>
+      </c>
+      <c r="W32" s="108">
+        <v>0</v>
+      </c>
+      <c r="X32" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="64">
-        <v>0</v>
-      </c>
-      <c r="E30" s="15">
-        <v>0</v>
-      </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10">
-        <v>0</v>
-      </c>
-      <c r="I30" s="10">
-        <v>0</v>
-      </c>
-      <c r="J30" s="10">
-        <v>0</v>
-      </c>
-      <c r="K30" s="10">
-        <v>0</v>
-      </c>
-      <c r="L30" s="10">
-        <v>0</v>
-      </c>
-      <c r="M30" s="10">
-        <v>0</v>
-      </c>
-      <c r="N30" s="10">
-        <v>0</v>
+      <c r="Z32" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA32" s="143" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="64">
-        <v>0</v>
-      </c>
-      <c r="E31" s="15">
-        <v>0</v>
-      </c>
-      <c r="F31" s="15">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0</v>
-      </c>
-      <c r="H31" s="10">
-        <v>0</v>
-      </c>
-      <c r="I31" s="10">
-        <v>0</v>
-      </c>
-      <c r="J31" s="10">
-        <v>0</v>
-      </c>
-      <c r="K31" s="10">
-        <v>0</v>
-      </c>
-      <c r="L31" s="10">
-        <v>0</v>
-      </c>
-      <c r="M31" s="10">
-        <v>0</v>
-      </c>
-      <c r="N31" s="10">
-        <v>0</v>
-      </c>
+    <row r="33" spans="15:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O34" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="P34" s="128"/>
+      <c r="Q34" s="128"/>
+      <c r="R34" s="129"/>
     </row>
-    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="64">
-        <v>0</v>
-      </c>
-      <c r="E32" s="15">
-        <v>0</v>
-      </c>
-      <c r="F32" s="15">
-        <v>0</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10">
-        <v>0</v>
-      </c>
-      <c r="I32" s="10">
-        <v>0</v>
-      </c>
-      <c r="J32" s="10">
-        <v>0</v>
-      </c>
-      <c r="K32" s="10">
-        <v>0</v>
-      </c>
-      <c r="L32" s="10">
-        <v>0</v>
-      </c>
-      <c r="M32" s="10">
-        <v>0</v>
-      </c>
-      <c r="N32" s="10">
-        <v>0</v>
-      </c>
+    <row r="35" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O35" s="130"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="112"/>
     </row>
-    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="64">
-        <v>0</v>
-      </c>
-      <c r="E33" s="15">
-        <v>0</v>
-      </c>
-      <c r="F33" s="15">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
-      <c r="H33" s="10">
-        <v>0</v>
-      </c>
-      <c r="I33" s="10">
-        <v>0</v>
-      </c>
-      <c r="J33" s="10">
-        <v>0</v>
-      </c>
-      <c r="K33" s="10">
-        <v>0</v>
-      </c>
-      <c r="L33" s="10">
-        <v>0</v>
-      </c>
-      <c r="M33" s="10">
-        <v>0</v>
-      </c>
-      <c r="N33" s="10">
-        <v>0</v>
-      </c>
+    <row r="36" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O36" s="130" t="s">
+        <v>77</v>
+      </c>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="112"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="64">
-        <v>0</v>
-      </c>
-      <c r="E34" s="15">
-        <v>0</v>
-      </c>
-      <c r="F34" s="15">
-        <v>0</v>
-      </c>
-      <c r="G34" s="8">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0</v>
-      </c>
-      <c r="I34" s="10">
-        <v>0</v>
-      </c>
-      <c r="J34" s="10">
-        <v>0</v>
-      </c>
-      <c r="K34" s="10">
-        <v>0</v>
-      </c>
-      <c r="L34" s="10">
-        <v>0</v>
-      </c>
-      <c r="M34" s="10">
-        <v>0</v>
-      </c>
-      <c r="N34" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="64">
-        <v>0</v>
-      </c>
-      <c r="E35" s="15">
-        <v>0</v>
-      </c>
-      <c r="F35" s="15">
-        <v>0</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10">
-        <v>0</v>
-      </c>
-      <c r="J35" s="10">
-        <v>0</v>
-      </c>
-      <c r="K35" s="10">
-        <v>0</v>
-      </c>
-      <c r="L35" s="10">
-        <v>0</v>
-      </c>
-      <c r="M35" s="10">
-        <v>0</v>
-      </c>
-      <c r="N35" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="64">
-        <v>0</v>
-      </c>
-      <c r="E36" s="15">
-        <v>0</v>
-      </c>
-      <c r="F36" s="15">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10">
-        <v>0</v>
-      </c>
-      <c r="I36" s="10">
-        <v>0</v>
-      </c>
-      <c r="J36" s="10">
-        <v>0</v>
-      </c>
-      <c r="K36" s="10">
-        <v>0</v>
-      </c>
-      <c r="L36" s="10">
-        <v>0</v>
-      </c>
-      <c r="M36" s="10">
-        <v>0</v>
-      </c>
-      <c r="N36" s="10">
-        <v>0</v>
-      </c>
+    <row r="37" spans="15:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O37" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="85"/>
+      <c r="R37" s="113"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="O20:S21"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E21"/>
+    <mergeCell ref="A2:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="O24:X24 O27:X27" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCF95E3-29AD-46E0-B322-9CA5329031F3}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="14" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="148" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="94"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="99" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="56">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="J6" s="53">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="107">
+        <v>0</v>
+      </c>
+      <c r="E7" s="87">
+        <v>1.6</v>
+      </c>
+      <c r="F7" s="87">
+        <v>1.2</v>
+      </c>
+      <c r="G7" s="87">
+        <v>1.6</v>
+      </c>
+      <c r="H7" s="87">
+        <v>1.6</v>
+      </c>
+      <c r="I7" s="87">
+        <v>1.6</v>
+      </c>
+      <c r="J7" s="67">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/laminate_calc_theory_material_data.xlsx
+++ b/laminate_calc_theory_material_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Krzikalla\Desktop\Monocoque\CLT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03652BD-F26A-43F6-BD29-ABA489C9A0AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4546ABB4-79E3-48FE-9DD2-718E1B11327A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction,Theory,Workflow" sheetId="1" r:id="rId1"/>
@@ -2213,54 +2213,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="39" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="39" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="39" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2276,9 +2228,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="47" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="48" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2366,9 +2315,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="53" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2422,9 +2368,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2432,48 +2375,66 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="91" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="92" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="91" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="92" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="95" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2481,17 +2442,56 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="91" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="92" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="39" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="39" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="47" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="39" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="91" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="92" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2706,8 +2706,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9679997" y="24655030"/>
-          <a:ext cx="13792200" cy="10591800"/>
+          <a:off x="9469887" y="24657831"/>
+          <a:ext cx="13500847" cy="10591800"/>
           <a:chOff x="32368671" y="12676414"/>
           <a:chExt cx="13778593" cy="10591800"/>
         </a:xfrm>
@@ -4102,8 +4102,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3402406" y="28782200"/>
-          <a:ext cx="4054310" cy="4027714"/>
+          <a:off x="3332369" y="28785001"/>
+          <a:ext cx="3956259" cy="4027714"/>
           <a:chOff x="7320643" y="28370893"/>
           <a:chExt cx="4000500" cy="4027714"/>
         </a:xfrm>
@@ -4477,8 +4477,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2605521" y="33187698"/>
-          <a:ext cx="6762751" cy="9124950"/>
+          <a:off x="2549492" y="33190499"/>
+          <a:ext cx="6608670" cy="9124950"/>
           <a:chOff x="7267575" y="32556450"/>
           <a:chExt cx="6657976" cy="9124950"/>
         </a:xfrm>
@@ -4779,8 +4779,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6879647" y="0"/>
-          <a:ext cx="6899387" cy="2584739"/>
+          <a:off x="6725566" y="0"/>
+          <a:ext cx="6745306" cy="2587540"/>
           <a:chOff x="6130636" y="0"/>
           <a:chExt cx="6756512" cy="2580409"/>
         </a:xfrm>
@@ -4978,8 +4978,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6905625" y="2593180"/>
-          <a:ext cx="6742338" cy="14769935"/>
+          <a:off x="6751544" y="2595981"/>
+          <a:ext cx="6588257" cy="14769935"/>
           <a:chOff x="6232071" y="2619994"/>
           <a:chExt cx="6667499" cy="14797149"/>
         </a:xfrm>
@@ -5553,8 +5553,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13838464" y="13606"/>
-          <a:ext cx="6973661" cy="7762875"/>
+          <a:off x="13530302" y="13606"/>
+          <a:ext cx="6836389" cy="7765676"/>
           <a:chOff x="13076464" y="13606"/>
           <a:chExt cx="6912429" cy="7728857"/>
         </a:xfrm>
@@ -5949,8 +5949,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13933715" y="7817304"/>
-          <a:ext cx="9586231" cy="9946821"/>
+          <a:off x="13625553" y="7820105"/>
+          <a:ext cx="9392930" cy="9946821"/>
           <a:chOff x="13035644" y="7810501"/>
           <a:chExt cx="9497785" cy="9974035"/>
         </a:xfrm>
@@ -6261,8 +6261,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2659579" y="17552597"/>
-          <a:ext cx="6701517" cy="10844892"/>
+          <a:off x="2603550" y="17555398"/>
+          <a:ext cx="6547436" cy="10844892"/>
           <a:chOff x="6340929" y="17389929"/>
           <a:chExt cx="6626678" cy="10844892"/>
         </a:xfrm>
@@ -6487,448 +6487,6 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr lang="cs-CZ" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>506556</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>24246</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>456136</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>128155</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="119" name="Skupina 118">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B7EAA2B-A079-4456-89B1-391791B5B124}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="12269931" y="17883621"/>
-          <a:ext cx="8712580" cy="6771409"/>
-          <a:chOff x="12136581" y="17797896"/>
-          <a:chExt cx="8588755" cy="6771409"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="117" name="Skupina 116">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A787BD32-1616-4AA2-B5BD-0B0A6517CBBC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="12136581" y="17797896"/>
-            <a:ext cx="8588755" cy="6771409"/>
-            <a:chOff x="12070772" y="17803091"/>
-            <a:chExt cx="8539398" cy="6771409"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="115" name="Skupina 114">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35736E9-6288-43AE-A5E0-63BADE4777AF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="12105408" y="17838964"/>
-              <a:ext cx="8504762" cy="6691728"/>
-              <a:chOff x="12105408" y="17838964"/>
-              <a:chExt cx="8504762" cy="6691728"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="88" name="Skupina 87">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5717014-038C-49C1-908D-E7E4F7D959D8}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="12768448" y="17838964"/>
-                <a:ext cx="6969329" cy="2612571"/>
-                <a:chOff x="12899571" y="18083893"/>
-                <a:chExt cx="7048500" cy="2612571"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:grpSp>
-              <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="49" name="Skupina 48">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvGrpSpPr/>
-              </xdr:nvGrpSpPr>
-              <xdr:grpSpPr>
-                <a:xfrm>
-                  <a:off x="13026838" y="18214521"/>
-                  <a:ext cx="6837945" cy="2360747"/>
-                  <a:chOff x="12875559" y="18100862"/>
-                  <a:chExt cx="6761905" cy="2360747"/>
-                </a:xfrm>
-              </xdr:grpSpPr>
-              <xdr:pic>
-                <xdr:nvPicPr>
-                  <xdr:cNvPr id="47" name="Obrázek 46">
-                    <a:extLst>
-                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
-                      </a:ext>
-                    </a:extLst>
-                  </xdr:cNvPr>
-                  <xdr:cNvPicPr>
-                    <a:picLocks noChangeAspect="1"/>
-                  </xdr:cNvPicPr>
-                </xdr:nvPicPr>
-                <xdr:blipFill rotWithShape="1">
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-                  <a:srcRect t="11472"/>
-                  <a:stretch/>
-                </xdr:blipFill>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="12875559" y="18100862"/>
-                    <a:ext cx="6761905" cy="2360747"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:ln>
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:ln>
-                </xdr:spPr>
-              </xdr:pic>
-              <xdr:pic>
-                <xdr:nvPicPr>
-                  <xdr:cNvPr id="48" name="Obrázek 47">
-                    <a:extLst>
-                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
-                      </a:ext>
-                    </a:extLst>
-                  </xdr:cNvPr>
-                  <xdr:cNvPicPr>
-                    <a:picLocks noChangeAspect="1"/>
-                  </xdr:cNvPicPr>
-                </xdr:nvPicPr>
-                <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-                  <a:stretch>
-                    <a:fillRect/>
-                  </a:stretch>
-                </xdr:blipFill>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="15486529" y="19341353"/>
-                    <a:ext cx="1933333" cy="657143"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:ln>
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:ln>
-                </xdr:spPr>
-              </xdr:pic>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="14" name="TextovéPole 13">
-                    <a:extLst>
-                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-                      </a:ext>
-                    </a:extLst>
-                  </xdr:cNvPr>
-                  <xdr:cNvSpPr txBox="1"/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="17871141" y="19114992"/>
-                    <a:ext cx="555601" cy="501676"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:lnRef>
-                  <a:fillRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="tx1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-                    <a:noAutofit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-GB" sz="2800" b="1">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                        <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>VI</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
-                    </a:endParaRPr>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-            </xdr:grpSp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="113" name="Obdélník 112">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{202112B7-61C8-4F88-884C-624C28CA415D}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="12899571" y="18083893"/>
-                  <a:ext cx="7048500" cy="2612571"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="28575">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="50000"/>
-                  </a:schemeClr>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="accent1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="accent1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:endParaRPr lang="cs-CZ" sz="1100"/>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-          </xdr:grpSp>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="53" name="Obrázek 52">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD874DAA-A1A8-4D21-8B02-8933B1AB0996}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12105408" y="20435454"/>
-                <a:ext cx="8504762" cy="4095238"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln w="28575">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-          </xdr:pic>
-        </xdr:grpSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="116" name="Obdélník 115">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14FA3ACB-09E1-421D-8BC4-1761C2729648}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12070772" y="17803091"/>
-              <a:ext cx="8485909" cy="6771409"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="28575">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="cs-CZ" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="TextovéPole 117">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{897796F8-00D6-4C84-9F60-A52B9B145517}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15517091" y="21469350"/>
-            <a:ext cx="1961283" cy="619125"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1500"/>
-              <a:t>Force</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1500" baseline="0"/>
-              <a:t> [N/mm], Moment [N*mm/mm]</a:t>
-            </a:r>
-            <a:endParaRPr lang="cs-CZ" sz="1500"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -7378,6 +6936,1411 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>397699</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>78674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>182583</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="131" name="Skupina 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D66B2C-AEF6-48DE-A87F-55DE4B1C682E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10079581" y="17750350"/>
+          <a:ext cx="14230781" cy="6771409"/>
+          <a:chOff x="10194842" y="17699924"/>
+          <a:chExt cx="14393266" cy="6771409"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="129" name="Skupina 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA93D30-FC9B-4CA1-BD78-9FF182176EDE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10194842" y="17699924"/>
+            <a:ext cx="14393266" cy="6771409"/>
+            <a:chOff x="10194842" y="17699924"/>
+            <a:chExt cx="14393266" cy="6771409"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="119" name="Skupina 118">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B7EAA2B-A079-4456-89B1-391791B5B124}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="10194842" y="17699924"/>
+              <a:ext cx="14393266" cy="6771409"/>
+              <a:chOff x="12136582" y="17797896"/>
+              <a:chExt cx="14322922" cy="6771409"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="117" name="Skupina 116">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A787BD32-1616-4AA2-B5BD-0B0A6517CBBC}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="12136582" y="17797896"/>
+                <a:ext cx="14322922" cy="6771409"/>
+                <a:chOff x="12070773" y="17803091"/>
+                <a:chExt cx="14240613" cy="6771409"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="115" name="Skupina 114">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35736E9-6288-43AE-A5E0-63BADE4777AF}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="12105408" y="17838964"/>
+                  <a:ext cx="8504762" cy="6691728"/>
+                  <a:chOff x="12105408" y="17838964"/>
+                  <a:chExt cx="8504762" cy="6691728"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="88" name="Skupina 87">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5717014-038C-49C1-908D-E7E4F7D959D8}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="12768448" y="17838964"/>
+                    <a:ext cx="6969329" cy="2612571"/>
+                    <a:chOff x="12899571" y="18083893"/>
+                    <a:chExt cx="7048500" cy="2612571"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="49" name="Skupina 48">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="13026838" y="18214521"/>
+                      <a:ext cx="6837945" cy="2360747"/>
+                      <a:chOff x="12875559" y="18100862"/>
+                      <a:chExt cx="6761905" cy="2360747"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:pic>
+                    <xdr:nvPicPr>
+                      <xdr:cNvPr id="47" name="Obrázek 46">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvPicPr>
+                        <a:picLocks noChangeAspect="1"/>
+                      </xdr:cNvPicPr>
+                    </xdr:nvPicPr>
+                    <xdr:blipFill rotWithShape="1">
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+                      <a:srcRect t="11472"/>
+                      <a:stretch/>
+                    </xdr:blipFill>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="12875559" y="18100862"/>
+                        <a:ext cx="6761905" cy="2360747"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:ln>
+                    </xdr:spPr>
+                  </xdr:pic>
+                  <xdr:pic>
+                    <xdr:nvPicPr>
+                      <xdr:cNvPr id="48" name="Obrázek 47">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvPicPr>
+                        <a:picLocks noChangeAspect="1"/>
+                      </xdr:cNvPicPr>
+                    </xdr:nvPicPr>
+                    <xdr:blipFill>
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+                      <a:stretch>
+                        <a:fillRect/>
+                      </a:stretch>
+                    </xdr:blipFill>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="15486529" y="19341353"/>
+                        <a:ext cx="1933333" cy="657143"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:ln>
+                    </xdr:spPr>
+                  </xdr:pic>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="14" name="TextovéPole 13">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="17871141" y="19114992"/>
+                        <a:ext cx="555601" cy="501676"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="tx1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                        <a:noAutofit/>
+                      </a:bodyPr>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:r>
+                          <a:rPr lang="en-GB" sz="2800" b="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <a:t>VI</a:t>
+                        </a:r>
+                        <a:endParaRPr lang="cs-CZ" sz="2800" b="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:latin typeface="Centaur" panose="02030504050205020304" pitchFamily="18" charset="0"/>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="113" name="Obdélník 112">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{202112B7-61C8-4F88-884C-624C28CA415D}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="12899571" y="18083893"/>
+                      <a:ext cx="7048500" cy="2612571"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="28575">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:endParaRPr lang="cs-CZ" sz="1100"/>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+              </xdr:grpSp>
+              <xdr:pic>
+                <xdr:nvPicPr>
+                  <xdr:cNvPr id="53" name="Obrázek 52">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD874DAA-A1A8-4D21-8B02-8933B1AB0996}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvPicPr>
+                    <a:picLocks noChangeAspect="1"/>
+                  </xdr:cNvPicPr>
+                </xdr:nvPicPr>
+                <xdr:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </xdr:blipFill>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="12105408" y="20435454"/>
+                    <a:ext cx="8504762" cy="4095238"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="28575">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+              </xdr:pic>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="116" name="Obdélník 115">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14FA3ACB-09E1-421D-8BC4-1761C2729648}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="12070773" y="17803091"/>
+                  <a:ext cx="14240613" cy="6771409"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="28575">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="cs-CZ" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="118" name="TextovéPole 117">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{897796F8-00D6-4C84-9F60-A52B9B145517}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="15517091" y="21469350"/>
+                <a:ext cx="1961283" cy="619125"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500"/>
+                  <a:t>Force</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500" baseline="0"/>
+                  <a:t> [N/mm], Moment [N*mm/mm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="1500"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="125" name="Skupina 124">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9E299C-7DCD-459E-B84D-3D0EFA272937}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="19063606" y="19988893"/>
+              <a:ext cx="5415643" cy="1646464"/>
+              <a:chOff x="19458214" y="18206357"/>
+              <a:chExt cx="5415643" cy="1646464"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="123" name="Skupina 122">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DACAD72-F3C1-49F4-8E0E-CDFEF07471F9}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="19458214" y="18206357"/>
+                <a:ext cx="5415643" cy="1646464"/>
+                <a:chOff x="19458214" y="18206357"/>
+                <a:chExt cx="5415643" cy="1646464"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="121" name="TextovéPole 120">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDBCC0B4-C861-4765-9AA9-D7CF14C509E3}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="19458214" y="18206357"/>
+                  <a:ext cx="5415643" cy="1646464"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="9525" cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1600"/>
+                    <a:t>To</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+                    <a:t> get a line t</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1600"/>
+                    <a:t>ensile</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+                    <a:t> force from 3-point bending loaded by point force in the middle use:</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:endParaRPr lang="en-GB" sz="1600" baseline="0"/>
+                </a:p>
+                <a:p>
+                  <a:endParaRPr lang="en-GB" sz="1600" baseline="0"/>
+                </a:p>
+                <a:p>
+                  <a:endParaRPr lang="en-GB" sz="1600" baseline="0"/>
+                </a:p>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+                    <a:t>F - force, L - beam length, b-width,h-total beam height</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="cs-CZ" sz="1600"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:pic>
+              <xdr:nvPicPr>
+                <xdr:cNvPr id="122" name="Obrázek 121">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5927D6F-45C1-4DB7-BE79-A732E05A670D}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvPicPr>
+                  <a:picLocks noChangeAspect="1"/>
+                </xdr:cNvPicPr>
+              </xdr:nvPicPr>
+              <xdr:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </xdr:blipFill>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="19567071" y="18723429"/>
+                  <a:ext cx="1657143" cy="790476"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+            </xdr:pic>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="124" name="TextovéPole 123">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D24CCC1-8CB6-4F49-9B39-16AA29A4954C}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="21199929" y="18954750"/>
+                <a:ext cx="857250" cy="381000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600"/>
+                  <a:t>[N/mm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="128" name="Skupina 127">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03DC62BB-7210-4EBE-A358-37A3106BA45F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="19063607" y="21757823"/>
+              <a:ext cx="5415643" cy="2598964"/>
+              <a:chOff x="19553464" y="20369894"/>
+              <a:chExt cx="5415643" cy="2598964"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+            <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="126" name="TextovéPole 125">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66EE743F-AD44-45DC-8709-CA84916E0B35}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="19553464" y="20369894"/>
+                    <a:ext cx="5415643" cy="2598964"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1600"/>
+                      <a:t>To</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+                      <a:t> get a line t</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1600"/>
+                      <a:t>ensile</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+                      <a:t> force from bending of simple supported beam and loaded by uniformly distributed load q, use:</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:endParaRPr lang="en-GB" sz="1600" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:pPr/>
+                    <a14:m>
+                      <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                        <m:oMathParaPr>
+                          <m:jc m:val="left"/>
+                        </m:oMathParaPr>
+                        <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                          <m:r>
+                            <a:rPr lang="en-GB" sz="1600" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑞𝑥</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-GB" sz="1600" b="0" i="0" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>=</m:t>
+                          </m:r>
+                          <m:f>
+                            <m:fPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-GB" sz="1600" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:fPr>
+                            <m:num>
+                              <m:r>
+                                <a:rPr lang="en-GB" sz="1600" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑞</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-GB" sz="1600" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>∙</m:t>
+                              </m:r>
+                              <m:sSup>
+                                <m:sSupPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="en-GB" sz="1600" b="0" i="1" baseline="0">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSupPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-GB" sz="1600" b="0" i="1" baseline="0">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝐿</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sup>
+                                  <m:r>
+                                    <a:rPr lang="en-GB" sz="1600" b="0" i="1" baseline="0">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>2</m:t>
+                                  </m:r>
+                                </m:sup>
+                              </m:sSup>
+                            </m:num>
+                            <m:den>
+                              <m:r>
+                                <a:rPr lang="en-GB" sz="1600" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>8</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-GB" sz="1600" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>∙</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-GB" sz="1600" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑏</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-GB" sz="1600" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>∙</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-GB" sz="1600" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>h</m:t>
+                              </m:r>
+                            </m:den>
+                          </m:f>
+                        </m:oMath>
+                      </m:oMathPara>
+                    </a14:m>
+                    <a:endParaRPr lang="en-GB" sz="1600" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:endParaRPr lang="en-GB" sz="1600" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+                      <a:t>q-distrib load [N/mm], L - beam length, b-width,h-total beam height</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="cs-CZ" sz="1600"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </mc:Choice>
+            <mc:Fallback>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="126" name="TextovéPole 125">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66EE743F-AD44-45DC-8709-CA84916E0B35}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="19553464" y="20369894"/>
+                    <a:ext cx="5415643" cy="2598964"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1600"/>
+                      <a:t>To</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+                      <a:t> get a line t</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1600"/>
+                      <a:t>ensile</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+                      <a:t> force from bending of simple supported beam and loaded by uniformly distributed load q, use:</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:endParaRPr lang="en-GB" sz="1600" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:pPr/>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1600" b="0" i="0" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>𝑞𝑥=(𝑞</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1600" b="0" i="0" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>∙𝐿^2)/(</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1600" b="0" i="0" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>8</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1600" b="0" i="0" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>∙𝑏∙ℎ)</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-GB" sz="1600" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:endParaRPr lang="en-GB" sz="1600" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+                      <a:t>q-distrib load [N/mm], L - beam length, b-width,h-total beam height</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="cs-CZ" sz="1600"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </mc:Fallback>
+          </mc:AlternateContent>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="127" name="TextovéPole 126">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF465B00-33F5-4ACD-8BD2-9547813EC01A}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="21091071" y="21227143"/>
+                <a:ext cx="857250" cy="381000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600"/>
+                  <a:t>[N/mm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="130" name="TextovéPole 129">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FEF1044-ABC4-4194-9A4B-8966F62B405F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18981964" y="18029464"/>
+            <a:ext cx="5306786" cy="1836965"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>Tensile force</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+              <a:t> used in CLT can be also determined in form of a reaction force from FEA</a:t>
+            </a:r>
+            <a:endParaRPr lang="cs-CZ" sz="1600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>67644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>168114</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="138" name="Skupina 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4837A1A3-95AC-4942-81DE-98E49CA424B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9737912" y="36408320"/>
+          <a:ext cx="6768378" cy="3663916"/>
+          <a:chOff x="10892118" y="36497967"/>
+          <a:chExt cx="6768378" cy="3663916"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="136" name="Skupina 135">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A404CA-84C8-409A-BC41-2DCC0A17BE23}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10892118" y="36531176"/>
+            <a:ext cx="6768378" cy="3630707"/>
+            <a:chOff x="10892118" y="36531176"/>
+            <a:chExt cx="6768378" cy="3630707"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="134" name="Skupina 133">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B05C8EA-07A6-4238-B7A8-A25C4B64E78F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="10892118" y="36531176"/>
+              <a:ext cx="6768378" cy="3543071"/>
+              <a:chOff x="10892118" y="36531176"/>
+              <a:chExt cx="6768378" cy="3543071"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="132" name="Obrázek 131">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{845CA1E8-53E6-409C-964E-E658756769D0}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="10892118" y="36531176"/>
+                <a:ext cx="6768378" cy="1828571"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="133" name="Obrázek 132">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78415E7-4645-46DB-8000-0AFDB0E9EC3F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="10892118" y="38245676"/>
+                <a:ext cx="1904762" cy="1828571"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="135" name="TextovéPole 134">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB60508C-8AAE-4219-A463-E30F6F42D03C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12785911" y="38066383"/>
+              <a:ext cx="4874560" cy="2095500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1600">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Poznamka: Tuhost laminatu z CLT se pro uhly</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1600" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> 0+90,0+45,45+90 predpoklada vyssi okolo 10% vzhledem k realite.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1600" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Pro rozmanite skladby (napr 0,20,40,60) dochazi k pridavnemu zatizeni laminatu (torze + ohyb) uz pri jednoosem tahu --&gt; tuhost z CLT se pak predpoklada az o 20% vyssi nez v realite. </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1600" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>--&gt; navrhovat panely alespon o 10 - 20 %  tuzsi nez limit </a:t>
+              </a:r>
+              <a:endParaRPr lang="cs-CZ" sz="1600">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="137" name="Obdélník 136">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5DE924-54F0-46D1-839A-22109C857972}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10903324" y="36497967"/>
+            <a:ext cx="6757147" cy="3652709"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="cs-CZ" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7989,8 +8952,8 @@
   </sheetPr>
   <dimension ref="A2:AS60"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BA26" sqref="BA26"/>
+    <sheetView tabSelected="1" topLeftCell="H168" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD200" sqref="AD200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8000,18 +8963,18 @@
   <sheetData>
     <row r="2" spans="36:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="36:45" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ3" s="160" t="s">
+      <c r="AJ3" s="139" t="s">
         <v>102</v>
       </c>
-      <c r="AK3" s="161"/>
-      <c r="AL3" s="161"/>
-      <c r="AM3" s="161"/>
-      <c r="AN3" s="161"/>
-      <c r="AO3" s="161"/>
-      <c r="AP3" s="161"/>
-      <c r="AQ3" s="161"/>
-      <c r="AR3" s="161"/>
-      <c r="AS3" s="162"/>
+      <c r="AK3" s="140"/>
+      <c r="AL3" s="140"/>
+      <c r="AM3" s="140"/>
+      <c r="AN3" s="140"/>
+      <c r="AO3" s="140"/>
+      <c r="AP3" s="140"/>
+      <c r="AQ3" s="140"/>
+      <c r="AR3" s="140"/>
+      <c r="AS3" s="141"/>
     </row>
     <row r="4" spans="36:45" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="36:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8022,110 +8985,110 @@
       <c r="AO19" s="59"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="69"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="131"/>
+      <c r="J45" s="131"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="69"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="131"/>
+      <c r="E46" s="131"/>
+      <c r="F46" s="131"/>
+      <c r="G46" s="131"/>
+      <c r="H46" s="131"/>
+      <c r="I46" s="131"/>
+      <c r="J46" s="131"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="69"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="131"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
+      <c r="B48" s="131"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="131"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="69" t="s">
+      <c r="B50" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="69"/>
+      <c r="C50" s="131"/>
+      <c r="D50" s="131"/>
+      <c r="E50" s="131"/>
+      <c r="F50" s="131"/>
+      <c r="G50" s="131"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="131"/>
+      <c r="J50" s="131"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
+      <c r="B51" s="131"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="131"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="131"/>
+      <c r="J51" s="131"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
+      <c r="B52" s="131"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="131"/>
+      <c r="F52" s="131"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
+      <c r="J52" s="131"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="131"/>
+      <c r="J53" s="131"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="70" t="s">
+      <c r="A55" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="72"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="133"/>
+      <c r="E55" s="133"/>
+      <c r="F55" s="133"/>
+      <c r="G55" s="133"/>
+      <c r="H55" s="133"/>
+      <c r="I55" s="133"/>
+      <c r="J55" s="134"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="57">
@@ -8173,29 +9136,29 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="57"/>
-      <c r="B59" s="73" t="s">
+      <c r="B59" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="74"/>
+      <c r="C59" s="135"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="135"/>
+      <c r="F59" s="135"/>
+      <c r="G59" s="135"/>
+      <c r="H59" s="135"/>
+      <c r="I59" s="135"/>
+      <c r="J59" s="136"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="61"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="76"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8218,8 +9181,8 @@
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8229,14 +9192,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -8280,10 +9243,10 @@
       <c r="A4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="155"/>
       <c r="D4" s="27" t="s">
         <v>34</v>
       </c>
@@ -8294,10 +9257,10 @@
         <v>34</v>
       </c>
       <c r="G4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>35</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>39</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>35</v>
@@ -8329,13 +9292,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="43">
+        <v>0</v>
+      </c>
+      <c r="F5" s="44">
         <v>45</v>
       </c>
-      <c r="F5" s="44">
-        <v>0</v>
-      </c>
       <c r="G5" s="45">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H5" s="46">
         <v>90</v>
@@ -8368,19 +9331,19 @@
       </c>
       <c r="D6" s="2">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>57450</v>
+        <v>57452</v>
       </c>
       <c r="E6" s="2">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>57450</v>
+        <v>57452</v>
       </c>
       <c r="F6" s="2">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>57450</v>
+        <v>57452</v>
       </c>
       <c r="G6" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,2,0)</f>
-        <v>0</v>
+        <v>57452</v>
       </c>
       <c r="H6" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,2,0)</f>
@@ -8419,19 +9382,19 @@
       </c>
       <c r="D7" s="2">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>57450</v>
+        <v>57452</v>
       </c>
       <c r="E7" s="2">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>57450</v>
+        <v>57452</v>
       </c>
       <c r="F7" s="2">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>57450</v>
+        <v>57452</v>
       </c>
       <c r="G7" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,3,0)</f>
-        <v>0</v>
+        <v>57452</v>
       </c>
       <c r="H7" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,3,0)</f>
@@ -8482,7 +9445,7 @@
       </c>
       <c r="G8" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,4,0)</f>
-        <v>0</v>
+        <v>2630</v>
       </c>
       <c r="H8" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,4,0)</f>
@@ -8533,7 +9496,7 @@
       </c>
       <c r="G9" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,5,0)</f>
-        <v>0</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="H9" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,5,0)</f>
@@ -8584,7 +9547,7 @@
       </c>
       <c r="G10" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,6,0)</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H10" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,6,0)</f>
@@ -8635,7 +9598,7 @@
       </c>
       <c r="G11" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,7,0)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="H11" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,7,0)</f>
@@ -8686,7 +9649,7 @@
       </c>
       <c r="G12" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,8,0)</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H12" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,8,0)</f>
@@ -8737,7 +9700,7 @@
       </c>
       <c r="G13" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,9,0)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="H13" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,9,0)</f>
@@ -8788,7 +9751,7 @@
       </c>
       <c r="G14" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,10,0)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H14" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,10,0)</f>
@@ -8839,7 +9802,7 @@
       </c>
       <c r="G15" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,11,0)</f>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="H15" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,11,0)</f>
@@ -8890,7 +9853,7 @@
       </c>
       <c r="G16" s="2">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,12,0)</f>
-        <v>0</v>
+        <v>1460</v>
       </c>
       <c r="H16" s="2">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,12,0)</f>
@@ -8929,19 +9892,19 @@
       </c>
       <c r="D17" s="40">
         <f>HLOOKUP(D$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>321.2</v>
+        <v>321</v>
       </c>
       <c r="E17" s="40">
         <f>HLOOKUP(E$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>321.2</v>
+        <v>321</v>
       </c>
       <c r="F17" s="40">
         <f>HLOOKUP(F$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>321.2</v>
+        <v>321</v>
       </c>
       <c r="G17" s="40">
         <f>HLOOKUP(G$4,Material_Database!$D$4:$N$16,13,0)</f>
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="H17" s="40">
         <f>HLOOKUP(H$4,Material_Database!$D$4:$N$16,13,0)</f>
@@ -8974,7 +9937,7 @@
       </c>
       <c r="B18" s="63">
         <f>SUM(D17:M17)</f>
-        <v>963.59999999999991</v>
+        <v>1284</v>
       </c>
       <c r="C18" s="64" t="s">
         <v>23</v>
@@ -8986,7 +9949,7 @@
       </c>
       <c r="B19" s="66">
         <f>SUM(D15:M15)</f>
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
       <c r="C19" s="67" t="s">
         <v>21</v>
@@ -8994,43 +9957,43 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:13" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="153" t="s">
+      <c r="A22" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="154"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="155"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="158"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="156" t="s">
+      <c r="A23" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="165" t="s">
+      <c r="B23" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="D23" s="163" t="s">
+      <c r="C23" s="147"/>
+      <c r="D23" s="150" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="159"/>
-      <c r="B24" s="167"/>
-      <c r="C24" s="168"/>
-      <c r="D24" s="164"/>
+      <c r="A24" s="145"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="151"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="157" t="s">
+      <c r="A25" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="158">
-        <v>12.7</v>
+      <c r="D25" s="130">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -9125,26 +10088,26 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:4" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="144" t="s">
+      <c r="A34" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="159"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="146" t="s">
+      <c r="A35" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="151" t="s">
+      <c r="B35" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="152"/>
-      <c r="D35" s="147" t="s">
+      <c r="C35" s="143"/>
+      <c r="D35" s="128" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="83" t="s">
         <v>88</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -9153,13 +10116,13 @@
       <c r="C36" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="145">
+      <c r="D36" s="126">
         <f>HLOOKUP(D$35,Baseline_tubes!$D$4:$J$7,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="100" t="s">
+      <c r="A37" s="83" t="s">
         <v>87</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -9168,19 +10131,19 @@
       <c r="C37" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="145">
+      <c r="D37" s="126">
         <f>HLOOKUP(D$35,Baseline_tubes!$D$4:$J$7,3,0)</f>
         <v>25.4</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="104" t="s">
+      <c r="A38" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="127" t="s">
+      <c r="B38" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="106" t="s">
+      <c r="C38" s="89" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="67">
@@ -9237,8 +10200,8 @@
   </sheetPr>
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9250,720 +10213,720 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
       <c r="H2" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="91" t="s">
+      <c r="I2" s="74"/>
+      <c r="J2" s="75" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="124"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="165"/>
     </row>
     <row r="4" spans="1:14" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="125"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="107"/>
       <c r="D4" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="98" t="s">
+      <c r="L4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="98" t="s">
+      <c r="M4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="99" t="s">
+      <c r="N4" s="82" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="83" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="108" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="120">
+      <c r="E5" s="103">
+        <v>57452</v>
+      </c>
+      <c r="F5" s="84">
         <v>57450</v>
       </c>
-      <c r="F5" s="101">
-        <v>57450</v>
-      </c>
-      <c r="G5" s="101">
+      <c r="G5" s="84">
         <v>20010000</v>
       </c>
-      <c r="H5" s="101">
+      <c r="H5" s="84">
         <v>47200</v>
       </c>
-      <c r="I5" s="101">
-        <v>0</v>
-      </c>
-      <c r="J5" s="101">
-        <v>0</v>
-      </c>
-      <c r="K5" s="101">
-        <v>0</v>
-      </c>
-      <c r="L5" s="101">
-        <v>0</v>
-      </c>
-      <c r="M5" s="101">
-        <v>0</v>
-      </c>
-      <c r="N5" s="102">
+      <c r="I5" s="84">
+        <v>0</v>
+      </c>
+      <c r="J5" s="84">
+        <v>0</v>
+      </c>
+      <c r="K5" s="84">
+        <v>0</v>
+      </c>
+      <c r="L5" s="84">
+        <v>0</v>
+      </c>
+      <c r="M5" s="84">
+        <v>0</v>
+      </c>
+      <c r="N5" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="86" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="99" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="56">
         <v>0</v>
       </c>
-      <c r="E6" s="120">
+      <c r="E6" s="103">
+        <v>57452</v>
+      </c>
+      <c r="F6" s="84">
         <v>57450</v>
       </c>
-      <c r="F6" s="101">
-        <v>57450</v>
-      </c>
-      <c r="G6" s="101">
+      <c r="G6" s="84">
         <v>1301000</v>
       </c>
-      <c r="H6" s="101">
+      <c r="H6" s="84">
         <v>17322</v>
       </c>
-      <c r="I6" s="101">
-        <v>0</v>
-      </c>
-      <c r="J6" s="101">
-        <v>0</v>
-      </c>
-      <c r="K6" s="101">
-        <v>0</v>
-      </c>
-      <c r="L6" s="101">
-        <v>0</v>
-      </c>
-      <c r="M6" s="101">
-        <v>0</v>
-      </c>
-      <c r="N6" s="102">
+      <c r="I6" s="84">
+        <v>0</v>
+      </c>
+      <c r="J6" s="84">
+        <v>0</v>
+      </c>
+      <c r="K6" s="84">
+        <v>0</v>
+      </c>
+      <c r="L6" s="84">
+        <v>0</v>
+      </c>
+      <c r="M6" s="84">
+        <v>0</v>
+      </c>
+      <c r="N6" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="86" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="99" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="56">
         <v>0</v>
       </c>
-      <c r="E7" s="120">
+      <c r="E7" s="103">
         <v>2630</v>
       </c>
-      <c r="F7" s="101">
+      <c r="F7" s="84">
         <v>2630</v>
       </c>
-      <c r="G7" s="101">
+      <c r="G7" s="84">
         <v>1001000</v>
       </c>
-      <c r="H7" s="101">
+      <c r="H7" s="84">
         <v>4699</v>
       </c>
-      <c r="I7" s="101">
-        <v>0</v>
-      </c>
-      <c r="J7" s="101">
-        <v>0</v>
-      </c>
-      <c r="K7" s="101">
-        <v>0</v>
-      </c>
-      <c r="L7" s="101">
-        <v>0</v>
-      </c>
-      <c r="M7" s="101">
-        <v>0</v>
-      </c>
-      <c r="N7" s="102">
+      <c r="I7" s="84">
+        <v>0</v>
+      </c>
+      <c r="J7" s="84">
+        <v>0</v>
+      </c>
+      <c r="K7" s="84">
+        <v>0</v>
+      </c>
+      <c r="L7" s="84">
+        <v>0</v>
+      </c>
+      <c r="M7" s="84">
+        <v>0</v>
+      </c>
+      <c r="N7" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="86" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="99" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="56">
         <v>0</v>
       </c>
-      <c r="E8" s="120">
+      <c r="E8" s="103">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F8" s="101">
+      <c r="F8" s="84">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G8" s="101">
+      <c r="G8" s="84">
         <v>0.3</v>
       </c>
-      <c r="H8" s="101">
+      <c r="H8" s="84">
         <v>0.31</v>
       </c>
-      <c r="I8" s="101">
-        <v>0</v>
-      </c>
-      <c r="J8" s="101">
-        <v>0</v>
-      </c>
-      <c r="K8" s="101">
-        <v>0</v>
-      </c>
-      <c r="L8" s="101">
-        <v>0</v>
-      </c>
-      <c r="M8" s="101">
-        <v>0</v>
-      </c>
-      <c r="N8" s="102">
+      <c r="I8" s="84">
+        <v>0</v>
+      </c>
+      <c r="J8" s="84">
+        <v>0</v>
+      </c>
+      <c r="K8" s="84">
+        <v>0</v>
+      </c>
+      <c r="L8" s="84">
+        <v>0</v>
+      </c>
+      <c r="M8" s="84">
+        <v>0</v>
+      </c>
+      <c r="N8" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="86" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="99" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="56">
         <v>0</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="103">
         <v>700</v>
       </c>
-      <c r="F9" s="101">
+      <c r="F9" s="84">
         <v>700</v>
       </c>
-      <c r="G9" s="101">
+      <c r="G9" s="84">
         <v>14</v>
       </c>
-      <c r="H9" s="101">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="101">
-        <v>0</v>
-      </c>
-      <c r="J9" s="101">
-        <v>0</v>
-      </c>
-      <c r="K9" s="101">
-        <v>0</v>
-      </c>
-      <c r="L9" s="101">
-        <v>0</v>
-      </c>
-      <c r="M9" s="101">
-        <v>0</v>
-      </c>
-      <c r="N9" s="102">
+      <c r="H9" s="84">
+        <v>1500</v>
+      </c>
+      <c r="I9" s="84">
+        <v>0</v>
+      </c>
+      <c r="J9" s="84">
+        <v>0</v>
+      </c>
+      <c r="K9" s="84">
+        <v>0</v>
+      </c>
+      <c r="L9" s="84">
+        <v>0</v>
+      </c>
+      <c r="M9" s="84">
+        <v>0</v>
+      </c>
+      <c r="N9" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="86" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="99" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="56">
         <v>0</v>
       </c>
-      <c r="E10" s="120">
+      <c r="E10" s="103">
         <v>350</v>
       </c>
-      <c r="F10" s="101">
+      <c r="F10" s="84">
         <v>350</v>
       </c>
-      <c r="G10" s="101">
+      <c r="G10" s="84">
         <v>15</v>
       </c>
-      <c r="H10" s="101">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="101">
-        <v>0</v>
-      </c>
-      <c r="J10" s="101">
-        <v>0</v>
-      </c>
-      <c r="K10" s="101">
-        <v>0</v>
-      </c>
-      <c r="L10" s="101">
-        <v>0</v>
-      </c>
-      <c r="M10" s="101">
-        <v>0</v>
-      </c>
-      <c r="N10" s="102">
+      <c r="H10" s="84">
+        <v>800</v>
+      </c>
+      <c r="I10" s="84">
+        <v>0</v>
+      </c>
+      <c r="J10" s="84">
+        <v>0</v>
+      </c>
+      <c r="K10" s="84">
+        <v>0</v>
+      </c>
+      <c r="L10" s="84">
+        <v>0</v>
+      </c>
+      <c r="M10" s="84">
+        <v>0</v>
+      </c>
+      <c r="N10" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="86" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="99" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="56">
         <v>0</v>
       </c>
-      <c r="E11" s="120">
+      <c r="E11" s="103">
         <v>700</v>
       </c>
-      <c r="F11" s="101">
+      <c r="F11" s="84">
         <v>700</v>
       </c>
-      <c r="G11" s="101">
+      <c r="G11" s="84">
         <v>16</v>
       </c>
-      <c r="H11" s="101">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="101">
-        <v>0</v>
-      </c>
-      <c r="J11" s="101">
-        <v>0</v>
-      </c>
-      <c r="K11" s="101">
-        <v>0</v>
-      </c>
-      <c r="L11" s="101">
-        <v>0</v>
-      </c>
-      <c r="M11" s="101">
-        <v>0</v>
-      </c>
-      <c r="N11" s="102">
+      <c r="H11" s="84">
+        <v>50</v>
+      </c>
+      <c r="I11" s="84">
+        <v>0</v>
+      </c>
+      <c r="J11" s="84">
+        <v>0</v>
+      </c>
+      <c r="K11" s="84">
+        <v>0</v>
+      </c>
+      <c r="L11" s="84">
+        <v>0</v>
+      </c>
+      <c r="M11" s="84">
+        <v>0</v>
+      </c>
+      <c r="N11" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="86" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="56">
         <v>0</v>
       </c>
-      <c r="E12" s="120">
+      <c r="E12" s="103">
         <v>350</v>
       </c>
-      <c r="F12" s="101">
+      <c r="F12" s="84">
         <v>350</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="84">
         <v>17</v>
       </c>
-      <c r="H12" s="101">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="101">
-        <v>0</v>
-      </c>
-      <c r="J12" s="101">
-        <v>0</v>
-      </c>
-      <c r="K12" s="101">
-        <v>0</v>
-      </c>
-      <c r="L12" s="101">
-        <v>0</v>
-      </c>
-      <c r="M12" s="101">
-        <v>0</v>
-      </c>
-      <c r="N12" s="102">
+      <c r="H12" s="84">
+        <v>75</v>
+      </c>
+      <c r="I12" s="84">
+        <v>0</v>
+      </c>
+      <c r="J12" s="84">
+        <v>0</v>
+      </c>
+      <c r="K12" s="84">
+        <v>0</v>
+      </c>
+      <c r="L12" s="84">
+        <v>0</v>
+      </c>
+      <c r="M12" s="84">
+        <v>0</v>
+      </c>
+      <c r="N12" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="86" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="99" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="56">
         <v>0</v>
       </c>
-      <c r="E13" s="120">
+      <c r="E13" s="103">
         <v>70</v>
       </c>
-      <c r="F13" s="101">
+      <c r="F13" s="84">
         <v>70</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="84">
         <v>18</v>
       </c>
-      <c r="H13" s="101">
+      <c r="H13" s="84">
         <v>10</v>
       </c>
-      <c r="I13" s="101">
-        <v>0</v>
-      </c>
-      <c r="J13" s="101">
-        <v>0</v>
-      </c>
-      <c r="K13" s="101">
-        <v>0</v>
-      </c>
-      <c r="L13" s="101">
-        <v>0</v>
-      </c>
-      <c r="M13" s="101">
-        <v>0</v>
-      </c>
-      <c r="N13" s="102">
+      <c r="I13" s="84">
+        <v>0</v>
+      </c>
+      <c r="J13" s="84">
+        <v>0</v>
+      </c>
+      <c r="K13" s="84">
+        <v>0</v>
+      </c>
+      <c r="L13" s="84">
+        <v>0</v>
+      </c>
+      <c r="M13" s="84">
+        <v>0</v>
+      </c>
+      <c r="N13" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="86" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="99" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="56">
         <v>0</v>
       </c>
-      <c r="E14" s="120">
+      <c r="E14" s="103">
         <v>0.22</v>
       </c>
-      <c r="F14" s="101">
+      <c r="F14" s="84">
         <v>0.5</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="84">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H14" s="101">
+      <c r="H14" s="84">
         <v>0.5</v>
       </c>
-      <c r="I14" s="101">
-        <v>0</v>
-      </c>
-      <c r="J14" s="101">
-        <v>0</v>
-      </c>
-      <c r="K14" s="101">
-        <v>0</v>
-      </c>
-      <c r="L14" s="101">
-        <v>0</v>
-      </c>
-      <c r="M14" s="101">
-        <v>0</v>
-      </c>
-      <c r="N14" s="102">
+      <c r="I14" s="84">
+        <v>0</v>
+      </c>
+      <c r="J14" s="84">
+        <v>0</v>
+      </c>
+      <c r="K14" s="84">
+        <v>0</v>
+      </c>
+      <c r="L14" s="84">
+        <v>0</v>
+      </c>
+      <c r="M14" s="84">
+        <v>0</v>
+      </c>
+      <c r="N14" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="86" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="99" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="56">
         <v>0</v>
       </c>
-      <c r="E15" s="120">
+      <c r="E15" s="103">
         <v>1460</v>
       </c>
-      <c r="F15" s="101">
+      <c r="F15" s="84">
         <v>1460</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="84">
         <v>20</v>
       </c>
-      <c r="H15" s="101">
+      <c r="H15" s="84">
         <v>10</v>
       </c>
-      <c r="I15" s="101">
-        <v>0</v>
-      </c>
-      <c r="J15" s="101">
-        <v>0</v>
-      </c>
-      <c r="K15" s="101">
-        <v>0</v>
-      </c>
-      <c r="L15" s="101">
-        <v>0</v>
-      </c>
-      <c r="M15" s="101">
-        <v>0</v>
-      </c>
-      <c r="N15" s="102">
+      <c r="I15" s="84">
+        <v>0</v>
+      </c>
+      <c r="J15" s="84">
+        <v>0</v>
+      </c>
+      <c r="K15" s="84">
+        <v>0</v>
+      </c>
+      <c r="L15" s="84">
+        <v>0</v>
+      </c>
+      <c r="M15" s="84">
+        <v>0</v>
+      </c>
+      <c r="N15" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="127" t="s">
+      <c r="B16" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="100" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="56">
         <v>0</v>
       </c>
-      <c r="E16" s="121">
+      <c r="E16" s="104">
+        <v>321</v>
+      </c>
+      <c r="F16" s="91">
         <v>321.2</v>
       </c>
-      <c r="F16" s="108">
-        <v>321.2</v>
-      </c>
-      <c r="G16" s="108">
+      <c r="G16" s="91">
         <v>21</v>
       </c>
-      <c r="H16" s="108">
+      <c r="H16" s="91">
         <v>10</v>
       </c>
-      <c r="I16" s="108">
-        <v>0</v>
-      </c>
-      <c r="J16" s="108">
-        <v>0</v>
-      </c>
-      <c r="K16" s="108">
-        <v>0</v>
-      </c>
-      <c r="L16" s="108">
-        <v>0</v>
-      </c>
-      <c r="M16" s="108">
-        <v>0</v>
-      </c>
-      <c r="N16" s="89">
+      <c r="I16" s="91">
+        <v>0</v>
+      </c>
+      <c r="J16" s="91">
+        <v>0</v>
+      </c>
+      <c r="K16" s="91">
+        <v>0</v>
+      </c>
+      <c r="L16" s="91">
+        <v>0</v>
+      </c>
+      <c r="M16" s="91">
+        <v>0</v>
+      </c>
+      <c r="N16" s="73">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="O20" s="82" t="s">
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="O20" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
+      <c r="P20" s="162"/>
+      <c r="Q20" s="162"/>
+      <c r="R20" s="162"/>
+      <c r="S20" s="162"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="92"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="92"/>
-      <c r="S21" s="92"/>
+      <c r="A21" s="163"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="O21" s="163"/>
+      <c r="P21" s="163"/>
+      <c r="Q21" s="163"/>
+      <c r="R21" s="163"/>
+      <c r="S21" s="163"/>
     </row>
     <row r="22" spans="1:27" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="96" t="s">
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="97" t="s">
+      <c r="E22" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="98" t="s">
+      <c r="F22" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="98" t="s">
+      <c r="G22" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="98" t="s">
+      <c r="H22" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="98" t="s">
+      <c r="I22" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="98" t="s">
+      <c r="J22" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="98" t="s">
+      <c r="K22" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="L22" s="98" t="s">
+      <c r="L22" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="M22" s="98" t="s">
+      <c r="M22" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="N22" s="131" t="s">
+      <c r="N22" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="O22" s="135" t="s">
+      <c r="O22" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="P22" s="136" t="s">
+      <c r="P22" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="Q22" s="136" t="s">
+      <c r="Q22" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="R22" s="136" t="s">
+      <c r="R22" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="S22" s="136" t="s">
+      <c r="S22" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="T22" s="136" t="s">
+      <c r="T22" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="U22" s="136" t="s">
+      <c r="U22" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="V22" s="136" t="s">
+      <c r="V22" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="W22" s="136" t="s">
+      <c r="W22" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="X22" s="137" t="s">
+      <c r="X22" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="Y22" s="138"/>
-      <c r="Z22" s="139"/>
-      <c r="AA22" s="140" t="s">
+      <c r="Y22" s="120"/>
+      <c r="Z22" s="121"/>
+      <c r="AA22" s="122" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="83" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -9975,78 +10938,78 @@
       <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="E23" s="101">
+      <c r="E23" s="84">
         <v>212</v>
       </c>
-      <c r="F23" s="101">
-        <v>0</v>
-      </c>
-      <c r="G23" s="101">
-        <v>0</v>
-      </c>
-      <c r="H23" s="101">
-        <v>0</v>
-      </c>
-      <c r="I23" s="101">
-        <v>0</v>
-      </c>
-      <c r="J23" s="101">
-        <v>0</v>
-      </c>
-      <c r="K23" s="101">
-        <v>0</v>
-      </c>
-      <c r="L23" s="101">
-        <v>0</v>
-      </c>
-      <c r="M23" s="101">
-        <v>0</v>
-      </c>
-      <c r="N23" s="122">
-        <v>0</v>
-      </c>
-      <c r="O23" s="132">
+      <c r="F23" s="84">
+        <v>0</v>
+      </c>
+      <c r="G23" s="84">
+        <v>0</v>
+      </c>
+      <c r="H23" s="84">
+        <v>0</v>
+      </c>
+      <c r="I23" s="84">
+        <v>0</v>
+      </c>
+      <c r="J23" s="84">
+        <v>0</v>
+      </c>
+      <c r="K23" s="84">
+        <v>0</v>
+      </c>
+      <c r="L23" s="84">
+        <v>0</v>
+      </c>
+      <c r="M23" s="84">
+        <v>0</v>
+      </c>
+      <c r="N23" s="105">
+        <v>0</v>
+      </c>
+      <c r="O23" s="114">
         <v>1020</v>
       </c>
-      <c r="P23" s="133">
+      <c r="P23" s="115">
         <v>138</v>
       </c>
-      <c r="Q23" s="133">
-        <v>0</v>
-      </c>
-      <c r="R23" s="133">
-        <v>0</v>
-      </c>
-      <c r="S23" s="133">
-        <v>0</v>
-      </c>
-      <c r="T23" s="133">
-        <v>0</v>
-      </c>
-      <c r="U23" s="133">
-        <v>0</v>
-      </c>
-      <c r="V23" s="133">
-        <v>0</v>
-      </c>
-      <c r="W23" s="133">
-        <v>0</v>
-      </c>
-      <c r="X23" s="134">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="126" t="s">
+      <c r="Q23" s="115">
+        <v>0</v>
+      </c>
+      <c r="R23" s="115">
+        <v>0</v>
+      </c>
+      <c r="S23" s="115">
+        <v>0</v>
+      </c>
+      <c r="T23" s="115">
+        <v>0</v>
+      </c>
+      <c r="U23" s="115">
+        <v>0</v>
+      </c>
+      <c r="V23" s="115">
+        <v>0</v>
+      </c>
+      <c r="W23" s="115">
+        <v>0</v>
+      </c>
+      <c r="X23" s="116">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="108" t="s">
         <v>19</v>
       </c>
       <c r="Z23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AA23" s="141" t="s">
+      <c r="AA23" s="123" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="103" t="s">
+      <c r="A24" s="86" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -10058,34 +11021,34 @@
       <c r="D24" s="56">
         <v>0</v>
       </c>
-      <c r="E24" s="101">
+      <c r="E24" s="84">
         <v>100</v>
       </c>
-      <c r="F24" s="101">
-        <v>0</v>
-      </c>
-      <c r="G24" s="101">
-        <v>0</v>
-      </c>
-      <c r="H24" s="101">
-        <v>0</v>
-      </c>
-      <c r="I24" s="101">
-        <v>0</v>
-      </c>
-      <c r="J24" s="101">
-        <v>0</v>
-      </c>
-      <c r="K24" s="101">
-        <v>0</v>
-      </c>
-      <c r="L24" s="101">
-        <v>0</v>
-      </c>
-      <c r="M24" s="101">
-        <v>0</v>
-      </c>
-      <c r="N24" s="122">
+      <c r="F24" s="84">
+        <v>0</v>
+      </c>
+      <c r="G24" s="84">
+        <v>0</v>
+      </c>
+      <c r="H24" s="84">
+        <v>0</v>
+      </c>
+      <c r="I24" s="84">
+        <v>0</v>
+      </c>
+      <c r="J24" s="84">
+        <v>0</v>
+      </c>
+      <c r="K24" s="84">
+        <v>0</v>
+      </c>
+      <c r="L24" s="84">
+        <v>0</v>
+      </c>
+      <c r="M24" s="84">
+        <v>0</v>
+      </c>
+      <c r="N24" s="105">
         <v>0</v>
       </c>
       <c r="O24" s="2">
@@ -10105,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" ref="P24:X24" si="0">MIN(S29:S30)</f>
+        <f t="shared" ref="S24:X24" si="0">MIN(S29:S30)</f>
         <v>0</v>
       </c>
       <c r="T24" s="2">
@@ -10128,18 +11091,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="116" t="s">
+      <c r="Y24" s="99" t="s">
         <v>19</v>
       </c>
       <c r="Z24" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AA24" s="142" t="s">
+      <c r="AA24" s="124" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="103" t="s">
+      <c r="A25" s="86" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -10151,78 +11114,78 @@
       <c r="D25" s="56">
         <v>0</v>
       </c>
-      <c r="E25" s="101">
+      <c r="E25" s="84">
         <v>0.06</v>
       </c>
-      <c r="F25" s="101">
-        <v>0</v>
-      </c>
-      <c r="G25" s="101">
-        <v>0</v>
-      </c>
-      <c r="H25" s="101">
-        <v>0</v>
-      </c>
-      <c r="I25" s="101">
-        <v>0</v>
-      </c>
-      <c r="J25" s="101">
-        <v>0</v>
-      </c>
-      <c r="K25" s="101">
-        <v>0</v>
-      </c>
-      <c r="L25" s="101">
-        <v>0</v>
-      </c>
-      <c r="M25" s="101">
-        <v>0</v>
-      </c>
-      <c r="N25" s="122">
-        <v>0</v>
-      </c>
-      <c r="O25" s="114">
-        <v>0</v>
-      </c>
-      <c r="P25" s="101">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="101">
-        <v>0</v>
-      </c>
-      <c r="R25" s="101">
-        <v>0</v>
-      </c>
-      <c r="S25" s="101">
-        <v>0</v>
-      </c>
-      <c r="T25" s="101">
-        <v>0</v>
-      </c>
-      <c r="U25" s="101">
-        <v>0</v>
-      </c>
-      <c r="V25" s="101">
-        <v>0</v>
-      </c>
-      <c r="W25" s="101">
-        <v>0</v>
-      </c>
-      <c r="X25" s="102">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="116" t="s">
+      <c r="F25" s="84">
+        <v>0</v>
+      </c>
+      <c r="G25" s="84">
+        <v>0</v>
+      </c>
+      <c r="H25" s="84">
+        <v>0</v>
+      </c>
+      <c r="I25" s="84">
+        <v>0</v>
+      </c>
+      <c r="J25" s="84">
+        <v>0</v>
+      </c>
+      <c r="K25" s="84">
+        <v>0</v>
+      </c>
+      <c r="L25" s="84">
+        <v>0</v>
+      </c>
+      <c r="M25" s="84">
+        <v>0</v>
+      </c>
+      <c r="N25" s="105">
+        <v>0</v>
+      </c>
+      <c r="O25" s="97">
+        <v>0</v>
+      </c>
+      <c r="P25" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="84">
+        <v>0</v>
+      </c>
+      <c r="R25" s="84">
+        <v>0</v>
+      </c>
+      <c r="S25" s="84">
+        <v>0</v>
+      </c>
+      <c r="T25" s="84">
+        <v>0</v>
+      </c>
+      <c r="U25" s="84">
+        <v>0</v>
+      </c>
+      <c r="V25" s="84">
+        <v>0</v>
+      </c>
+      <c r="W25" s="84">
+        <v>0</v>
+      </c>
+      <c r="X25" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="99" t="s">
         <v>20</v>
       </c>
       <c r="Z25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AA25" s="142" t="s">
+      <c r="AA25" s="124" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="103" t="s">
+      <c r="A26" s="86" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -10234,78 +11197,78 @@
       <c r="D26" s="56">
         <v>0</v>
       </c>
-      <c r="E26" s="101">
+      <c r="E26" s="84">
         <v>4</v>
       </c>
-      <c r="F26" s="101">
-        <v>0</v>
-      </c>
-      <c r="G26" s="101">
-        <v>0</v>
-      </c>
-      <c r="H26" s="101">
-        <v>0</v>
-      </c>
-      <c r="I26" s="101">
-        <v>0</v>
-      </c>
-      <c r="J26" s="101">
-        <v>0</v>
-      </c>
-      <c r="K26" s="101">
-        <v>0</v>
-      </c>
-      <c r="L26" s="101">
-        <v>0</v>
-      </c>
-      <c r="M26" s="101">
-        <v>0</v>
-      </c>
-      <c r="N26" s="122">
-        <v>0</v>
-      </c>
-      <c r="O26" s="114">
+      <c r="F26" s="84">
+        <v>0</v>
+      </c>
+      <c r="G26" s="84">
+        <v>0</v>
+      </c>
+      <c r="H26" s="84">
+        <v>0</v>
+      </c>
+      <c r="I26" s="84">
+        <v>0</v>
+      </c>
+      <c r="J26" s="84">
+        <v>0</v>
+      </c>
+      <c r="K26" s="84">
+        <v>0</v>
+      </c>
+      <c r="L26" s="84">
+        <v>0</v>
+      </c>
+      <c r="M26" s="84">
+        <v>0</v>
+      </c>
+      <c r="N26" s="105">
+        <v>0</v>
+      </c>
+      <c r="O26" s="97">
         <v>4.5</v>
       </c>
-      <c r="P26" s="101">
+      <c r="P26" s="84">
         <v>1.8</v>
       </c>
-      <c r="Q26" s="101">
-        <v>0</v>
-      </c>
-      <c r="R26" s="101">
-        <v>0</v>
-      </c>
-      <c r="S26" s="101">
-        <v>0</v>
-      </c>
-      <c r="T26" s="101">
-        <v>0</v>
-      </c>
-      <c r="U26" s="101">
-        <v>0</v>
-      </c>
-      <c r="V26" s="101">
-        <v>0</v>
-      </c>
-      <c r="W26" s="101">
-        <v>0</v>
-      </c>
-      <c r="X26" s="102">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="116" t="s">
+      <c r="Q26" s="84">
+        <v>0</v>
+      </c>
+      <c r="R26" s="84">
+        <v>0</v>
+      </c>
+      <c r="S26" s="84">
+        <v>0</v>
+      </c>
+      <c r="T26" s="84">
+        <v>0</v>
+      </c>
+      <c r="U26" s="84">
+        <v>0</v>
+      </c>
+      <c r="V26" s="84">
+        <v>0</v>
+      </c>
+      <c r="W26" s="84">
+        <v>0</v>
+      </c>
+      <c r="X26" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="99" t="s">
         <v>19</v>
       </c>
       <c r="Z26" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AA26" s="142" t="s">
+      <c r="AA26" s="124" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="103" t="s">
+      <c r="A27" s="86" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -10317,34 +11280,34 @@
       <c r="D27" s="56">
         <v>0</v>
       </c>
-      <c r="E27" s="101">
+      <c r="E27" s="84">
         <v>2</v>
       </c>
-      <c r="F27" s="101">
-        <v>0</v>
-      </c>
-      <c r="G27" s="101">
-        <v>0</v>
-      </c>
-      <c r="H27" s="101">
-        <v>0</v>
-      </c>
-      <c r="I27" s="101">
-        <v>0</v>
-      </c>
-      <c r="J27" s="101">
-        <v>0</v>
-      </c>
-      <c r="K27" s="101">
-        <v>0</v>
-      </c>
-      <c r="L27" s="101">
-        <v>0</v>
-      </c>
-      <c r="M27" s="101">
-        <v>0</v>
-      </c>
-      <c r="N27" s="122">
+      <c r="F27" s="84">
+        <v>0</v>
+      </c>
+      <c r="G27" s="84">
+        <v>0</v>
+      </c>
+      <c r="H27" s="84">
+        <v>0</v>
+      </c>
+      <c r="I27" s="84">
+        <v>0</v>
+      </c>
+      <c r="J27" s="84">
+        <v>0</v>
+      </c>
+      <c r="K27" s="84">
+        <v>0</v>
+      </c>
+      <c r="L27" s="84">
+        <v>0</v>
+      </c>
+      <c r="M27" s="84">
+        <v>0</v>
+      </c>
+      <c r="N27" s="105">
         <v>0</v>
       </c>
       <c r="O27" s="2">
@@ -10387,260 +11350,260 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="116" t="s">
+      <c r="Y27" s="99" t="s">
         <v>19</v>
       </c>
       <c r="Z27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AA27" s="142" t="s">
+      <c r="AA27" s="124" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="106" t="s">
+      <c r="C28" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="107">
-        <v>0</v>
-      </c>
-      <c r="E28" s="108">
+      <c r="D28" s="90">
+        <v>0</v>
+      </c>
+      <c r="E28" s="91">
         <v>1560</v>
       </c>
-      <c r="F28" s="108">
-        <v>0</v>
-      </c>
-      <c r="G28" s="108">
-        <v>0</v>
-      </c>
-      <c r="H28" s="108">
-        <v>0</v>
-      </c>
-      <c r="I28" s="108">
-        <v>0</v>
-      </c>
-      <c r="J28" s="108">
-        <v>0</v>
-      </c>
-      <c r="K28" s="108">
-        <v>0</v>
-      </c>
-      <c r="L28" s="108">
-        <v>0</v>
-      </c>
-      <c r="M28" s="108">
-        <v>0</v>
-      </c>
-      <c r="N28" s="123">
-        <v>0</v>
-      </c>
-      <c r="O28" s="115">
+      <c r="F28" s="91">
+        <v>0</v>
+      </c>
+      <c r="G28" s="91">
+        <v>0</v>
+      </c>
+      <c r="H28" s="91">
+        <v>0</v>
+      </c>
+      <c r="I28" s="91">
+        <v>0</v>
+      </c>
+      <c r="J28" s="91">
+        <v>0</v>
+      </c>
+      <c r="K28" s="91">
+        <v>0</v>
+      </c>
+      <c r="L28" s="91">
+        <v>0</v>
+      </c>
+      <c r="M28" s="91">
+        <v>0</v>
+      </c>
+      <c r="N28" s="106">
+        <v>0</v>
+      </c>
+      <c r="O28" s="98">
         <v>82</v>
       </c>
-      <c r="P28" s="108">
+      <c r="P28" s="91">
         <v>48</v>
       </c>
-      <c r="Q28" s="108">
-        <v>0</v>
-      </c>
-      <c r="R28" s="108">
-        <v>0</v>
-      </c>
-      <c r="S28" s="108">
-        <v>0</v>
-      </c>
-      <c r="T28" s="108">
-        <v>0</v>
-      </c>
-      <c r="U28" s="108">
-        <v>0</v>
-      </c>
-      <c r="V28" s="108">
-        <v>0</v>
-      </c>
-      <c r="W28" s="108">
-        <v>0</v>
-      </c>
-      <c r="X28" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="117" t="s">
+      <c r="Q28" s="91">
+        <v>0</v>
+      </c>
+      <c r="R28" s="91">
+        <v>0</v>
+      </c>
+      <c r="S28" s="91">
+        <v>0</v>
+      </c>
+      <c r="T28" s="91">
+        <v>0</v>
+      </c>
+      <c r="U28" s="91">
+        <v>0</v>
+      </c>
+      <c r="V28" s="91">
+        <v>0</v>
+      </c>
+      <c r="W28" s="91">
+        <v>0</v>
+      </c>
+      <c r="X28" s="73">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="Z28" s="105" t="s">
+      <c r="Z28" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="AA28" s="143" t="s">
+      <c r="AA28" s="125" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O29" s="118">
+      <c r="O29" s="101">
         <v>430</v>
       </c>
-      <c r="P29" s="119">
+      <c r="P29" s="102">
         <v>42</v>
       </c>
-      <c r="Q29" s="119">
-        <v>0</v>
-      </c>
-      <c r="R29" s="119">
-        <v>0</v>
-      </c>
-      <c r="S29" s="119">
-        <v>0</v>
-      </c>
-      <c r="T29" s="119">
-        <v>0</v>
-      </c>
-      <c r="U29" s="119">
-        <v>0</v>
-      </c>
-      <c r="V29" s="119">
-        <v>0</v>
-      </c>
-      <c r="W29" s="119">
-        <v>0</v>
-      </c>
-      <c r="X29" s="88">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="109" t="s">
+      <c r="Q29" s="102">
+        <v>0</v>
+      </c>
+      <c r="R29" s="102">
+        <v>0</v>
+      </c>
+      <c r="S29" s="102">
+        <v>0</v>
+      </c>
+      <c r="T29" s="102">
+        <v>0</v>
+      </c>
+      <c r="U29" s="102">
+        <v>0</v>
+      </c>
+      <c r="V29" s="102">
+        <v>0</v>
+      </c>
+      <c r="W29" s="102">
+        <v>0</v>
+      </c>
+      <c r="X29" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="92" t="s">
         <v>19</v>
       </c>
       <c r="Z29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AA29" s="142" t="s">
+      <c r="AA29" s="124" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O30" s="120">
+      <c r="O30" s="103">
         <v>220</v>
       </c>
-      <c r="P30" s="101">
+      <c r="P30" s="84">
         <v>25</v>
       </c>
-      <c r="Q30" s="101">
-        <v>0</v>
-      </c>
-      <c r="R30" s="101">
-        <v>0</v>
-      </c>
-      <c r="S30" s="101">
-        <v>0</v>
-      </c>
-      <c r="T30" s="101">
-        <v>0</v>
-      </c>
-      <c r="U30" s="101">
-        <v>0</v>
-      </c>
-      <c r="V30" s="101">
-        <v>0</v>
-      </c>
-      <c r="W30" s="101">
-        <v>0</v>
-      </c>
-      <c r="X30" s="102">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="109" t="s">
+      <c r="Q30" s="84">
+        <v>0</v>
+      </c>
+      <c r="R30" s="84">
+        <v>0</v>
+      </c>
+      <c r="S30" s="84">
+        <v>0</v>
+      </c>
+      <c r="T30" s="84">
+        <v>0</v>
+      </c>
+      <c r="U30" s="84">
+        <v>0</v>
+      </c>
+      <c r="V30" s="84">
+        <v>0</v>
+      </c>
+      <c r="W30" s="84">
+        <v>0</v>
+      </c>
+      <c r="X30" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="92" t="s">
         <v>19</v>
       </c>
       <c r="Z30" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AA30" s="142" t="s">
+      <c r="AA30" s="124" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="O31" s="120">
+      <c r="O31" s="103">
         <v>1.35</v>
       </c>
-      <c r="P31" s="101">
+      <c r="P31" s="84">
         <v>1.35</v>
       </c>
-      <c r="Q31" s="101">
-        <v>0</v>
-      </c>
-      <c r="R31" s="101">
-        <v>0</v>
-      </c>
-      <c r="S31" s="101">
-        <v>0</v>
-      </c>
-      <c r="T31" s="101">
-        <v>0</v>
-      </c>
-      <c r="U31" s="101">
-        <v>0</v>
-      </c>
-      <c r="V31" s="101">
-        <v>0</v>
-      </c>
-      <c r="W31" s="101">
-        <v>0</v>
-      </c>
-      <c r="X31" s="102">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="109" t="s">
+      <c r="Q31" s="84">
+        <v>0</v>
+      </c>
+      <c r="R31" s="84">
+        <v>0</v>
+      </c>
+      <c r="S31" s="84">
+        <v>0</v>
+      </c>
+      <c r="T31" s="84">
+        <v>0</v>
+      </c>
+      <c r="U31" s="84">
+        <v>0</v>
+      </c>
+      <c r="V31" s="84">
+        <v>0</v>
+      </c>
+      <c r="W31" s="84">
+        <v>0</v>
+      </c>
+      <c r="X31" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="92" t="s">
         <v>19</v>
       </c>
       <c r="Z31" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AA31" s="142" t="s">
+      <c r="AA31" s="124" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O32" s="121">
+      <c r="O32" s="104">
         <v>0.8</v>
       </c>
-      <c r="P32" s="108">
+      <c r="P32" s="91">
         <v>0.8</v>
       </c>
-      <c r="Q32" s="108">
-        <v>0</v>
-      </c>
-      <c r="R32" s="108">
-        <v>0</v>
-      </c>
-      <c r="S32" s="108">
-        <v>0</v>
-      </c>
-      <c r="T32" s="108">
-        <v>0</v>
-      </c>
-      <c r="U32" s="108">
-        <v>0</v>
-      </c>
-      <c r="V32" s="108">
-        <v>0</v>
-      </c>
-      <c r="W32" s="108">
-        <v>0</v>
-      </c>
-      <c r="X32" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="110" t="s">
+      <c r="Q32" s="91">
+        <v>0</v>
+      </c>
+      <c r="R32" s="91">
+        <v>0</v>
+      </c>
+      <c r="S32" s="91">
+        <v>0</v>
+      </c>
+      <c r="T32" s="91">
+        <v>0</v>
+      </c>
+      <c r="U32" s="91">
+        <v>0</v>
+      </c>
+      <c r="V32" s="91">
+        <v>0</v>
+      </c>
+      <c r="W32" s="91">
+        <v>0</v>
+      </c>
+      <c r="X32" s="73">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="Z32" s="105" t="s">
+      <c r="Z32" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="AA32" s="143" t="s">
+      <c r="AA32" s="125" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10649,31 +11612,31 @@
       <c r="O34" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="P34" s="128"/>
-      <c r="Q34" s="128"/>
-      <c r="R34" s="129"/>
+      <c r="P34" s="110"/>
+      <c r="Q34" s="110"/>
+      <c r="R34" s="111"/>
     </row>
     <row r="35" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O35" s="130"/>
+      <c r="O35" s="112"/>
       <c r="P35" s="59"/>
       <c r="Q35" s="59"/>
-      <c r="R35" s="112"/>
+      <c r="R35" s="95"/>
     </row>
     <row r="36" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O36" s="130" t="s">
+      <c r="O36" s="112" t="s">
         <v>77</v>
       </c>
       <c r="P36" s="59"/>
       <c r="Q36" s="59"/>
-      <c r="R36" s="112"/>
+      <c r="R36" s="95"/>
     </row>
     <row r="37" spans="15:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O37" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="113"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10711,44 +11674,44 @@
     <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="166" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="150"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="168"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="99" t="s">
+      <c r="J4" s="82" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="83" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -10780,7 +11743,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="83" t="s">
         <v>87</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -10812,31 +11775,31 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="107">
-        <v>0</v>
-      </c>
-      <c r="E7" s="87">
+      <c r="D7" s="90">
+        <v>0</v>
+      </c>
+      <c r="E7" s="71">
         <v>1.6</v>
       </c>
-      <c r="F7" s="87">
+      <c r="F7" s="71">
         <v>1.2</v>
       </c>
-      <c r="G7" s="87">
+      <c r="G7" s="71">
         <v>1.6</v>
       </c>
-      <c r="H7" s="87">
+      <c r="H7" s="71">
         <v>1.6</v>
       </c>
-      <c r="I7" s="87">
+      <c r="I7" s="71">
         <v>1.6</v>
       </c>
       <c r="J7" s="67">
